--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportering" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,9 @@
   <si>
     <t>UPPDATERAD:</t>
   </si>
+  <si>
+    <t>Mailat JP och Helge</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;Tid, summa:(&quot;0.0&quot; h)&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;Tid, summa:(&quot;0.0&quot; h)&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -406,43 +409,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,10 +750,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,9 +767,9 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -818,8 +821,17 @@
       </c>
     </row>
     <row r="6" spans="2:5">
+      <c r="B6" s="2">
+        <v>41135</v>
+      </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -896,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,21 +1043,21 @@
       </c>
       <c r="Y1" s="30"/>
       <c r="Z1" s="30"/>
-      <c r="AD1" s="28" t="s">
+      <c r="AD1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="37">
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="31">
         <v>41135</v>
       </c>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
     </row>
     <row r="2" spans="1:240">
       <c r="B2" t="s">
@@ -1062,7 +1074,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="30">
         <f>SUM(C7:IF7)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -1074,1733 +1086,1735 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18" t="s">
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="18"/>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18"/>
-      <c r="CF4" s="18"/>
-      <c r="CG4" s="18"/>
-      <c r="CH4" s="18"/>
-      <c r="CI4" s="18"/>
-      <c r="CJ4" s="18"/>
-      <c r="CK4" s="18"/>
-      <c r="CL4" s="18" t="s">
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="18"/>
-      <c r="CN4" s="18"/>
-      <c r="CO4" s="18"/>
-      <c r="CP4" s="18"/>
-      <c r="CQ4" s="18"/>
-      <c r="CR4" s="18"/>
-      <c r="CS4" s="18"/>
-      <c r="CT4" s="18"/>
-      <c r="CU4" s="18"/>
-      <c r="CV4" s="18"/>
-      <c r="CW4" s="18"/>
-      <c r="CX4" s="18"/>
-      <c r="CY4" s="18"/>
-      <c r="CZ4" s="18"/>
-      <c r="DA4" s="18"/>
-      <c r="DB4" s="18"/>
-      <c r="DC4" s="18"/>
-      <c r="DD4" s="18"/>
-      <c r="DE4" s="18"/>
-      <c r="DF4" s="18"/>
-      <c r="DG4" s="18"/>
-      <c r="DH4" s="18"/>
-      <c r="DI4" s="18"/>
-      <c r="DJ4" s="18"/>
-      <c r="DK4" s="18"/>
-      <c r="DL4" s="18"/>
-      <c r="DM4" s="18"/>
-      <c r="DN4" s="18"/>
-      <c r="DO4" s="18"/>
-      <c r="DP4" s="18" t="s">
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="18"/>
-      <c r="DR4" s="18"/>
-      <c r="DS4" s="18"/>
-      <c r="DT4" s="18"/>
-      <c r="DU4" s="18"/>
-      <c r="DV4" s="18"/>
-      <c r="DW4" s="18"/>
-      <c r="DX4" s="18"/>
-      <c r="DY4" s="18"/>
-      <c r="DZ4" s="18"/>
-      <c r="EA4" s="18"/>
-      <c r="EB4" s="18"/>
-      <c r="EC4" s="18"/>
-      <c r="ED4" s="18"/>
-      <c r="EE4" s="18"/>
-      <c r="EF4" s="18"/>
-      <c r="EG4" s="18"/>
-      <c r="EH4" s="18"/>
-      <c r="EI4" s="18"/>
-      <c r="EJ4" s="18"/>
-      <c r="EK4" s="18"/>
-      <c r="EL4" s="18"/>
-      <c r="EM4" s="18"/>
-      <c r="EN4" s="18"/>
-      <c r="EO4" s="18"/>
-      <c r="EP4" s="18"/>
-      <c r="EQ4" s="18"/>
-      <c r="ER4" s="18"/>
-      <c r="ES4" s="18"/>
-      <c r="ET4" s="18"/>
-      <c r="EU4" s="18" t="s">
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35"/>
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35"/>
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35"/>
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="18"/>
-      <c r="EW4" s="18"/>
-      <c r="EX4" s="18"/>
-      <c r="EY4" s="18"/>
-      <c r="EZ4" s="18"/>
-      <c r="FA4" s="18"/>
-      <c r="FB4" s="18"/>
-      <c r="FC4" s="18"/>
-      <c r="FD4" s="18"/>
-      <c r="FE4" s="18"/>
-      <c r="FF4" s="18"/>
-      <c r="FG4" s="18"/>
-      <c r="FH4" s="18"/>
-      <c r="FI4" s="18"/>
-      <c r="FJ4" s="18"/>
-      <c r="FK4" s="18"/>
-      <c r="FL4" s="18"/>
-      <c r="FM4" s="18"/>
-      <c r="FN4" s="18"/>
-      <c r="FO4" s="18"/>
-      <c r="FP4" s="18"/>
-      <c r="FQ4" s="18"/>
-      <c r="FR4" s="18"/>
-      <c r="FS4" s="18"/>
-      <c r="FT4" s="18"/>
-      <c r="FU4" s="18"/>
-      <c r="FV4" s="18"/>
-      <c r="FW4" s="18"/>
-      <c r="FX4" s="18"/>
-      <c r="FY4" s="18"/>
-      <c r="FZ4" s="18" t="s">
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35"/>
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35"/>
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="18"/>
-      <c r="GB4" s="18"/>
-      <c r="GC4" s="18"/>
-      <c r="GD4" s="18"/>
-      <c r="GE4" s="18"/>
-      <c r="GF4" s="18"/>
-      <c r="GG4" s="18"/>
-      <c r="GH4" s="18"/>
-      <c r="GI4" s="18"/>
-      <c r="GJ4" s="18"/>
-      <c r="GK4" s="18"/>
-      <c r="GL4" s="18"/>
-      <c r="GM4" s="18"/>
-      <c r="GN4" s="18"/>
-      <c r="GO4" s="18"/>
-      <c r="GP4" s="18"/>
-      <c r="GQ4" s="18"/>
-      <c r="GR4" s="18"/>
-      <c r="GS4" s="18"/>
-      <c r="GT4" s="18"/>
-      <c r="GU4" s="18"/>
-      <c r="GV4" s="18"/>
-      <c r="GW4" s="18"/>
-      <c r="GX4" s="18"/>
-      <c r="GY4" s="18"/>
-      <c r="GZ4" s="18"/>
-      <c r="HA4" s="18"/>
-      <c r="HB4" s="18" t="s">
+      <c r="GA4" s="35"/>
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35"/>
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35"/>
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="18"/>
-      <c r="HD4" s="18"/>
-      <c r="HE4" s="18"/>
-      <c r="HF4" s="18"/>
-      <c r="HG4" s="18"/>
-      <c r="HH4" s="18"/>
-      <c r="HI4" s="18"/>
-      <c r="HJ4" s="18"/>
-      <c r="HK4" s="18"/>
-      <c r="HL4" s="18"/>
-      <c r="HM4" s="18"/>
-      <c r="HN4" s="18"/>
-      <c r="HO4" s="18"/>
-      <c r="HP4" s="18"/>
-      <c r="HQ4" s="18"/>
-      <c r="HR4" s="18"/>
-      <c r="HS4" s="18"/>
-      <c r="HT4" s="18"/>
-      <c r="HU4" s="18"/>
-      <c r="HV4" s="18"/>
-      <c r="HW4" s="18"/>
-      <c r="HX4" s="18"/>
-      <c r="HY4" s="18"/>
-      <c r="HZ4" s="18"/>
-      <c r="IA4" s="18"/>
-      <c r="IB4" s="18"/>
-      <c r="IC4" s="18"/>
-      <c r="ID4" s="18"/>
-      <c r="IE4" s="18"/>
-      <c r="IF4" s="19"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35"/>
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35"/>
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="37"/>
     </row>
     <row r="5" spans="1:240">
-      <c r="C5" s="22">
+      <c r="C5" s="18">
         <v>6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>7</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>9</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="19">
         <v>10</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="19">
         <v>11</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <v>12</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="19">
         <v>13</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="19">
         <v>14</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="19">
         <v>15</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="19">
         <v>16</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="19">
         <v>17</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="19">
         <v>18</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="20">
         <v>19</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="19">
         <v>20</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="19">
         <v>21</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="19">
         <v>22</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="19">
         <v>23</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="19">
         <v>24</v>
       </c>
-      <c r="V5" s="23">
+      <c r="V5" s="19">
         <v>25</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="20">
         <v>26</v>
       </c>
-      <c r="X5" s="23">
+      <c r="X5" s="19">
         <v>27</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="19">
         <v>28</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="19">
         <v>29</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="19">
         <v>30</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="19">
         <v>31</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="19">
         <v>1</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="20">
         <v>2</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="19">
         <v>3</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="19">
         <v>4</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AG5" s="19">
         <v>5</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AH5" s="19">
         <v>6</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="19">
         <v>7</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="19">
         <v>8</v>
       </c>
-      <c r="AK5" s="24">
+      <c r="AK5" s="20">
         <v>9</v>
       </c>
-      <c r="AL5" s="23">
+      <c r="AL5" s="19">
         <v>10</v>
       </c>
-      <c r="AM5" s="23">
+      <c r="AM5" s="19">
         <v>11</v>
       </c>
-      <c r="AN5" s="23">
+      <c r="AN5" s="19">
         <v>12</v>
       </c>
-      <c r="AO5" s="23">
+      <c r="AO5" s="19">
         <v>13</v>
       </c>
-      <c r="AP5" s="23">
+      <c r="AP5" s="19">
         <v>14</v>
       </c>
-      <c r="AQ5" s="23">
+      <c r="AQ5" s="19">
         <v>15</v>
       </c>
-      <c r="AR5" s="24">
+      <c r="AR5" s="20">
         <v>16</v>
       </c>
-      <c r="AS5" s="23">
+      <c r="AS5" s="19">
         <v>17</v>
       </c>
-      <c r="AT5" s="23">
+      <c r="AT5" s="19">
         <v>18</v>
       </c>
-      <c r="AU5" s="23">
+      <c r="AU5" s="19">
         <v>19</v>
       </c>
-      <c r="AV5" s="23">
+      <c r="AV5" s="19">
         <v>20</v>
       </c>
-      <c r="AW5" s="23">
+      <c r="AW5" s="19">
         <v>21</v>
       </c>
-      <c r="AX5" s="23">
+      <c r="AX5" s="19">
         <v>22</v>
       </c>
-      <c r="AY5" s="24">
+      <c r="AY5" s="20">
         <v>23</v>
       </c>
-      <c r="AZ5" s="23">
+      <c r="AZ5" s="19">
         <v>24</v>
       </c>
-      <c r="BA5" s="23">
+      <c r="BA5" s="19">
         <v>25</v>
       </c>
-      <c r="BB5" s="23">
+      <c r="BB5" s="19">
         <v>26</v>
       </c>
-      <c r="BC5" s="23">
+      <c r="BC5" s="19">
         <v>27</v>
       </c>
-      <c r="BD5" s="23">
+      <c r="BD5" s="19">
         <v>28</v>
       </c>
-      <c r="BE5" s="23">
+      <c r="BE5" s="19">
         <v>29</v>
       </c>
-      <c r="BF5" s="24">
+      <c r="BF5" s="20">
         <v>30</v>
       </c>
-      <c r="BG5" s="23">
+      <c r="BG5" s="19">
         <v>1</v>
       </c>
-      <c r="BH5" s="23">
+      <c r="BH5" s="19">
         <v>2</v>
       </c>
-      <c r="BI5" s="23">
+      <c r="BI5" s="19">
         <v>3</v>
       </c>
-      <c r="BJ5" s="23">
+      <c r="BJ5" s="19">
         <v>4</v>
       </c>
-      <c r="BK5" s="23">
+      <c r="BK5" s="19">
         <v>5</v>
       </c>
-      <c r="BL5" s="23">
+      <c r="BL5" s="19">
         <v>6</v>
       </c>
-      <c r="BM5" s="24">
+      <c r="BM5" s="20">
         <v>7</v>
       </c>
-      <c r="BN5" s="23">
+      <c r="BN5" s="19">
         <v>8</v>
       </c>
-      <c r="BO5" s="23">
+      <c r="BO5" s="19">
         <v>9</v>
       </c>
-      <c r="BP5" s="23">
+      <c r="BP5" s="19">
         <v>10</v>
       </c>
-      <c r="BQ5" s="23">
+      <c r="BQ5" s="19">
         <v>11</v>
       </c>
-      <c r="BR5" s="23">
+      <c r="BR5" s="19">
         <v>12</v>
       </c>
-      <c r="BS5" s="23">
+      <c r="BS5" s="19">
         <v>13</v>
       </c>
-      <c r="BT5" s="24">
+      <c r="BT5" s="20">
         <v>14</v>
       </c>
-      <c r="BU5" s="23">
+      <c r="BU5" s="19">
         <v>15</v>
       </c>
-      <c r="BV5" s="23">
+      <c r="BV5" s="19">
         <v>16</v>
       </c>
-      <c r="BW5" s="23">
+      <c r="BW5" s="19">
         <v>17</v>
       </c>
-      <c r="BX5" s="23">
+      <c r="BX5" s="19">
         <v>18</v>
       </c>
-      <c r="BY5" s="23">
+      <c r="BY5" s="19">
         <v>19</v>
       </c>
-      <c r="BZ5" s="23">
+      <c r="BZ5" s="19">
         <v>20</v>
       </c>
-      <c r="CA5" s="24">
+      <c r="CA5" s="20">
         <v>21</v>
       </c>
-      <c r="CB5" s="23">
+      <c r="CB5" s="19">
         <v>22</v>
       </c>
-      <c r="CC5" s="23">
+      <c r="CC5" s="19">
         <v>23</v>
       </c>
-      <c r="CD5" s="23">
+      <c r="CD5" s="19">
         <v>24</v>
       </c>
-      <c r="CE5" s="23">
+      <c r="CE5" s="19">
         <v>25</v>
       </c>
-      <c r="CF5" s="23">
+      <c r="CF5" s="19">
         <v>26</v>
       </c>
-      <c r="CG5" s="23">
+      <c r="CG5" s="19">
         <v>27</v>
       </c>
-      <c r="CH5" s="24">
+      <c r="CH5" s="20">
         <v>28</v>
       </c>
-      <c r="CI5" s="23">
+      <c r="CI5" s="19">
         <v>29</v>
       </c>
-      <c r="CJ5" s="23">
+      <c r="CJ5" s="19">
         <v>30</v>
       </c>
-      <c r="CK5" s="23">
+      <c r="CK5" s="19">
         <v>31</v>
       </c>
-      <c r="CL5" s="23">
+      <c r="CL5" s="19">
         <v>1</v>
       </c>
-      <c r="CM5" s="23">
+      <c r="CM5" s="19">
         <v>2</v>
       </c>
-      <c r="CN5" s="23">
+      <c r="CN5" s="19">
         <v>3</v>
       </c>
-      <c r="CO5" s="24">
+      <c r="CO5" s="20">
         <v>4</v>
       </c>
-      <c r="CP5" s="23">
+      <c r="CP5" s="19">
         <v>5</v>
       </c>
-      <c r="CQ5" s="23">
+      <c r="CQ5" s="19">
         <v>6</v>
       </c>
-      <c r="CR5" s="23">
+      <c r="CR5" s="19">
         <v>7</v>
       </c>
-      <c r="CS5" s="23">
+      <c r="CS5" s="19">
         <v>8</v>
       </c>
-      <c r="CT5" s="23">
+      <c r="CT5" s="19">
         <v>9</v>
       </c>
-      <c r="CU5" s="23">
+      <c r="CU5" s="19">
         <v>10</v>
       </c>
-      <c r="CV5" s="24">
+      <c r="CV5" s="20">
         <v>11</v>
       </c>
-      <c r="CW5" s="23">
+      <c r="CW5" s="19">
         <v>12</v>
       </c>
-      <c r="CX5" s="23">
+      <c r="CX5" s="19">
         <v>13</v>
       </c>
-      <c r="CY5" s="23">
+      <c r="CY5" s="19">
         <v>14</v>
       </c>
-      <c r="CZ5" s="23">
+      <c r="CZ5" s="19">
         <v>15</v>
       </c>
-      <c r="DA5" s="23">
+      <c r="DA5" s="19">
         <v>16</v>
       </c>
-      <c r="DB5" s="23">
+      <c r="DB5" s="19">
         <v>17</v>
       </c>
-      <c r="DC5" s="24">
+      <c r="DC5" s="20">
         <v>18</v>
       </c>
-      <c r="DD5" s="23">
+      <c r="DD5" s="19">
         <v>19</v>
       </c>
-      <c r="DE5" s="23">
+      <c r="DE5" s="19">
         <v>20</v>
       </c>
-      <c r="DF5" s="23">
+      <c r="DF5" s="19">
         <v>21</v>
       </c>
-      <c r="DG5" s="23">
+      <c r="DG5" s="19">
         <v>22</v>
       </c>
-      <c r="DH5" s="23">
+      <c r="DH5" s="19">
         <v>23</v>
       </c>
-      <c r="DI5" s="23">
+      <c r="DI5" s="19">
         <v>24</v>
       </c>
-      <c r="DJ5" s="24">
+      <c r="DJ5" s="20">
         <v>25</v>
       </c>
-      <c r="DK5" s="23">
+      <c r="DK5" s="19">
         <v>26</v>
       </c>
-      <c r="DL5" s="23">
+      <c r="DL5" s="19">
         <v>27</v>
       </c>
-      <c r="DM5" s="23">
+      <c r="DM5" s="19">
         <v>28</v>
       </c>
-      <c r="DN5" s="23">
+      <c r="DN5" s="19">
         <v>29</v>
       </c>
-      <c r="DO5" s="23">
+      <c r="DO5" s="19">
         <v>30</v>
       </c>
-      <c r="DP5" s="23">
+      <c r="DP5" s="19">
         <v>1</v>
       </c>
-      <c r="DQ5" s="24">
+      <c r="DQ5" s="20">
         <v>2</v>
       </c>
-      <c r="DR5" s="23">
+      <c r="DR5" s="19">
         <v>3</v>
       </c>
-      <c r="DS5" s="23">
+      <c r="DS5" s="19">
         <v>4</v>
       </c>
-      <c r="DT5" s="23">
+      <c r="DT5" s="19">
         <v>5</v>
       </c>
-      <c r="DU5" s="23">
+      <c r="DU5" s="19">
         <v>6</v>
       </c>
-      <c r="DV5" s="23">
+      <c r="DV5" s="19">
         <v>7</v>
       </c>
-      <c r="DW5" s="23">
+      <c r="DW5" s="19">
         <v>8</v>
       </c>
-      <c r="DX5" s="24">
+      <c r="DX5" s="20">
         <v>9</v>
       </c>
-      <c r="DY5" s="23">
+      <c r="DY5" s="19">
         <v>10</v>
       </c>
-      <c r="DZ5" s="23">
+      <c r="DZ5" s="19">
         <v>11</v>
       </c>
-      <c r="EA5" s="23">
+      <c r="EA5" s="19">
         <v>12</v>
       </c>
-      <c r="EB5" s="23">
+      <c r="EB5" s="19">
         <v>13</v>
       </c>
-      <c r="EC5" s="23">
+      <c r="EC5" s="19">
         <v>14</v>
       </c>
-      <c r="ED5" s="23">
+      <c r="ED5" s="19">
         <v>15</v>
       </c>
-      <c r="EE5" s="24">
+      <c r="EE5" s="20">
         <v>16</v>
       </c>
-      <c r="EF5" s="23">
+      <c r="EF5" s="19">
         <v>17</v>
       </c>
-      <c r="EG5" s="23">
+      <c r="EG5" s="19">
         <v>18</v>
       </c>
-      <c r="EH5" s="23">
+      <c r="EH5" s="19">
         <v>19</v>
       </c>
-      <c r="EI5" s="23">
+      <c r="EI5" s="19">
         <v>20</v>
       </c>
-      <c r="EJ5" s="23">
+      <c r="EJ5" s="19">
         <v>21</v>
       </c>
-      <c r="EK5" s="23">
+      <c r="EK5" s="19">
         <v>22</v>
       </c>
-      <c r="EL5" s="24">
+      <c r="EL5" s="20">
         <v>23</v>
       </c>
-      <c r="EM5" s="23">
+      <c r="EM5" s="19">
         <v>24</v>
       </c>
-      <c r="EN5" s="23">
+      <c r="EN5" s="19">
         <v>25</v>
       </c>
-      <c r="EO5" s="23">
+      <c r="EO5" s="19">
         <v>26</v>
       </c>
-      <c r="EP5" s="23">
+      <c r="EP5" s="19">
         <v>27</v>
       </c>
-      <c r="EQ5" s="23">
+      <c r="EQ5" s="19">
         <v>28</v>
       </c>
-      <c r="ER5" s="23">
+      <c r="ER5" s="19">
         <v>29</v>
       </c>
-      <c r="ES5" s="24">
+      <c r="ES5" s="20">
         <v>30</v>
       </c>
-      <c r="ET5" s="23">
+      <c r="ET5" s="19">
         <v>31</v>
       </c>
-      <c r="EU5" s="23">
+      <c r="EU5" s="19">
         <v>1</v>
       </c>
-      <c r="EV5" s="23">
+      <c r="EV5" s="19">
         <v>2</v>
       </c>
-      <c r="EW5" s="23">
+      <c r="EW5" s="19">
         <v>3</v>
       </c>
-      <c r="EX5" s="23">
+      <c r="EX5" s="19">
         <v>4</v>
       </c>
-      <c r="EY5" s="23">
+      <c r="EY5" s="19">
         <v>5</v>
       </c>
-      <c r="EZ5" s="24">
+      <c r="EZ5" s="20">
         <v>6</v>
       </c>
-      <c r="FA5" s="23">
+      <c r="FA5" s="19">
         <v>7</v>
       </c>
-      <c r="FB5" s="23">
+      <c r="FB5" s="19">
         <v>8</v>
       </c>
-      <c r="FC5" s="23">
+      <c r="FC5" s="19">
         <v>9</v>
       </c>
-      <c r="FD5" s="23">
+      <c r="FD5" s="19">
         <v>10</v>
       </c>
-      <c r="FE5" s="23">
+      <c r="FE5" s="19">
         <v>11</v>
       </c>
-      <c r="FF5" s="23">
+      <c r="FF5" s="19">
         <v>12</v>
       </c>
-      <c r="FG5" s="24">
+      <c r="FG5" s="20">
         <v>13</v>
       </c>
-      <c r="FH5" s="23">
+      <c r="FH5" s="19">
         <v>14</v>
       </c>
-      <c r="FI5" s="23">
+      <c r="FI5" s="19">
         <v>15</v>
       </c>
-      <c r="FJ5" s="23">
+      <c r="FJ5" s="19">
         <v>16</v>
       </c>
-      <c r="FK5" s="23">
+      <c r="FK5" s="19">
         <v>17</v>
       </c>
-      <c r="FL5" s="23">
+      <c r="FL5" s="19">
         <v>18</v>
       </c>
-      <c r="FM5" s="23">
+      <c r="FM5" s="19">
         <v>19</v>
       </c>
-      <c r="FN5" s="24">
+      <c r="FN5" s="20">
         <v>20</v>
       </c>
-      <c r="FO5" s="23">
+      <c r="FO5" s="19">
         <v>21</v>
       </c>
-      <c r="FP5" s="23">
+      <c r="FP5" s="19">
         <v>22</v>
       </c>
-      <c r="FQ5" s="23">
+      <c r="FQ5" s="19">
         <v>23</v>
       </c>
-      <c r="FR5" s="23">
+      <c r="FR5" s="19">
         <v>24</v>
       </c>
-      <c r="FS5" s="23">
+      <c r="FS5" s="19">
         <v>25</v>
       </c>
-      <c r="FT5" s="23">
+      <c r="FT5" s="19">
         <v>26</v>
       </c>
-      <c r="FU5" s="24">
+      <c r="FU5" s="20">
         <v>27</v>
       </c>
-      <c r="FV5" s="23">
+      <c r="FV5" s="19">
         <v>28</v>
       </c>
-      <c r="FW5" s="23">
+      <c r="FW5" s="19">
         <v>29</v>
       </c>
-      <c r="FX5" s="23">
+      <c r="FX5" s="19">
         <v>30</v>
       </c>
-      <c r="FY5" s="23">
+      <c r="FY5" s="19">
         <v>31</v>
       </c>
-      <c r="FZ5" s="23">
+      <c r="FZ5" s="19">
         <v>1</v>
       </c>
-      <c r="GA5" s="23">
+      <c r="GA5" s="19">
         <v>2</v>
       </c>
-      <c r="GB5" s="24">
+      <c r="GB5" s="20">
         <v>3</v>
       </c>
-      <c r="GC5" s="23">
+      <c r="GC5" s="19">
         <v>4</v>
       </c>
-      <c r="GD5" s="23">
+      <c r="GD5" s="19">
         <v>5</v>
       </c>
-      <c r="GE5" s="23">
+      <c r="GE5" s="19">
         <v>6</v>
       </c>
-      <c r="GF5" s="23">
+      <c r="GF5" s="19">
         <v>7</v>
       </c>
-      <c r="GG5" s="23">
+      <c r="GG5" s="19">
         <v>8</v>
       </c>
-      <c r="GH5" s="23">
+      <c r="GH5" s="19">
         <v>9</v>
       </c>
-      <c r="GI5" s="24">
+      <c r="GI5" s="20">
         <v>10</v>
       </c>
-      <c r="GJ5" s="23">
+      <c r="GJ5" s="19">
         <v>11</v>
       </c>
-      <c r="GK5" s="23">
+      <c r="GK5" s="19">
         <v>12</v>
       </c>
-      <c r="GL5" s="23">
+      <c r="GL5" s="19">
         <v>13</v>
       </c>
-      <c r="GM5" s="23">
+      <c r="GM5" s="19">
         <v>14</v>
       </c>
-      <c r="GN5" s="23">
+      <c r="GN5" s="19">
         <v>15</v>
       </c>
-      <c r="GO5" s="23">
+      <c r="GO5" s="19">
         <v>16</v>
       </c>
-      <c r="GP5" s="24">
+      <c r="GP5" s="20">
         <v>17</v>
       </c>
-      <c r="GQ5" s="23">
+      <c r="GQ5" s="19">
         <v>18</v>
       </c>
-      <c r="GR5" s="23">
+      <c r="GR5" s="19">
         <v>19</v>
       </c>
-      <c r="GS5" s="23">
+      <c r="GS5" s="19">
         <v>20</v>
       </c>
-      <c r="GT5" s="23">
+      <c r="GT5" s="19">
         <v>21</v>
       </c>
-      <c r="GU5" s="23">
+      <c r="GU5" s="19">
         <v>22</v>
       </c>
-      <c r="GV5" s="23">
+      <c r="GV5" s="19">
         <v>23</v>
       </c>
-      <c r="GW5" s="24">
+      <c r="GW5" s="20">
         <v>24</v>
       </c>
-      <c r="GX5" s="23">
+      <c r="GX5" s="19">
         <v>25</v>
       </c>
-      <c r="GY5" s="23">
+      <c r="GY5" s="19">
         <v>26</v>
       </c>
-      <c r="GZ5" s="23">
+      <c r="GZ5" s="19">
         <v>27</v>
       </c>
-      <c r="HA5" s="23">
+      <c r="HA5" s="19">
         <v>28</v>
       </c>
-      <c r="HB5" s="23">
+      <c r="HB5" s="19">
         <v>1</v>
       </c>
-      <c r="HC5" s="23">
+      <c r="HC5" s="19">
         <v>2</v>
       </c>
-      <c r="HD5" s="24">
+      <c r="HD5" s="20">
         <v>3</v>
       </c>
-      <c r="HE5" s="23">
+      <c r="HE5" s="19">
         <v>4</v>
       </c>
-      <c r="HF5" s="23">
+      <c r="HF5" s="19">
         <v>5</v>
       </c>
-      <c r="HG5" s="23">
+      <c r="HG5" s="19">
         <v>6</v>
       </c>
-      <c r="HH5" s="23">
+      <c r="HH5" s="19">
         <v>7</v>
       </c>
-      <c r="HI5" s="23">
+      <c r="HI5" s="19">
         <v>8</v>
       </c>
-      <c r="HJ5" s="23">
+      <c r="HJ5" s="19">
         <v>9</v>
       </c>
-      <c r="HK5" s="24">
+      <c r="HK5" s="20">
         <v>10</v>
       </c>
-      <c r="HL5" s="23">
+      <c r="HL5" s="19">
         <v>11</v>
       </c>
-      <c r="HM5" s="23">
+      <c r="HM5" s="19">
         <v>12</v>
       </c>
-      <c r="HN5" s="23">
+      <c r="HN5" s="19">
         <v>13</v>
       </c>
-      <c r="HO5" s="23">
+      <c r="HO5" s="19">
         <v>14</v>
       </c>
-      <c r="HP5" s="23">
+      <c r="HP5" s="19">
         <v>15</v>
       </c>
-      <c r="HQ5" s="23">
+      <c r="HQ5" s="19">
         <v>16</v>
       </c>
-      <c r="HR5" s="24">
+      <c r="HR5" s="20">
         <v>17</v>
       </c>
-      <c r="HS5" s="23">
+      <c r="HS5" s="19">
         <v>18</v>
       </c>
-      <c r="HT5" s="23">
+      <c r="HT5" s="19">
         <v>19</v>
       </c>
-      <c r="HU5" s="23">
+      <c r="HU5" s="19">
         <v>20</v>
       </c>
-      <c r="HV5" s="23">
+      <c r="HV5" s="19">
         <v>21</v>
       </c>
-      <c r="HW5" s="23">
+      <c r="HW5" s="19">
         <v>22</v>
       </c>
-      <c r="HX5" s="23">
+      <c r="HX5" s="19">
         <v>23</v>
       </c>
-      <c r="HY5" s="24">
+      <c r="HY5" s="20">
         <v>24</v>
       </c>
-      <c r="HZ5" s="23">
+      <c r="HZ5" s="19">
         <v>25</v>
       </c>
-      <c r="IA5" s="23">
+      <c r="IA5" s="19">
         <v>26</v>
       </c>
-      <c r="IB5" s="23">
+      <c r="IB5" s="19">
         <v>27</v>
       </c>
-      <c r="IC5" s="23">
+      <c r="IC5" s="19">
         <v>28</v>
       </c>
-      <c r="ID5" s="23">
+      <c r="ID5" s="19">
         <v>29</v>
       </c>
-      <c r="IE5" s="23">
+      <c r="IE5" s="19">
         <v>30</v>
       </c>
-      <c r="IF5" s="34">
+      <c r="IF5" s="26">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:240">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="35">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="27">
         <f>SUM(C7:I7)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="24">
         <v>2</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="28">
         <f>J6+C6</f>
         <v>3</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="35">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="27">
         <f>SUM(J7:P7)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="24">
         <v>15</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="28">
         <f>Q6+K6</f>
         <v>18</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="35">
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="27">
         <f>SUM(Q7:W7)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="24">
         <v>12</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="28">
         <f>X6+R6</f>
         <v>30</v>
       </c>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="35">
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="27">
         <f>SUM(X7:AD7)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE6" s="24">
         <v>15</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="28">
         <f>AE6+Y6</f>
         <v>45</v>
       </c>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="35">
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="27">
         <f>SUM(AE7:AK7)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="32">
+      <c r="AL6" s="24">
         <v>12</v>
       </c>
-      <c r="AM6" s="36">
+      <c r="AM6" s="28">
         <f>AL6+AF6</f>
         <v>57</v>
       </c>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="35">
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="27">
         <f>SUM(AL7:AR7)</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="32">
+      <c r="AS6" s="24">
         <v>15</v>
       </c>
-      <c r="AT6" s="36">
+      <c r="AT6" s="28">
         <f>AS6+AM6</f>
         <v>72</v>
       </c>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="35">
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="27">
         <f>SUM(AS7:AY7)</f>
         <v>0</v>
       </c>
-      <c r="AZ6" s="32">
+      <c r="AZ6" s="24">
         <v>12</v>
       </c>
-      <c r="BA6" s="36">
+      <c r="BA6" s="28">
         <f>AZ6+AT6</f>
         <v>84</v>
       </c>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="35">
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="27">
         <f>SUM(AZ7:BF7)</f>
         <v>0</v>
       </c>
-      <c r="BG6" s="32">
+      <c r="BG6" s="24">
         <v>15</v>
       </c>
-      <c r="BH6" s="36">
+      <c r="BH6" s="28">
         <f>BG6+BA6</f>
         <v>99</v>
       </c>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="35">
+      <c r="BI6" s="24"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="27">
         <f>SUM(BG7:BM7)</f>
         <v>0</v>
       </c>
-      <c r="BN6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="36">
+      <c r="BN6" s="24">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="28">
         <f>BN6+BH6</f>
         <v>99</v>
       </c>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="35">
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="24"/>
+      <c r="BR6" s="24"/>
+      <c r="BS6" s="24"/>
+      <c r="BT6" s="27">
         <f>SUM(BN7:BT7)</f>
         <v>0</v>
       </c>
-      <c r="BU6" s="32">
+      <c r="BU6" s="24">
         <v>12</v>
       </c>
-      <c r="BV6" s="36">
+      <c r="BV6" s="28">
         <f>BU6+BO6</f>
         <v>111</v>
       </c>
-      <c r="BW6" s="32"/>
-      <c r="BX6" s="32"/>
-      <c r="BY6" s="32"/>
-      <c r="BZ6" s="32"/>
-      <c r="CA6" s="35">
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="24"/>
+      <c r="BY6" s="24"/>
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="27">
         <f>SUM(BU7:CA7)</f>
         <v>0</v>
       </c>
-      <c r="CB6" s="32">
+      <c r="CB6" s="24">
         <v>15</v>
       </c>
-      <c r="CC6" s="36">
+      <c r="CC6" s="28">
         <f>CB6+BV6</f>
         <v>126</v>
       </c>
-      <c r="CD6" s="32"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="32"/>
-      <c r="CG6" s="32"/>
-      <c r="CH6" s="35">
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="24"/>
+      <c r="CF6" s="24"/>
+      <c r="CG6" s="24"/>
+      <c r="CH6" s="27">
         <f>SUM(CB7:CH7)</f>
         <v>0</v>
       </c>
-      <c r="CI6" s="32">
+      <c r="CI6" s="24">
         <v>12</v>
       </c>
-      <c r="CJ6" s="36">
+      <c r="CJ6" s="28">
         <f>CI6+CC6</f>
         <v>138</v>
       </c>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="32"/>
-      <c r="CM6" s="32"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="35">
+      <c r="CK6" s="24"/>
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="24"/>
+      <c r="CN6" s="24"/>
+      <c r="CO6" s="27">
         <f>SUM(CI7:CO7)</f>
         <v>0</v>
       </c>
-      <c r="CP6" s="32">
+      <c r="CP6" s="24">
         <v>15</v>
       </c>
-      <c r="CQ6" s="36">
+      <c r="CQ6" s="28">
         <f>CP6+CJ6</f>
         <v>153</v>
       </c>
-      <c r="CR6" s="32"/>
-      <c r="CS6" s="32"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="32"/>
-      <c r="CV6" s="35">
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="24"/>
+      <c r="CT6" s="24"/>
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="27">
         <f>SUM(CP7:CV7)</f>
         <v>0</v>
       </c>
-      <c r="CW6" s="32">
+      <c r="CW6" s="24">
         <v>12</v>
       </c>
-      <c r="CX6" s="36">
+      <c r="CX6" s="28">
         <f>CW6+CQ6</f>
         <v>165</v>
       </c>
-      <c r="CY6" s="32"/>
-      <c r="CZ6" s="32"/>
-      <c r="DA6" s="32"/>
-      <c r="DB6" s="32"/>
-      <c r="DC6" s="35">
+      <c r="CY6" s="24"/>
+      <c r="CZ6" s="24"/>
+      <c r="DA6" s="24"/>
+      <c r="DB6" s="24"/>
+      <c r="DC6" s="27">
         <f>SUM(CW7:DC7)</f>
         <v>0</v>
       </c>
-      <c r="DD6" s="32">
+      <c r="DD6" s="24">
         <v>15</v>
       </c>
-      <c r="DE6" s="36">
+      <c r="DE6" s="28">
         <f>DD6+CX6</f>
         <v>180</v>
       </c>
-      <c r="DF6" s="32"/>
-      <c r="DG6" s="32"/>
-      <c r="DH6" s="32"/>
-      <c r="DI6" s="32"/>
-      <c r="DJ6" s="35">
+      <c r="DF6" s="24"/>
+      <c r="DG6" s="24"/>
+      <c r="DH6" s="24"/>
+      <c r="DI6" s="24"/>
+      <c r="DJ6" s="27">
         <f>SUM(DD7:DJ7)</f>
         <v>0</v>
       </c>
-      <c r="DK6" s="32">
+      <c r="DK6" s="24">
         <v>12</v>
       </c>
-      <c r="DL6" s="36">
+      <c r="DL6" s="28">
         <f>DK6+DE6</f>
         <v>192</v>
       </c>
-      <c r="DM6" s="32"/>
-      <c r="DN6" s="32"/>
-      <c r="DO6" s="32"/>
-      <c r="DP6" s="32"/>
-      <c r="DQ6" s="35">
+      <c r="DM6" s="24"/>
+      <c r="DN6" s="24"/>
+      <c r="DO6" s="24"/>
+      <c r="DP6" s="24"/>
+      <c r="DQ6" s="27">
         <f>SUM(DK7:DQ7)</f>
         <v>0</v>
       </c>
-      <c r="DR6" s="32">
+      <c r="DR6" s="24">
         <v>15</v>
       </c>
-      <c r="DS6" s="36">
+      <c r="DS6" s="28">
         <f>DR6+DL6</f>
         <v>207</v>
       </c>
-      <c r="DT6" s="32"/>
-      <c r="DU6" s="32"/>
-      <c r="DV6" s="32"/>
-      <c r="DW6" s="32"/>
-      <c r="DX6" s="35">
+      <c r="DT6" s="24"/>
+      <c r="DU6" s="24"/>
+      <c r="DV6" s="24"/>
+      <c r="DW6" s="24"/>
+      <c r="DX6" s="27">
         <f>SUM(DR7:DX7)</f>
         <v>0</v>
       </c>
-      <c r="DY6" s="32">
+      <c r="DY6" s="24">
         <v>12</v>
       </c>
-      <c r="DZ6" s="36">
+      <c r="DZ6" s="28">
         <f>DY6+DS6</f>
         <v>219</v>
       </c>
-      <c r="EA6" s="32"/>
-      <c r="EB6" s="32"/>
-      <c r="EC6" s="32"/>
-      <c r="ED6" s="32"/>
-      <c r="EE6" s="35">
+      <c r="EA6" s="24"/>
+      <c r="EB6" s="24"/>
+      <c r="EC6" s="24"/>
+      <c r="ED6" s="24"/>
+      <c r="EE6" s="27">
         <f>SUM(DY7:EE7)</f>
         <v>0</v>
       </c>
-      <c r="EF6" s="32">
+      <c r="EF6" s="24">
         <v>15</v>
       </c>
-      <c r="EG6" s="36">
+      <c r="EG6" s="28">
         <f>EF6+DZ6</f>
         <v>234</v>
       </c>
-      <c r="EH6" s="32"/>
-      <c r="EI6" s="32"/>
-      <c r="EJ6" s="32"/>
-      <c r="EK6" s="32"/>
-      <c r="EL6" s="35">
+      <c r="EH6" s="24"/>
+      <c r="EI6" s="24"/>
+      <c r="EJ6" s="24"/>
+      <c r="EK6" s="24"/>
+      <c r="EL6" s="27">
         <f>SUM(EF7:EL7)</f>
         <v>0</v>
       </c>
-      <c r="EM6" s="32">
-        <v>0</v>
-      </c>
-      <c r="EN6" s="36">
+      <c r="EM6" s="24">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="28">
         <f>EM6+EG6</f>
         <v>234</v>
       </c>
-      <c r="EO6" s="32"/>
-      <c r="EP6" s="32"/>
-      <c r="EQ6" s="32"/>
-      <c r="ER6" s="32"/>
-      <c r="ES6" s="35">
+      <c r="EO6" s="24"/>
+      <c r="EP6" s="24"/>
+      <c r="EQ6" s="24"/>
+      <c r="ER6" s="24"/>
+      <c r="ES6" s="27">
         <f>SUM(EM7:ES7)</f>
         <v>0</v>
       </c>
-      <c r="ET6" s="32">
-        <v>0</v>
-      </c>
-      <c r="EU6" s="36">
+      <c r="ET6" s="24">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="28">
         <f>ET6+EN6</f>
         <v>234</v>
       </c>
-      <c r="EV6" s="32"/>
-      <c r="EW6" s="32"/>
-      <c r="EX6" s="32"/>
-      <c r="EY6" s="32"/>
-      <c r="EZ6" s="35">
+      <c r="EV6" s="24"/>
+      <c r="EW6" s="24"/>
+      <c r="EX6" s="24"/>
+      <c r="EY6" s="24"/>
+      <c r="EZ6" s="27">
         <f>SUM(ET7:EZ7)</f>
         <v>0</v>
       </c>
-      <c r="FA6" s="32">
+      <c r="FA6" s="24">
         <v>15</v>
       </c>
-      <c r="FB6" s="36">
+      <c r="FB6" s="28">
         <f>FA6+EU6</f>
         <v>249</v>
       </c>
-      <c r="FC6" s="32"/>
-      <c r="FD6" s="32"/>
-      <c r="FE6" s="32"/>
-      <c r="FF6" s="32"/>
-      <c r="FG6" s="35">
+      <c r="FC6" s="24"/>
+      <c r="FD6" s="24"/>
+      <c r="FE6" s="24"/>
+      <c r="FF6" s="24"/>
+      <c r="FG6" s="27">
         <f>SUM(FA7:FG7)</f>
         <v>0</v>
       </c>
-      <c r="FH6" s="32">
+      <c r="FH6" s="24">
         <v>12</v>
       </c>
-      <c r="FI6" s="36">
+      <c r="FI6" s="28">
         <f>FH6+FB6</f>
         <v>261</v>
       </c>
-      <c r="FJ6" s="32"/>
-      <c r="FK6" s="32"/>
-      <c r="FL6" s="32"/>
-      <c r="FM6" s="32"/>
-      <c r="FN6" s="35">
+      <c r="FJ6" s="24"/>
+      <c r="FK6" s="24"/>
+      <c r="FL6" s="24"/>
+      <c r="FM6" s="24"/>
+      <c r="FN6" s="27">
         <f>SUM(FH7:FN7)</f>
         <v>0</v>
       </c>
-      <c r="FO6" s="32">
+      <c r="FO6" s="24">
         <v>15</v>
       </c>
-      <c r="FP6" s="36">
+      <c r="FP6" s="28">
         <f>FO6+FI6</f>
         <v>276</v>
       </c>
-      <c r="FQ6" s="32"/>
-      <c r="FR6" s="32"/>
-      <c r="FS6" s="32"/>
-      <c r="FT6" s="32"/>
-      <c r="FU6" s="35">
+      <c r="FQ6" s="24"/>
+      <c r="FR6" s="24"/>
+      <c r="FS6" s="24"/>
+      <c r="FT6" s="24"/>
+      <c r="FU6" s="27">
         <f>SUM(FO7:FU7)</f>
         <v>0</v>
       </c>
-      <c r="FV6" s="32">
+      <c r="FV6" s="24">
         <v>12</v>
       </c>
-      <c r="FW6" s="36">
+      <c r="FW6" s="28">
         <f>FV6+FP6</f>
         <v>288</v>
       </c>
-      <c r="FX6" s="32"/>
-      <c r="FY6" s="32"/>
-      <c r="FZ6" s="32"/>
-      <c r="GA6" s="32"/>
-      <c r="GB6" s="35">
+      <c r="FX6" s="24"/>
+      <c r="FY6" s="24"/>
+      <c r="FZ6" s="24"/>
+      <c r="GA6" s="24"/>
+      <c r="GB6" s="27">
         <f>SUM(FV7:GB7)</f>
         <v>0</v>
       </c>
-      <c r="GC6" s="32">
+      <c r="GC6" s="24">
         <v>15</v>
       </c>
-      <c r="GD6" s="36">
+      <c r="GD6" s="28">
         <f>GC6+FW6</f>
         <v>303</v>
       </c>
-      <c r="GE6" s="32"/>
-      <c r="GF6" s="32"/>
-      <c r="GG6" s="32"/>
-      <c r="GH6" s="32"/>
-      <c r="GI6" s="35">
+      <c r="GE6" s="24"/>
+      <c r="GF6" s="24"/>
+      <c r="GG6" s="24"/>
+      <c r="GH6" s="24"/>
+      <c r="GI6" s="27">
         <f>SUM(GC7:GI7)</f>
         <v>0</v>
       </c>
-      <c r="GJ6" s="32">
+      <c r="GJ6" s="24">
         <v>12</v>
       </c>
-      <c r="GK6" s="36">
+      <c r="GK6" s="28">
         <f>GJ6+GD6</f>
         <v>315</v>
       </c>
-      <c r="GL6" s="32"/>
-      <c r="GM6" s="32"/>
-      <c r="GN6" s="32"/>
-      <c r="GO6" s="32"/>
-      <c r="GP6" s="35">
+      <c r="GL6" s="24"/>
+      <c r="GM6" s="24"/>
+      <c r="GN6" s="24"/>
+      <c r="GO6" s="24"/>
+      <c r="GP6" s="27">
         <f>SUM(GJ7:GP7)</f>
         <v>0</v>
       </c>
-      <c r="GQ6" s="32">
+      <c r="GQ6" s="24">
         <v>15</v>
       </c>
-      <c r="GR6" s="36">
+      <c r="GR6" s="28">
         <f>GQ6+GK6</f>
         <v>330</v>
       </c>
-      <c r="GS6" s="32"/>
-      <c r="GT6" s="32"/>
-      <c r="GU6" s="32"/>
-      <c r="GV6" s="32"/>
-      <c r="GW6" s="35">
+      <c r="GS6" s="24"/>
+      <c r="GT6" s="24"/>
+      <c r="GU6" s="24"/>
+      <c r="GV6" s="24"/>
+      <c r="GW6" s="27">
         <f>SUM(GQ7:GW7)</f>
         <v>0</v>
       </c>
-      <c r="GX6" s="32">
+      <c r="GX6" s="24">
         <v>12</v>
       </c>
-      <c r="GY6" s="36">
+      <c r="GY6" s="28">
         <f>GX6+GR6</f>
         <v>342</v>
       </c>
-      <c r="GZ6" s="32"/>
-      <c r="HA6" s="32"/>
-      <c r="HB6" s="32"/>
-      <c r="HC6" s="32"/>
-      <c r="HD6" s="35">
+      <c r="GZ6" s="24"/>
+      <c r="HA6" s="24"/>
+      <c r="HB6" s="24"/>
+      <c r="HC6" s="24"/>
+      <c r="HD6" s="27">
         <f>SUM(GX7:HD7)</f>
         <v>0</v>
       </c>
-      <c r="HE6" s="32">
+      <c r="HE6" s="24">
         <v>15</v>
       </c>
-      <c r="HF6" s="36">
+      <c r="HF6" s="28">
         <f>HE6+GY6</f>
         <v>357</v>
       </c>
-      <c r="HG6" s="32"/>
-      <c r="HH6" s="32"/>
-      <c r="HI6" s="32"/>
-      <c r="HJ6" s="32"/>
-      <c r="HK6" s="35">
+      <c r="HG6" s="24"/>
+      <c r="HH6" s="24"/>
+      <c r="HI6" s="24"/>
+      <c r="HJ6" s="24"/>
+      <c r="HK6" s="27">
         <f>SUM(HE7:HK7)</f>
         <v>0</v>
       </c>
-      <c r="HL6" s="32">
+      <c r="HL6" s="24">
         <v>12</v>
       </c>
-      <c r="HM6" s="36">
+      <c r="HM6" s="28">
         <f>HL6+HF6</f>
         <v>369</v>
       </c>
-      <c r="HN6" s="32"/>
-      <c r="HO6" s="32"/>
-      <c r="HP6" s="32"/>
-      <c r="HQ6" s="32"/>
-      <c r="HR6" s="35">
+      <c r="HN6" s="24"/>
+      <c r="HO6" s="24"/>
+      <c r="HP6" s="24"/>
+      <c r="HQ6" s="24"/>
+      <c r="HR6" s="27">
         <f>SUM(HL7:HR7)</f>
         <v>0</v>
       </c>
-      <c r="HS6" s="32">
+      <c r="HS6" s="24">
         <v>10</v>
       </c>
-      <c r="HT6" s="36">
+      <c r="HT6" s="28">
         <f>HS6+HM6</f>
         <v>379</v>
       </c>
-      <c r="HU6" s="32"/>
-      <c r="HV6" s="32"/>
-      <c r="HW6" s="32"/>
-      <c r="HX6" s="32"/>
-      <c r="HY6" s="35">
+      <c r="HU6" s="24"/>
+      <c r="HV6" s="24"/>
+      <c r="HW6" s="24"/>
+      <c r="HX6" s="24"/>
+      <c r="HY6" s="27">
         <f>SUM(HS7:HY7)</f>
         <v>0</v>
       </c>
-      <c r="HZ6" s="32">
+      <c r="HZ6" s="24">
         <v>10</v>
       </c>
-      <c r="IA6" s="36">
+      <c r="IA6" s="28">
         <f>HZ6+HT6</f>
         <v>389</v>
       </c>
-      <c r="IB6" s="32"/>
-      <c r="IC6" s="32"/>
-      <c r="ID6" s="32"/>
-      <c r="IE6" s="32"/>
-      <c r="IF6" s="35">
+      <c r="IB6" s="24"/>
+      <c r="IC6" s="24"/>
+      <c r="ID6" s="24"/>
+      <c r="IE6" s="24"/>
+      <c r="IF6" s="27">
         <f>SUM(HZ7:IF7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:240">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="25"/>
-      <c r="BK7" s="25"/>
-      <c r="BL7" s="25"/>
-      <c r="BM7" s="25"/>
-      <c r="BN7" s="25"/>
-      <c r="BO7" s="25"/>
-      <c r="BP7" s="25"/>
-      <c r="BQ7" s="25"/>
-      <c r="BR7" s="25"/>
-      <c r="BS7" s="25"/>
-      <c r="BT7" s="25"/>
-      <c r="BU7" s="25"/>
-      <c r="BV7" s="25"/>
-      <c r="BW7" s="25"/>
-      <c r="BX7" s="25"/>
-      <c r="BY7" s="25"/>
-      <c r="BZ7" s="25"/>
-      <c r="CA7" s="25"/>
-      <c r="CB7" s="25"/>
-      <c r="CC7" s="25"/>
-      <c r="CD7" s="25"/>
-      <c r="CE7" s="25"/>
-      <c r="CF7" s="25"/>
-      <c r="CG7" s="25"/>
-      <c r="CH7" s="25"/>
-      <c r="CI7" s="25"/>
-      <c r="CJ7" s="25"/>
-      <c r="CK7" s="25"/>
-      <c r="CL7" s="25"/>
-      <c r="CM7" s="25"/>
-      <c r="CN7" s="25"/>
-      <c r="CO7" s="25"/>
-      <c r="CP7" s="25"/>
-      <c r="CQ7" s="25"/>
-      <c r="CR7" s="25"/>
-      <c r="CS7" s="25"/>
-      <c r="CT7" s="25"/>
-      <c r="CU7" s="25"/>
-      <c r="CV7" s="25"/>
-      <c r="CW7" s="25"/>
-      <c r="CX7" s="25"/>
-      <c r="CY7" s="25"/>
-      <c r="CZ7" s="25"/>
-      <c r="DA7" s="25"/>
-      <c r="DB7" s="25"/>
-      <c r="DC7" s="25"/>
-      <c r="DD7" s="25"/>
-      <c r="DE7" s="25"/>
-      <c r="DF7" s="25"/>
-      <c r="DG7" s="25"/>
-      <c r="DH7" s="25"/>
-      <c r="DI7" s="25"/>
-      <c r="DJ7" s="25"/>
-      <c r="DK7" s="25"/>
-      <c r="DL7" s="25"/>
-      <c r="DM7" s="25"/>
-      <c r="DN7" s="25"/>
-      <c r="DO7" s="25"/>
-      <c r="DP7" s="25"/>
-      <c r="DQ7" s="25"/>
-      <c r="DR7" s="25"/>
-      <c r="DS7" s="25"/>
-      <c r="DT7" s="25"/>
-      <c r="DU7" s="25"/>
-      <c r="DV7" s="25"/>
-      <c r="DW7" s="25"/>
-      <c r="DX7" s="25"/>
-      <c r="DY7" s="25"/>
-      <c r="DZ7" s="25"/>
-      <c r="EA7" s="25"/>
-      <c r="EB7" s="25"/>
-      <c r="EC7" s="25"/>
-      <c r="ED7" s="25"/>
-      <c r="EE7" s="25"/>
-      <c r="EF7" s="25"/>
-      <c r="EG7" s="25"/>
-      <c r="EH7" s="25"/>
-      <c r="EI7" s="25"/>
-      <c r="EJ7" s="25"/>
-      <c r="EK7" s="25"/>
-      <c r="EL7" s="25"/>
-      <c r="EM7" s="25"/>
-      <c r="EN7" s="25"/>
-      <c r="EO7" s="25"/>
-      <c r="EP7" s="25"/>
-      <c r="EQ7" s="25"/>
-      <c r="ER7" s="25"/>
-      <c r="ES7" s="25"/>
-      <c r="ET7" s="25"/>
-      <c r="EU7" s="25"/>
-      <c r="EV7" s="25"/>
-      <c r="EW7" s="25"/>
-      <c r="EX7" s="25"/>
-      <c r="EY7" s="25"/>
-      <c r="EZ7" s="25"/>
-      <c r="FA7" s="25"/>
-      <c r="FB7" s="25"/>
-      <c r="FC7" s="25"/>
-      <c r="FD7" s="25"/>
-      <c r="FE7" s="25"/>
-      <c r="FF7" s="25"/>
-      <c r="FG7" s="25"/>
-      <c r="FH7" s="25"/>
-      <c r="FI7" s="25"/>
-      <c r="FJ7" s="25"/>
-      <c r="FK7" s="25"/>
-      <c r="FL7" s="25"/>
-      <c r="FM7" s="25"/>
-      <c r="FN7" s="25"/>
-      <c r="FO7" s="25"/>
-      <c r="FP7" s="25"/>
-      <c r="FQ7" s="25"/>
-      <c r="FR7" s="25"/>
-      <c r="FS7" s="25"/>
-      <c r="FT7" s="25"/>
-      <c r="FU7" s="25"/>
-      <c r="FV7" s="25"/>
-      <c r="FW7" s="25"/>
-      <c r="FX7" s="25"/>
-      <c r="FY7" s="25"/>
-      <c r="FZ7" s="25"/>
-      <c r="GA7" s="25"/>
-      <c r="GB7" s="25"/>
-      <c r="GC7" s="25"/>
-      <c r="GD7" s="25"/>
-      <c r="GE7" s="25"/>
-      <c r="GF7" s="25"/>
-      <c r="GG7" s="25"/>
-      <c r="GH7" s="25"/>
-      <c r="GI7" s="25"/>
-      <c r="GJ7" s="25"/>
-      <c r="GK7" s="25"/>
-      <c r="GL7" s="25"/>
-      <c r="GM7" s="25"/>
-      <c r="GN7" s="25"/>
-      <c r="GO7" s="25"/>
-      <c r="GP7" s="25"/>
-      <c r="GQ7" s="25"/>
-      <c r="GR7" s="25"/>
-      <c r="GS7" s="25"/>
-      <c r="GT7" s="25"/>
-      <c r="GU7" s="25"/>
-      <c r="GV7" s="25"/>
-      <c r="GW7" s="25"/>
-      <c r="GX7" s="25"/>
-      <c r="GY7" s="25"/>
-      <c r="GZ7" s="25"/>
-      <c r="HA7" s="25"/>
-      <c r="HB7" s="25"/>
-      <c r="HC7" s="25"/>
-      <c r="HD7" s="25"/>
-      <c r="HE7" s="25"/>
-      <c r="HF7" s="25"/>
-      <c r="HG7" s="25"/>
-      <c r="HH7" s="25"/>
-      <c r="HI7" s="25"/>
-      <c r="HJ7" s="25"/>
-      <c r="HK7" s="25"/>
-      <c r="HL7" s="25"/>
-      <c r="HM7" s="25"/>
-      <c r="HN7" s="25"/>
-      <c r="HO7" s="25"/>
-      <c r="HP7" s="25"/>
-      <c r="HQ7" s="25"/>
-      <c r="HR7" s="25"/>
-      <c r="HS7" s="25"/>
-      <c r="HT7" s="25"/>
-      <c r="HU7" s="25"/>
-      <c r="HV7" s="25"/>
-      <c r="HW7" s="25"/>
-      <c r="HX7" s="25"/>
-      <c r="HY7" s="25"/>
-      <c r="HZ7" s="25"/>
-      <c r="IA7" s="25"/>
-      <c r="IB7" s="25"/>
-      <c r="IC7" s="25"/>
-      <c r="ID7" s="25"/>
-      <c r="IE7" s="25"/>
-      <c r="IF7" s="25"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
+      <c r="CQ7" s="21"/>
+      <c r="CR7" s="21"/>
+      <c r="CS7" s="21"/>
+      <c r="CT7" s="21"/>
+      <c r="CU7" s="21"/>
+      <c r="CV7" s="21"/>
+      <c r="CW7" s="21"/>
+      <c r="CX7" s="21"/>
+      <c r="CY7" s="21"/>
+      <c r="CZ7" s="21"/>
+      <c r="DA7" s="21"/>
+      <c r="DB7" s="21"/>
+      <c r="DC7" s="21"/>
+      <c r="DD7" s="21"/>
+      <c r="DE7" s="21"/>
+      <c r="DF7" s="21"/>
+      <c r="DG7" s="21"/>
+      <c r="DH7" s="21"/>
+      <c r="DI7" s="21"/>
+      <c r="DJ7" s="21"/>
+      <c r="DK7" s="21"/>
+      <c r="DL7" s="21"/>
+      <c r="DM7" s="21"/>
+      <c r="DN7" s="21"/>
+      <c r="DO7" s="21"/>
+      <c r="DP7" s="21"/>
+      <c r="DQ7" s="21"/>
+      <c r="DR7" s="21"/>
+      <c r="DS7" s="21"/>
+      <c r="DT7" s="21"/>
+      <c r="DU7" s="21"/>
+      <c r="DV7" s="21"/>
+      <c r="DW7" s="21"/>
+      <c r="DX7" s="21"/>
+      <c r="DY7" s="21"/>
+      <c r="DZ7" s="21"/>
+      <c r="EA7" s="21"/>
+      <c r="EB7" s="21"/>
+      <c r="EC7" s="21"/>
+      <c r="ED7" s="21"/>
+      <c r="EE7" s="21"/>
+      <c r="EF7" s="21"/>
+      <c r="EG7" s="21"/>
+      <c r="EH7" s="21"/>
+      <c r="EI7" s="21"/>
+      <c r="EJ7" s="21"/>
+      <c r="EK7" s="21"/>
+      <c r="EL7" s="21"/>
+      <c r="EM7" s="21"/>
+      <c r="EN7" s="21"/>
+      <c r="EO7" s="21"/>
+      <c r="EP7" s="21"/>
+      <c r="EQ7" s="21"/>
+      <c r="ER7" s="21"/>
+      <c r="ES7" s="21"/>
+      <c r="ET7" s="21"/>
+      <c r="EU7" s="21"/>
+      <c r="EV7" s="21"/>
+      <c r="EW7" s="21"/>
+      <c r="EX7" s="21"/>
+      <c r="EY7" s="21"/>
+      <c r="EZ7" s="21"/>
+      <c r="FA7" s="21"/>
+      <c r="FB7" s="21"/>
+      <c r="FC7" s="21"/>
+      <c r="FD7" s="21"/>
+      <c r="FE7" s="21"/>
+      <c r="FF7" s="21"/>
+      <c r="FG7" s="21"/>
+      <c r="FH7" s="21"/>
+      <c r="FI7" s="21"/>
+      <c r="FJ7" s="21"/>
+      <c r="FK7" s="21"/>
+      <c r="FL7" s="21"/>
+      <c r="FM7" s="21"/>
+      <c r="FN7" s="21"/>
+      <c r="FO7" s="21"/>
+      <c r="FP7" s="21"/>
+      <c r="FQ7" s="21"/>
+      <c r="FR7" s="21"/>
+      <c r="FS7" s="21"/>
+      <c r="FT7" s="21"/>
+      <c r="FU7" s="21"/>
+      <c r="FV7" s="21"/>
+      <c r="FW7" s="21"/>
+      <c r="FX7" s="21"/>
+      <c r="FY7" s="21"/>
+      <c r="FZ7" s="21"/>
+      <c r="GA7" s="21"/>
+      <c r="GB7" s="21"/>
+      <c r="GC7" s="21"/>
+      <c r="GD7" s="21"/>
+      <c r="GE7" s="21"/>
+      <c r="GF7" s="21"/>
+      <c r="GG7" s="21"/>
+      <c r="GH7" s="21"/>
+      <c r="GI7" s="21"/>
+      <c r="GJ7" s="21"/>
+      <c r="GK7" s="21"/>
+      <c r="GL7" s="21"/>
+      <c r="GM7" s="21"/>
+      <c r="GN7" s="21"/>
+      <c r="GO7" s="21"/>
+      <c r="GP7" s="21"/>
+      <c r="GQ7" s="21"/>
+      <c r="GR7" s="21"/>
+      <c r="GS7" s="21"/>
+      <c r="GT7" s="21"/>
+      <c r="GU7" s="21"/>
+      <c r="GV7" s="21"/>
+      <c r="GW7" s="21"/>
+      <c r="GX7" s="21"/>
+      <c r="GY7" s="21"/>
+      <c r="GZ7" s="21"/>
+      <c r="HA7" s="21"/>
+      <c r="HB7" s="21"/>
+      <c r="HC7" s="21"/>
+      <c r="HD7" s="21"/>
+      <c r="HE7" s="21"/>
+      <c r="HF7" s="21"/>
+      <c r="HG7" s="21"/>
+      <c r="HH7" s="21"/>
+      <c r="HI7" s="21"/>
+      <c r="HJ7" s="21"/>
+      <c r="HK7" s="21"/>
+      <c r="HL7" s="21"/>
+      <c r="HM7" s="21"/>
+      <c r="HN7" s="21"/>
+      <c r="HO7" s="21"/>
+      <c r="HP7" s="21"/>
+      <c r="HQ7" s="21"/>
+      <c r="HR7" s="21"/>
+      <c r="HS7" s="21"/>
+      <c r="HT7" s="21"/>
+      <c r="HU7" s="21"/>
+      <c r="HV7" s="21"/>
+      <c r="HW7" s="21"/>
+      <c r="HX7" s="21"/>
+      <c r="HY7" s="21"/>
+      <c r="HZ7" s="21"/>
+      <c r="IA7" s="21"/>
+      <c r="IB7" s="21"/>
+      <c r="IC7" s="21"/>
+      <c r="ID7" s="21"/>
+      <c r="IE7" s="21"/>
+      <c r="IF7" s="21"/>
     </row>
     <row r="8" spans="1:240">
       <c r="A8" s="1" t="s">
@@ -2822,21 +2836,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="17" t="s">
+      <c r="EM9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="17"/>
-      <c r="EO9" s="17"/>
-      <c r="EP9" s="17"/>
-      <c r="EQ9" s="17"/>
-      <c r="ER9" s="17"/>
-      <c r="ES9" s="17"/>
-      <c r="ET9" s="17"/>
-      <c r="EU9" s="17"/>
-      <c r="EV9" s="17"/>
-      <c r="EW9" s="17"/>
-      <c r="EX9" s="17"/>
-      <c r="EY9" s="17"/>
+      <c r="EN9" s="36"/>
+      <c r="EO9" s="36"/>
+      <c r="EP9" s="36"/>
+      <c r="EQ9" s="36"/>
+      <c r="ER9" s="36"/>
+      <c r="ES9" s="36"/>
+      <c r="ET9" s="36"/>
+      <c r="EU9" s="36"/>
+      <c r="EV9" s="36"/>
+      <c r="EW9" s="36"/>
+      <c r="EX9" s="36"/>
+      <c r="EY9" s="36"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2851,21 +2865,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="17" t="s">
+      <c r="EM10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="17"/>
-      <c r="EO10" s="17"/>
-      <c r="EP10" s="17"/>
-      <c r="EQ10" s="17"/>
-      <c r="ER10" s="17"/>
-      <c r="ES10" s="17"/>
-      <c r="ET10" s="17"/>
-      <c r="EU10" s="17"/>
-      <c r="EV10" s="17"/>
-      <c r="EW10" s="17"/>
-      <c r="EX10" s="17"/>
-      <c r="EY10" s="17"/>
+      <c r="EN10" s="36"/>
+      <c r="EO10" s="36"/>
+      <c r="EP10" s="36"/>
+      <c r="EQ10" s="36"/>
+      <c r="ER10" s="36"/>
+      <c r="ES10" s="36"/>
+      <c r="ET10" s="36"/>
+      <c r="EU10" s="36"/>
+      <c r="EV10" s="36"/>
+      <c r="EW10" s="36"/>
+      <c r="EX10" s="36"/>
+      <c r="EY10" s="36"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2879,21 +2893,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="17" t="s">
+      <c r="EM11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="17"/>
-      <c r="EO11" s="17"/>
-      <c r="EP11" s="17"/>
-      <c r="EQ11" s="17"/>
-      <c r="ER11" s="17"/>
-      <c r="ES11" s="17"/>
-      <c r="ET11" s="17"/>
-      <c r="EU11" s="17"/>
-      <c r="EV11" s="17"/>
-      <c r="EW11" s="17"/>
-      <c r="EX11" s="17"/>
-      <c r="EY11" s="17"/>
+      <c r="EN11" s="36"/>
+      <c r="EO11" s="36"/>
+      <c r="EP11" s="36"/>
+      <c r="EQ11" s="36"/>
+      <c r="ER11" s="36"/>
+      <c r="ES11" s="36"/>
+      <c r="ET11" s="36"/>
+      <c r="EU11" s="36"/>
+      <c r="EV11" s="36"/>
+      <c r="EW11" s="36"/>
+      <c r="EX11" s="36"/>
+      <c r="EY11" s="36"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2906,21 +2920,24 @@
         <v>33</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="EM12" s="17" t="s">
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="EM12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="17"/>
-      <c r="EO12" s="17"/>
-      <c r="EP12" s="17"/>
-      <c r="EQ12" s="17"/>
-      <c r="ER12" s="17"/>
-      <c r="ES12" s="17"/>
-      <c r="ET12" s="17"/>
-      <c r="EU12" s="17"/>
-      <c r="EV12" s="17"/>
-      <c r="EW12" s="17"/>
-      <c r="EX12" s="17"/>
-      <c r="EY12" s="17"/>
+      <c r="EN12" s="36"/>
+      <c r="EO12" s="36"/>
+      <c r="EP12" s="36"/>
+      <c r="EQ12" s="36"/>
+      <c r="ER12" s="36"/>
+      <c r="ES12" s="36"/>
+      <c r="ET12" s="36"/>
+      <c r="EU12" s="36"/>
+      <c r="EV12" s="36"/>
+      <c r="EW12" s="36"/>
+      <c r="EX12" s="36"/>
+      <c r="EY12" s="36"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2933,39 +2950,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="17" t="s">
+      <c r="EM13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="17"/>
-      <c r="EO13" s="17"/>
-      <c r="EP13" s="17"/>
-      <c r="EQ13" s="17"/>
-      <c r="ER13" s="17"/>
-      <c r="ES13" s="17"/>
-      <c r="ET13" s="17"/>
-      <c r="EU13" s="17"/>
-      <c r="EV13" s="17"/>
-      <c r="EW13" s="17"/>
-      <c r="EX13" s="17"/>
-      <c r="EY13" s="17"/>
+      <c r="EN13" s="36"/>
+      <c r="EO13" s="36"/>
+      <c r="EP13" s="36"/>
+      <c r="EQ13" s="36"/>
+      <c r="ER13" s="36"/>
+      <c r="ES13" s="36"/>
+      <c r="ET13" s="36"/>
+      <c r="EU13" s="36"/>
+      <c r="EV13" s="36"/>
+      <c r="EW13" s="36"/>
+      <c r="EX13" s="36"/>
+      <c r="EY13" s="36"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="17" t="s">
+      <c r="EM14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="17"/>
-      <c r="EO14" s="17"/>
-      <c r="EP14" s="17"/>
-      <c r="EQ14" s="17"/>
-      <c r="ER14" s="17"/>
-      <c r="ES14" s="17"/>
-      <c r="ET14" s="17"/>
-      <c r="EU14" s="17"/>
-      <c r="EV14" s="17"/>
-      <c r="EW14" s="17"/>
-      <c r="EX14" s="17"/>
-      <c r="EY14" s="17"/>
+      <c r="EN14" s="36"/>
+      <c r="EO14" s="36"/>
+      <c r="EP14" s="36"/>
+      <c r="EQ14" s="36"/>
+      <c r="ER14" s="36"/>
+      <c r="ES14" s="36"/>
+      <c r="ET14" s="36"/>
+      <c r="EU14" s="36"/>
+      <c r="EV14" s="36"/>
+      <c r="EW14" s="36"/>
+      <c r="EX14" s="36"/>
+      <c r="EY14" s="36"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3000,21 +3017,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="17" t="s">
+      <c r="EM15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="17"/>
-      <c r="EO15" s="17"/>
-      <c r="EP15" s="17"/>
-      <c r="EQ15" s="17"/>
-      <c r="ER15" s="17"/>
-      <c r="ES15" s="17"/>
-      <c r="ET15" s="17"/>
-      <c r="EU15" s="17"/>
-      <c r="EV15" s="17"/>
-      <c r="EW15" s="17"/>
-      <c r="EX15" s="17"/>
-      <c r="EY15" s="17"/>
+      <c r="EN15" s="36"/>
+      <c r="EO15" s="36"/>
+      <c r="EP15" s="36"/>
+      <c r="EQ15" s="36"/>
+      <c r="ER15" s="36"/>
+      <c r="ES15" s="36"/>
+      <c r="ET15" s="36"/>
+      <c r="EU15" s="36"/>
+      <c r="EV15" s="36"/>
+      <c r="EW15" s="36"/>
+      <c r="EX15" s="36"/>
+      <c r="EY15" s="36"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3025,39 +3042,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="17" t="s">
+      <c r="EM16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="17"/>
-      <c r="EO16" s="17"/>
-      <c r="EP16" s="17"/>
-      <c r="EQ16" s="17"/>
-      <c r="ER16" s="17"/>
-      <c r="ES16" s="17"/>
-      <c r="ET16" s="17"/>
-      <c r="EU16" s="17"/>
-      <c r="EV16" s="17"/>
-      <c r="EW16" s="17"/>
-      <c r="EX16" s="17"/>
-      <c r="EY16" s="17"/>
+      <c r="EN16" s="36"/>
+      <c r="EO16" s="36"/>
+      <c r="EP16" s="36"/>
+      <c r="EQ16" s="36"/>
+      <c r="ER16" s="36"/>
+      <c r="ES16" s="36"/>
+      <c r="ET16" s="36"/>
+      <c r="EU16" s="36"/>
+      <c r="EV16" s="36"/>
+      <c r="EW16" s="36"/>
+      <c r="EX16" s="36"/>
+      <c r="EY16" s="36"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="17" t="s">
+      <c r="EM17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="17"/>
-      <c r="EO17" s="17"/>
-      <c r="EP17" s="17"/>
-      <c r="EQ17" s="17"/>
-      <c r="ER17" s="17"/>
-      <c r="ES17" s="17"/>
-      <c r="ET17" s="17"/>
-      <c r="EU17" s="17"/>
-      <c r="EV17" s="17"/>
-      <c r="EW17" s="17"/>
-      <c r="EX17" s="17"/>
-      <c r="EY17" s="17"/>
+      <c r="EN17" s="36"/>
+      <c r="EO17" s="36"/>
+      <c r="EP17" s="36"/>
+      <c r="EQ17" s="36"/>
+      <c r="ER17" s="36"/>
+      <c r="ES17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="36"/>
+      <c r="EV17" s="36"/>
+      <c r="EW17" s="36"/>
+      <c r="EX17" s="36"/>
+      <c r="EY17" s="36"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3115,39 +3132,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="17" t="s">
+      <c r="EM18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="17"/>
-      <c r="EO18" s="17"/>
-      <c r="EP18" s="17"/>
-      <c r="EQ18" s="17"/>
-      <c r="ER18" s="17"/>
-      <c r="ES18" s="17"/>
-      <c r="ET18" s="17"/>
-      <c r="EU18" s="17"/>
-      <c r="EV18" s="17"/>
-      <c r="EW18" s="17"/>
-      <c r="EX18" s="17"/>
-      <c r="EY18" s="17"/>
+      <c r="EN18" s="36"/>
+      <c r="EO18" s="36"/>
+      <c r="EP18" s="36"/>
+      <c r="EQ18" s="36"/>
+      <c r="ER18" s="36"/>
+      <c r="ES18" s="36"/>
+      <c r="ET18" s="36"/>
+      <c r="EU18" s="36"/>
+      <c r="EV18" s="36"/>
+      <c r="EW18" s="36"/>
+      <c r="EX18" s="36"/>
+      <c r="EY18" s="36"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="17" t="s">
+      <c r="EM19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="17"/>
-      <c r="EO19" s="17"/>
-      <c r="EP19" s="17"/>
-      <c r="EQ19" s="17"/>
-      <c r="ER19" s="17"/>
-      <c r="ES19" s="17"/>
-      <c r="ET19" s="17"/>
-      <c r="EU19" s="17"/>
-      <c r="EV19" s="17"/>
-      <c r="EW19" s="17"/>
-      <c r="EX19" s="17"/>
-      <c r="EY19" s="17"/>
+      <c r="EN19" s="36"/>
+      <c r="EO19" s="36"/>
+      <c r="EP19" s="36"/>
+      <c r="EQ19" s="36"/>
+      <c r="ER19" s="36"/>
+      <c r="ES19" s="36"/>
+      <c r="ET19" s="36"/>
+      <c r="EU19" s="36"/>
+      <c r="EV19" s="36"/>
+      <c r="EW19" s="36"/>
+      <c r="EX19" s="36"/>
+      <c r="EY19" s="36"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3296,21 +3313,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="17" t="s">
+      <c r="EM20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="17"/>
-      <c r="EO20" s="17"/>
-      <c r="EP20" s="17"/>
-      <c r="EQ20" s="17"/>
-      <c r="ER20" s="17"/>
-      <c r="ES20" s="17"/>
-      <c r="ET20" s="17"/>
-      <c r="EU20" s="17"/>
-      <c r="EV20" s="17"/>
-      <c r="EW20" s="17"/>
-      <c r="EX20" s="17"/>
-      <c r="EY20" s="17"/>
+      <c r="EN20" s="36"/>
+      <c r="EO20" s="36"/>
+      <c r="EP20" s="36"/>
+      <c r="EQ20" s="36"/>
+      <c r="ER20" s="36"/>
+      <c r="ES20" s="36"/>
+      <c r="ET20" s="36"/>
+      <c r="EU20" s="36"/>
+      <c r="EV20" s="36"/>
+      <c r="EW20" s="36"/>
+      <c r="EX20" s="36"/>
+      <c r="EY20" s="36"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3321,21 +3338,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="17" t="s">
+      <c r="EM21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="17"/>
-      <c r="EO21" s="17"/>
-      <c r="EP21" s="17"/>
-      <c r="EQ21" s="17"/>
-      <c r="ER21" s="17"/>
-      <c r="ES21" s="17"/>
-      <c r="ET21" s="17"/>
-      <c r="EU21" s="17"/>
-      <c r="EV21" s="17"/>
-      <c r="EW21" s="17"/>
-      <c r="EX21" s="17"/>
-      <c r="EY21" s="17"/>
+      <c r="EN21" s="36"/>
+      <c r="EO21" s="36"/>
+      <c r="EP21" s="36"/>
+      <c r="EQ21" s="36"/>
+      <c r="ER21" s="36"/>
+      <c r="ES21" s="36"/>
+      <c r="ET21" s="36"/>
+      <c r="EU21" s="36"/>
+      <c r="EV21" s="36"/>
+      <c r="EW21" s="36"/>
+      <c r="EX21" s="36"/>
+      <c r="EY21" s="36"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3346,21 +3363,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="17" t="s">
+      <c r="EM22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="17"/>
-      <c r="EO22" s="17"/>
-      <c r="EP22" s="17"/>
-      <c r="EQ22" s="17"/>
-      <c r="ER22" s="17"/>
-      <c r="ES22" s="17"/>
-      <c r="ET22" s="17"/>
-      <c r="EU22" s="17"/>
-      <c r="EV22" s="17"/>
-      <c r="EW22" s="17"/>
-      <c r="EX22" s="17"/>
-      <c r="EY22" s="17"/>
+      <c r="EN22" s="36"/>
+      <c r="EO22" s="36"/>
+      <c r="EP22" s="36"/>
+      <c r="EQ22" s="36"/>
+      <c r="ER22" s="36"/>
+      <c r="ES22" s="36"/>
+      <c r="ET22" s="36"/>
+      <c r="EU22" s="36"/>
+      <c r="EV22" s="36"/>
+      <c r="EW22" s="36"/>
+      <c r="EX22" s="36"/>
+      <c r="EY22" s="36"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3371,39 +3388,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="17" t="s">
+      <c r="EM23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="17"/>
-      <c r="EO23" s="17"/>
-      <c r="EP23" s="17"/>
-      <c r="EQ23" s="17"/>
-      <c r="ER23" s="17"/>
-      <c r="ES23" s="17"/>
-      <c r="ET23" s="17"/>
-      <c r="EU23" s="17"/>
-      <c r="EV23" s="17"/>
-      <c r="EW23" s="17"/>
-      <c r="EX23" s="17"/>
-      <c r="EY23" s="17"/>
+      <c r="EN23" s="36"/>
+      <c r="EO23" s="36"/>
+      <c r="EP23" s="36"/>
+      <c r="EQ23" s="36"/>
+      <c r="ER23" s="36"/>
+      <c r="ES23" s="36"/>
+      <c r="ET23" s="36"/>
+      <c r="EU23" s="36"/>
+      <c r="EV23" s="36"/>
+      <c r="EW23" s="36"/>
+      <c r="EX23" s="36"/>
+      <c r="EY23" s="36"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="17" t="s">
+      <c r="EM24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="17"/>
-      <c r="EO24" s="17"/>
-      <c r="EP24" s="17"/>
-      <c r="EQ24" s="17"/>
-      <c r="ER24" s="17"/>
-      <c r="ES24" s="17"/>
-      <c r="ET24" s="17"/>
-      <c r="EU24" s="17"/>
-      <c r="EV24" s="17"/>
-      <c r="EW24" s="17"/>
-      <c r="EX24" s="17"/>
-      <c r="EY24" s="17"/>
+      <c r="EN24" s="36"/>
+      <c r="EO24" s="36"/>
+      <c r="EP24" s="36"/>
+      <c r="EQ24" s="36"/>
+      <c r="ER24" s="36"/>
+      <c r="ES24" s="36"/>
+      <c r="ET24" s="36"/>
+      <c r="EU24" s="36"/>
+      <c r="EV24" s="36"/>
+      <c r="EW24" s="36"/>
+      <c r="EX24" s="36"/>
+      <c r="EY24" s="36"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3552,21 +3569,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="17" t="s">
+      <c r="EM25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="17"/>
-      <c r="EO25" s="17"/>
-      <c r="EP25" s="17"/>
-      <c r="EQ25" s="17"/>
-      <c r="ER25" s="17"/>
-      <c r="ES25" s="17"/>
-      <c r="ET25" s="17"/>
-      <c r="EU25" s="17"/>
-      <c r="EV25" s="17"/>
-      <c r="EW25" s="17"/>
-      <c r="EX25" s="17"/>
-      <c r="EY25" s="17"/>
+      <c r="EN25" s="36"/>
+      <c r="EO25" s="36"/>
+      <c r="EP25" s="36"/>
+      <c r="EQ25" s="36"/>
+      <c r="ER25" s="36"/>
+      <c r="ES25" s="36"/>
+      <c r="ET25" s="36"/>
+      <c r="EU25" s="36"/>
+      <c r="EV25" s="36"/>
+      <c r="EW25" s="36"/>
+      <c r="EX25" s="36"/>
+      <c r="EY25" s="36"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3603,40 +3620,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="17" t="s">
+      <c r="EM26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="17"/>
-      <c r="EO26" s="17"/>
-      <c r="EP26" s="17"/>
-      <c r="EQ26" s="17"/>
-      <c r="ER26" s="17"/>
-      <c r="ES26" s="17"/>
-      <c r="ET26" s="17"/>
-      <c r="EU26" s="17"/>
-      <c r="EV26" s="17"/>
-      <c r="EW26" s="17"/>
-      <c r="EX26" s="17"/>
-      <c r="EY26" s="17"/>
+      <c r="EN26" s="36"/>
+      <c r="EO26" s="36"/>
+      <c r="EP26" s="36"/>
+      <c r="EQ26" s="36"/>
+      <c r="ER26" s="36"/>
+      <c r="ES26" s="36"/>
+      <c r="ET26" s="36"/>
+      <c r="EU26" s="36"/>
+      <c r="EV26" s="36"/>
+      <c r="EW26" s="36"/>
+      <c r="EX26" s="36"/>
+      <c r="EY26" s="36"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="17" t="s">
+      <c r="EM27" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="17"/>
-      <c r="EO27" s="17"/>
-      <c r="EP27" s="17"/>
-      <c r="EQ27" s="17"/>
-      <c r="ER27" s="17"/>
-      <c r="ES27" s="17"/>
-      <c r="ET27" s="17"/>
-      <c r="EU27" s="17"/>
-      <c r="EV27" s="17"/>
-      <c r="EW27" s="17"/>
-      <c r="EX27" s="17"/>
-      <c r="EY27" s="17"/>
+      <c r="EN27" s="36"/>
+      <c r="EO27" s="36"/>
+      <c r="EP27" s="36"/>
+      <c r="EQ27" s="36"/>
+      <c r="ER27" s="36"/>
+      <c r="ES27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="EV27" s="36"/>
+      <c r="EW27" s="36"/>
+      <c r="EX27" s="36"/>
+      <c r="EY27" s="36"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3785,21 +3802,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="17" t="s">
+      <c r="EM28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="17"/>
-      <c r="EO28" s="17"/>
-      <c r="EP28" s="17"/>
-      <c r="EQ28" s="17"/>
-      <c r="ER28" s="17"/>
-      <c r="ES28" s="17"/>
-      <c r="ET28" s="17"/>
-      <c r="EU28" s="17"/>
-      <c r="EV28" s="17"/>
-      <c r="EW28" s="17"/>
-      <c r="EX28" s="17"/>
-      <c r="EY28" s="17"/>
+      <c r="EN28" s="36"/>
+      <c r="EO28" s="36"/>
+      <c r="EP28" s="36"/>
+      <c r="EQ28" s="36"/>
+      <c r="ER28" s="36"/>
+      <c r="ES28" s="36"/>
+      <c r="ET28" s="36"/>
+      <c r="EU28" s="36"/>
+      <c r="EV28" s="36"/>
+      <c r="EW28" s="36"/>
+      <c r="EX28" s="36"/>
+      <c r="EY28" s="36"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3873,21 +3890,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="17" t="s">
+      <c r="EM29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="17"/>
-      <c r="EO29" s="17"/>
-      <c r="EP29" s="17"/>
-      <c r="EQ29" s="17"/>
-      <c r="ER29" s="17"/>
-      <c r="ES29" s="17"/>
-      <c r="ET29" s="17"/>
-      <c r="EU29" s="17"/>
-      <c r="EV29" s="17"/>
-      <c r="EW29" s="17"/>
-      <c r="EX29" s="17"/>
-      <c r="EY29" s="17"/>
+      <c r="EN29" s="36"/>
+      <c r="EO29" s="36"/>
+      <c r="EP29" s="36"/>
+      <c r="EQ29" s="36"/>
+      <c r="ER29" s="36"/>
+      <c r="ES29" s="36"/>
+      <c r="ET29" s="36"/>
+      <c r="EU29" s="36"/>
+      <c r="EV29" s="36"/>
+      <c r="EW29" s="36"/>
+      <c r="EX29" s="36"/>
+      <c r="EY29" s="36"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4036,21 +4053,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="17" t="s">
+      <c r="EM30" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="17"/>
-      <c r="EO30" s="17"/>
-      <c r="EP30" s="17"/>
-      <c r="EQ30" s="17"/>
-      <c r="ER30" s="17"/>
-      <c r="ES30" s="17"/>
-      <c r="ET30" s="17"/>
-      <c r="EU30" s="17"/>
-      <c r="EV30" s="17"/>
-      <c r="EW30" s="17"/>
-      <c r="EX30" s="17"/>
-      <c r="EY30" s="17"/>
+      <c r="EN30" s="36"/>
+      <c r="EO30" s="36"/>
+      <c r="EP30" s="36"/>
+      <c r="EQ30" s="36"/>
+      <c r="ER30" s="36"/>
+      <c r="ES30" s="36"/>
+      <c r="ET30" s="36"/>
+      <c r="EU30" s="36"/>
+      <c r="EV30" s="36"/>
+      <c r="EW30" s="36"/>
+      <c r="EX30" s="36"/>
+      <c r="EY30" s="36"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4138,105 +4155,109 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="17" t="s">
+      <c r="EM31" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="17"/>
-      <c r="EO31" s="17"/>
-      <c r="EP31" s="17"/>
-      <c r="EQ31" s="17"/>
-      <c r="ER31" s="17"/>
-      <c r="ES31" s="17"/>
-      <c r="ET31" s="17"/>
-      <c r="EU31" s="17"/>
-      <c r="EV31" s="17"/>
-      <c r="EW31" s="17"/>
-      <c r="EX31" s="17"/>
-      <c r="EY31" s="17"/>
+      <c r="EN31" s="36"/>
+      <c r="EO31" s="36"/>
+      <c r="EP31" s="36"/>
+      <c r="EQ31" s="36"/>
+      <c r="ER31" s="36"/>
+      <c r="ES31" s="36"/>
+      <c r="ET31" s="36"/>
+      <c r="EU31" s="36"/>
+      <c r="EV31" s="36"/>
+      <c r="EW31" s="36"/>
+      <c r="EX31" s="36"/>
+      <c r="EY31" s="36"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="17" t="s">
+      <c r="EM32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="17"/>
-      <c r="EO32" s="17"/>
-      <c r="EP32" s="17"/>
-      <c r="EQ32" s="17"/>
-      <c r="ER32" s="17"/>
-      <c r="ES32" s="17"/>
-      <c r="ET32" s="17"/>
-      <c r="EU32" s="17"/>
-      <c r="EV32" s="17"/>
-      <c r="EW32" s="17"/>
-      <c r="EX32" s="17"/>
-      <c r="EY32" s="17"/>
+      <c r="EN32" s="36"/>
+      <c r="EO32" s="36"/>
+      <c r="EP32" s="36"/>
+      <c r="EQ32" s="36"/>
+      <c r="ER32" s="36"/>
+      <c r="ES32" s="36"/>
+      <c r="ET32" s="36"/>
+      <c r="EU32" s="36"/>
+      <c r="EV32" s="36"/>
+      <c r="EW32" s="36"/>
+      <c r="EX32" s="36"/>
+      <c r="EY32" s="36"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="17" t="s">
+      <c r="EM33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="17"/>
-      <c r="EO33" s="17"/>
-      <c r="EP33" s="17"/>
-      <c r="EQ33" s="17"/>
-      <c r="ER33" s="17"/>
-      <c r="ES33" s="17"/>
-      <c r="ET33" s="17"/>
-      <c r="EU33" s="17"/>
-      <c r="EV33" s="17"/>
-      <c r="EW33" s="17"/>
-      <c r="EX33" s="17"/>
-      <c r="EY33" s="17"/>
+      <c r="EN33" s="36"/>
+      <c r="EO33" s="36"/>
+      <c r="EP33" s="36"/>
+      <c r="EQ33" s="36"/>
+      <c r="ER33" s="36"/>
+      <c r="ES33" s="36"/>
+      <c r="ET33" s="36"/>
+      <c r="EU33" s="36"/>
+      <c r="EV33" s="36"/>
+      <c r="EW33" s="36"/>
+      <c r="EX33" s="36"/>
+      <c r="EY33" s="36"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="17" t="s">
+      <c r="EM34" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="17"/>
-      <c r="EO34" s="17"/>
-      <c r="EP34" s="17"/>
-      <c r="EQ34" s="17"/>
-      <c r="ER34" s="17"/>
-      <c r="ES34" s="17"/>
-      <c r="ET34" s="17"/>
-      <c r="EU34" s="17"/>
-      <c r="EV34" s="17"/>
-      <c r="EW34" s="17"/>
-      <c r="EX34" s="17"/>
-      <c r="EY34" s="17"/>
+      <c r="EN34" s="36"/>
+      <c r="EO34" s="36"/>
+      <c r="EP34" s="36"/>
+      <c r="EQ34" s="36"/>
+      <c r="ER34" s="36"/>
+      <c r="ES34" s="36"/>
+      <c r="ET34" s="36"/>
+      <c r="EU34" s="36"/>
+      <c r="EV34" s="36"/>
+      <c r="EW34" s="36"/>
+      <c r="EX34" s="36"/>
+      <c r="EY34" s="36"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="17" t="s">
+      <c r="EM35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="17"/>
-      <c r="EO35" s="17"/>
-      <c r="EP35" s="17"/>
-      <c r="EQ35" s="17"/>
-      <c r="ER35" s="17"/>
-      <c r="ES35" s="17"/>
-      <c r="ET35" s="17"/>
-      <c r="EU35" s="17"/>
-      <c r="EV35" s="17"/>
-      <c r="EW35" s="17"/>
-      <c r="EX35" s="17"/>
-      <c r="EY35" s="17"/>
+      <c r="EN35" s="36"/>
+      <c r="EO35" s="36"/>
+      <c r="EP35" s="36"/>
+      <c r="EQ35" s="36"/>
+      <c r="ER35" s="36"/>
+      <c r="ES35" s="36"/>
+      <c r="ET35" s="36"/>
+      <c r="EU35" s="36"/>
+      <c r="EV35" s="36"/>
+      <c r="EW35" s="36"/>
+      <c r="EX35" s="36"/>
+      <c r="EY35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4250,23 +4271,19 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -421,6 +421,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -434,18 +446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +753,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -769,7 +769,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>41127</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -811,7 +811,7 @@
         <v>41127</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -909,7 +909,7 @@
   <dimension ref="A1:IF35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,68 +1016,68 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AD1" s="33" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AD1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="31">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="35">
         <v>41135</v>
       </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:240">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <f>SUM(C7:IF7)</f>
-        <v>1.5</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1086,260 +1086,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35" t="s">
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="30"/>
+      <c r="BB4" s="30"/>
+      <c r="BC4" s="30"/>
+      <c r="BD4" s="30"/>
+      <c r="BE4" s="30"/>
+      <c r="BF4" s="30"/>
+      <c r="BG4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35" t="s">
+      <c r="BH4" s="30"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="30"/>
+      <c r="BK4" s="30"/>
+      <c r="BL4" s="30"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+      <c r="BP4" s="30"/>
+      <c r="BQ4" s="30"/>
+      <c r="BR4" s="30"/>
+      <c r="BS4" s="30"/>
+      <c r="BT4" s="30"/>
+      <c r="BU4" s="30"/>
+      <c r="BV4" s="30"/>
+      <c r="BW4" s="30"/>
+      <c r="BX4" s="30"/>
+      <c r="BY4" s="30"/>
+      <c r="BZ4" s="30"/>
+      <c r="CA4" s="30"/>
+      <c r="CB4" s="30"/>
+      <c r="CC4" s="30"/>
+      <c r="CD4" s="30"/>
+      <c r="CE4" s="30"/>
+      <c r="CF4" s="30"/>
+      <c r="CG4" s="30"/>
+      <c r="CH4" s="30"/>
+      <c r="CI4" s="30"/>
+      <c r="CJ4" s="30"/>
+      <c r="CK4" s="30"/>
+      <c r="CL4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35" t="s">
+      <c r="CM4" s="30"/>
+      <c r="CN4" s="30"/>
+      <c r="CO4" s="30"/>
+      <c r="CP4" s="30"/>
+      <c r="CQ4" s="30"/>
+      <c r="CR4" s="30"/>
+      <c r="CS4" s="30"/>
+      <c r="CT4" s="30"/>
+      <c r="CU4" s="30"/>
+      <c r="CV4" s="30"/>
+      <c r="CW4" s="30"/>
+      <c r="CX4" s="30"/>
+      <c r="CY4" s="30"/>
+      <c r="CZ4" s="30"/>
+      <c r="DA4" s="30"/>
+      <c r="DB4" s="30"/>
+      <c r="DC4" s="30"/>
+      <c r="DD4" s="30"/>
+      <c r="DE4" s="30"/>
+      <c r="DF4" s="30"/>
+      <c r="DG4" s="30"/>
+      <c r="DH4" s="30"/>
+      <c r="DI4" s="30"/>
+      <c r="DJ4" s="30"/>
+      <c r="DK4" s="30"/>
+      <c r="DL4" s="30"/>
+      <c r="DM4" s="30"/>
+      <c r="DN4" s="30"/>
+      <c r="DO4" s="30"/>
+      <c r="DP4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35"/>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35"/>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35"/>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35" t="s">
+      <c r="DQ4" s="30"/>
+      <c r="DR4" s="30"/>
+      <c r="DS4" s="30"/>
+      <c r="DT4" s="30"/>
+      <c r="DU4" s="30"/>
+      <c r="DV4" s="30"/>
+      <c r="DW4" s="30"/>
+      <c r="DX4" s="30"/>
+      <c r="DY4" s="30"/>
+      <c r="DZ4" s="30"/>
+      <c r="EA4" s="30"/>
+      <c r="EB4" s="30"/>
+      <c r="EC4" s="30"/>
+      <c r="ED4" s="30"/>
+      <c r="EE4" s="30"/>
+      <c r="EF4" s="30"/>
+      <c r="EG4" s="30"/>
+      <c r="EH4" s="30"/>
+      <c r="EI4" s="30"/>
+      <c r="EJ4" s="30"/>
+      <c r="EK4" s="30"/>
+      <c r="EL4" s="30"/>
+      <c r="EM4" s="30"/>
+      <c r="EN4" s="30"/>
+      <c r="EO4" s="30"/>
+      <c r="EP4" s="30"/>
+      <c r="EQ4" s="30"/>
+      <c r="ER4" s="30"/>
+      <c r="ES4" s="30"/>
+      <c r="ET4" s="30"/>
+      <c r="EU4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35"/>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35" t="s">
+      <c r="EV4" s="30"/>
+      <c r="EW4" s="30"/>
+      <c r="EX4" s="30"/>
+      <c r="EY4" s="30"/>
+      <c r="EZ4" s="30"/>
+      <c r="FA4" s="30"/>
+      <c r="FB4" s="30"/>
+      <c r="FC4" s="30"/>
+      <c r="FD4" s="30"/>
+      <c r="FE4" s="30"/>
+      <c r="FF4" s="30"/>
+      <c r="FG4" s="30"/>
+      <c r="FH4" s="30"/>
+      <c r="FI4" s="30"/>
+      <c r="FJ4" s="30"/>
+      <c r="FK4" s="30"/>
+      <c r="FL4" s="30"/>
+      <c r="FM4" s="30"/>
+      <c r="FN4" s="30"/>
+      <c r="FO4" s="30"/>
+      <c r="FP4" s="30"/>
+      <c r="FQ4" s="30"/>
+      <c r="FR4" s="30"/>
+      <c r="FS4" s="30"/>
+      <c r="FT4" s="30"/>
+      <c r="FU4" s="30"/>
+      <c r="FV4" s="30"/>
+      <c r="FW4" s="30"/>
+      <c r="FX4" s="30"/>
+      <c r="FY4" s="30"/>
+      <c r="FZ4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="35"/>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35"/>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35"/>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35" t="s">
+      <c r="GA4" s="30"/>
+      <c r="GB4" s="30"/>
+      <c r="GC4" s="30"/>
+      <c r="GD4" s="30"/>
+      <c r="GE4" s="30"/>
+      <c r="GF4" s="30"/>
+      <c r="GG4" s="30"/>
+      <c r="GH4" s="30"/>
+      <c r="GI4" s="30"/>
+      <c r="GJ4" s="30"/>
+      <c r="GK4" s="30"/>
+      <c r="GL4" s="30"/>
+      <c r="GM4" s="30"/>
+      <c r="GN4" s="30"/>
+      <c r="GO4" s="30"/>
+      <c r="GP4" s="30"/>
+      <c r="GQ4" s="30"/>
+      <c r="GR4" s="30"/>
+      <c r="GS4" s="30"/>
+      <c r="GT4" s="30"/>
+      <c r="GU4" s="30"/>
+      <c r="GV4" s="30"/>
+      <c r="GW4" s="30"/>
+      <c r="GX4" s="30"/>
+      <c r="GY4" s="30"/>
+      <c r="GZ4" s="30"/>
+      <c r="HA4" s="30"/>
+      <c r="HB4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35"/>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35"/>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="37"/>
+      <c r="HC4" s="30"/>
+      <c r="HD4" s="30"/>
+      <c r="HE4" s="30"/>
+      <c r="HF4" s="30"/>
+      <c r="HG4" s="30"/>
+      <c r="HH4" s="30"/>
+      <c r="HI4" s="30"/>
+      <c r="HJ4" s="30"/>
+      <c r="HK4" s="30"/>
+      <c r="HL4" s="30"/>
+      <c r="HM4" s="30"/>
+      <c r="HN4" s="30"/>
+      <c r="HO4" s="30"/>
+      <c r="HP4" s="30"/>
+      <c r="HQ4" s="30"/>
+      <c r="HR4" s="30"/>
+      <c r="HS4" s="30"/>
+      <c r="HT4" s="30"/>
+      <c r="HU4" s="30"/>
+      <c r="HV4" s="30"/>
+      <c r="HW4" s="30"/>
+      <c r="HX4" s="30"/>
+      <c r="HY4" s="30"/>
+      <c r="HZ4" s="30"/>
+      <c r="IA4" s="30"/>
+      <c r="IB4" s="30"/>
+      <c r="IC4" s="30"/>
+      <c r="ID4" s="30"/>
+      <c r="IE4" s="30"/>
+      <c r="IF4" s="31"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2071,7 +2071,7 @@
       <c r="H6" s="24"/>
       <c r="I6" s="27">
         <f>SUM(C7:I7)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J6" s="24">
         <v>2</v>
@@ -2574,7 +2574,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2836,21 +2836,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="36" t="s">
+      <c r="EM9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="36"/>
-      <c r="EO9" s="36"/>
-      <c r="EP9" s="36"/>
-      <c r="EQ9" s="36"/>
-      <c r="ER9" s="36"/>
-      <c r="ES9" s="36"/>
-      <c r="ET9" s="36"/>
-      <c r="EU9" s="36"/>
-      <c r="EV9" s="36"/>
-      <c r="EW9" s="36"/>
-      <c r="EX9" s="36"/>
-      <c r="EY9" s="36"/>
+      <c r="EN9" s="29"/>
+      <c r="EO9" s="29"/>
+      <c r="EP9" s="29"/>
+      <c r="EQ9" s="29"/>
+      <c r="ER9" s="29"/>
+      <c r="ES9" s="29"/>
+      <c r="ET9" s="29"/>
+      <c r="EU9" s="29"/>
+      <c r="EV9" s="29"/>
+      <c r="EW9" s="29"/>
+      <c r="EX9" s="29"/>
+      <c r="EY9" s="29"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2865,21 +2865,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="36" t="s">
+      <c r="EM10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="36"/>
-      <c r="EO10" s="36"/>
-      <c r="EP10" s="36"/>
-      <c r="EQ10" s="36"/>
-      <c r="ER10" s="36"/>
-      <c r="ES10" s="36"/>
-      <c r="ET10" s="36"/>
-      <c r="EU10" s="36"/>
-      <c r="EV10" s="36"/>
-      <c r="EW10" s="36"/>
-      <c r="EX10" s="36"/>
-      <c r="EY10" s="36"/>
+      <c r="EN10" s="29"/>
+      <c r="EO10" s="29"/>
+      <c r="EP10" s="29"/>
+      <c r="EQ10" s="29"/>
+      <c r="ER10" s="29"/>
+      <c r="ES10" s="29"/>
+      <c r="ET10" s="29"/>
+      <c r="EU10" s="29"/>
+      <c r="EV10" s="29"/>
+      <c r="EW10" s="29"/>
+      <c r="EX10" s="29"/>
+      <c r="EY10" s="29"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2893,21 +2893,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="36" t="s">
+      <c r="EM11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="36"/>
-      <c r="EO11" s="36"/>
-      <c r="EP11" s="36"/>
-      <c r="EQ11" s="36"/>
-      <c r="ER11" s="36"/>
-      <c r="ES11" s="36"/>
-      <c r="ET11" s="36"/>
-      <c r="EU11" s="36"/>
-      <c r="EV11" s="36"/>
-      <c r="EW11" s="36"/>
-      <c r="EX11" s="36"/>
-      <c r="EY11" s="36"/>
+      <c r="EN11" s="29"/>
+      <c r="EO11" s="29"/>
+      <c r="EP11" s="29"/>
+      <c r="EQ11" s="29"/>
+      <c r="ER11" s="29"/>
+      <c r="ES11" s="29"/>
+      <c r="ET11" s="29"/>
+      <c r="EU11" s="29"/>
+      <c r="EV11" s="29"/>
+      <c r="EW11" s="29"/>
+      <c r="EX11" s="29"/>
+      <c r="EY11" s="29"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2923,21 +2923,21 @@
       <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="36" t="s">
+      <c r="EM12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="36"/>
-      <c r="EO12" s="36"/>
-      <c r="EP12" s="36"/>
-      <c r="EQ12" s="36"/>
-      <c r="ER12" s="36"/>
-      <c r="ES12" s="36"/>
-      <c r="ET12" s="36"/>
-      <c r="EU12" s="36"/>
-      <c r="EV12" s="36"/>
-      <c r="EW12" s="36"/>
-      <c r="EX12" s="36"/>
-      <c r="EY12" s="36"/>
+      <c r="EN12" s="29"/>
+      <c r="EO12" s="29"/>
+      <c r="EP12" s="29"/>
+      <c r="EQ12" s="29"/>
+      <c r="ER12" s="29"/>
+      <c r="ES12" s="29"/>
+      <c r="ET12" s="29"/>
+      <c r="EU12" s="29"/>
+      <c r="EV12" s="29"/>
+      <c r="EW12" s="29"/>
+      <c r="EX12" s="29"/>
+      <c r="EY12" s="29"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2950,39 +2950,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="36" t="s">
+      <c r="EM13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="36"/>
-      <c r="EO13" s="36"/>
-      <c r="EP13" s="36"/>
-      <c r="EQ13" s="36"/>
-      <c r="ER13" s="36"/>
-      <c r="ES13" s="36"/>
-      <c r="ET13" s="36"/>
-      <c r="EU13" s="36"/>
-      <c r="EV13" s="36"/>
-      <c r="EW13" s="36"/>
-      <c r="EX13" s="36"/>
-      <c r="EY13" s="36"/>
+      <c r="EN13" s="29"/>
+      <c r="EO13" s="29"/>
+      <c r="EP13" s="29"/>
+      <c r="EQ13" s="29"/>
+      <c r="ER13" s="29"/>
+      <c r="ES13" s="29"/>
+      <c r="ET13" s="29"/>
+      <c r="EU13" s="29"/>
+      <c r="EV13" s="29"/>
+      <c r="EW13" s="29"/>
+      <c r="EX13" s="29"/>
+      <c r="EY13" s="29"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="36" t="s">
+      <c r="EM14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="36"/>
-      <c r="EO14" s="36"/>
-      <c r="EP14" s="36"/>
-      <c r="EQ14" s="36"/>
-      <c r="ER14" s="36"/>
-      <c r="ES14" s="36"/>
-      <c r="ET14" s="36"/>
-      <c r="EU14" s="36"/>
-      <c r="EV14" s="36"/>
-      <c r="EW14" s="36"/>
-      <c r="EX14" s="36"/>
-      <c r="EY14" s="36"/>
+      <c r="EN14" s="29"/>
+      <c r="EO14" s="29"/>
+      <c r="EP14" s="29"/>
+      <c r="EQ14" s="29"/>
+      <c r="ER14" s="29"/>
+      <c r="ES14" s="29"/>
+      <c r="ET14" s="29"/>
+      <c r="EU14" s="29"/>
+      <c r="EV14" s="29"/>
+      <c r="EW14" s="29"/>
+      <c r="EX14" s="29"/>
+      <c r="EY14" s="29"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3017,21 +3017,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="36" t="s">
+      <c r="EM15" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="36"/>
-      <c r="EO15" s="36"/>
-      <c r="EP15" s="36"/>
-      <c r="EQ15" s="36"/>
-      <c r="ER15" s="36"/>
-      <c r="ES15" s="36"/>
-      <c r="ET15" s="36"/>
-      <c r="EU15" s="36"/>
-      <c r="EV15" s="36"/>
-      <c r="EW15" s="36"/>
-      <c r="EX15" s="36"/>
-      <c r="EY15" s="36"/>
+      <c r="EN15" s="29"/>
+      <c r="EO15" s="29"/>
+      <c r="EP15" s="29"/>
+      <c r="EQ15" s="29"/>
+      <c r="ER15" s="29"/>
+      <c r="ES15" s="29"/>
+      <c r="ET15" s="29"/>
+      <c r="EU15" s="29"/>
+      <c r="EV15" s="29"/>
+      <c r="EW15" s="29"/>
+      <c r="EX15" s="29"/>
+      <c r="EY15" s="29"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3042,39 +3042,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="36" t="s">
+      <c r="EM16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="36"/>
-      <c r="EO16" s="36"/>
-      <c r="EP16" s="36"/>
-      <c r="EQ16" s="36"/>
-      <c r="ER16" s="36"/>
-      <c r="ES16" s="36"/>
-      <c r="ET16" s="36"/>
-      <c r="EU16" s="36"/>
-      <c r="EV16" s="36"/>
-      <c r="EW16" s="36"/>
-      <c r="EX16" s="36"/>
-      <c r="EY16" s="36"/>
+      <c r="EN16" s="29"/>
+      <c r="EO16" s="29"/>
+      <c r="EP16" s="29"/>
+      <c r="EQ16" s="29"/>
+      <c r="ER16" s="29"/>
+      <c r="ES16" s="29"/>
+      <c r="ET16" s="29"/>
+      <c r="EU16" s="29"/>
+      <c r="EV16" s="29"/>
+      <c r="EW16" s="29"/>
+      <c r="EX16" s="29"/>
+      <c r="EY16" s="29"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="36" t="s">
+      <c r="EM17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="36"/>
-      <c r="EO17" s="36"/>
-      <c r="EP17" s="36"/>
-      <c r="EQ17" s="36"/>
-      <c r="ER17" s="36"/>
-      <c r="ES17" s="36"/>
-      <c r="ET17" s="36"/>
-      <c r="EU17" s="36"/>
-      <c r="EV17" s="36"/>
-      <c r="EW17" s="36"/>
-      <c r="EX17" s="36"/>
-      <c r="EY17" s="36"/>
+      <c r="EN17" s="29"/>
+      <c r="EO17" s="29"/>
+      <c r="EP17" s="29"/>
+      <c r="EQ17" s="29"/>
+      <c r="ER17" s="29"/>
+      <c r="ES17" s="29"/>
+      <c r="ET17" s="29"/>
+      <c r="EU17" s="29"/>
+      <c r="EV17" s="29"/>
+      <c r="EW17" s="29"/>
+      <c r="EX17" s="29"/>
+      <c r="EY17" s="29"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3132,39 +3132,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="36" t="s">
+      <c r="EM18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="36"/>
-      <c r="EO18" s="36"/>
-      <c r="EP18" s="36"/>
-      <c r="EQ18" s="36"/>
-      <c r="ER18" s="36"/>
-      <c r="ES18" s="36"/>
-      <c r="ET18" s="36"/>
-      <c r="EU18" s="36"/>
-      <c r="EV18" s="36"/>
-      <c r="EW18" s="36"/>
-      <c r="EX18" s="36"/>
-      <c r="EY18" s="36"/>
+      <c r="EN18" s="29"/>
+      <c r="EO18" s="29"/>
+      <c r="EP18" s="29"/>
+      <c r="EQ18" s="29"/>
+      <c r="ER18" s="29"/>
+      <c r="ES18" s="29"/>
+      <c r="ET18" s="29"/>
+      <c r="EU18" s="29"/>
+      <c r="EV18" s="29"/>
+      <c r="EW18" s="29"/>
+      <c r="EX18" s="29"/>
+      <c r="EY18" s="29"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="36" t="s">
+      <c r="EM19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="36"/>
-      <c r="EO19" s="36"/>
-      <c r="EP19" s="36"/>
-      <c r="EQ19" s="36"/>
-      <c r="ER19" s="36"/>
-      <c r="ES19" s="36"/>
-      <c r="ET19" s="36"/>
-      <c r="EU19" s="36"/>
-      <c r="EV19" s="36"/>
-      <c r="EW19" s="36"/>
-      <c r="EX19" s="36"/>
-      <c r="EY19" s="36"/>
+      <c r="EN19" s="29"/>
+      <c r="EO19" s="29"/>
+      <c r="EP19" s="29"/>
+      <c r="EQ19" s="29"/>
+      <c r="ER19" s="29"/>
+      <c r="ES19" s="29"/>
+      <c r="ET19" s="29"/>
+      <c r="EU19" s="29"/>
+      <c r="EV19" s="29"/>
+      <c r="EW19" s="29"/>
+      <c r="EX19" s="29"/>
+      <c r="EY19" s="29"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3313,21 +3313,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="36" t="s">
+      <c r="EM20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="36"/>
-      <c r="EO20" s="36"/>
-      <c r="EP20" s="36"/>
-      <c r="EQ20" s="36"/>
-      <c r="ER20" s="36"/>
-      <c r="ES20" s="36"/>
-      <c r="ET20" s="36"/>
-      <c r="EU20" s="36"/>
-      <c r="EV20" s="36"/>
-      <c r="EW20" s="36"/>
-      <c r="EX20" s="36"/>
-      <c r="EY20" s="36"/>
+      <c r="EN20" s="29"/>
+      <c r="EO20" s="29"/>
+      <c r="EP20" s="29"/>
+      <c r="EQ20" s="29"/>
+      <c r="ER20" s="29"/>
+      <c r="ES20" s="29"/>
+      <c r="ET20" s="29"/>
+      <c r="EU20" s="29"/>
+      <c r="EV20" s="29"/>
+      <c r="EW20" s="29"/>
+      <c r="EX20" s="29"/>
+      <c r="EY20" s="29"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3338,21 +3338,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="36" t="s">
+      <c r="EM21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="36"/>
-      <c r="EO21" s="36"/>
-      <c r="EP21" s="36"/>
-      <c r="EQ21" s="36"/>
-      <c r="ER21" s="36"/>
-      <c r="ES21" s="36"/>
-      <c r="ET21" s="36"/>
-      <c r="EU21" s="36"/>
-      <c r="EV21" s="36"/>
-      <c r="EW21" s="36"/>
-      <c r="EX21" s="36"/>
-      <c r="EY21" s="36"/>
+      <c r="EN21" s="29"/>
+      <c r="EO21" s="29"/>
+      <c r="EP21" s="29"/>
+      <c r="EQ21" s="29"/>
+      <c r="ER21" s="29"/>
+      <c r="ES21" s="29"/>
+      <c r="ET21" s="29"/>
+      <c r="EU21" s="29"/>
+      <c r="EV21" s="29"/>
+      <c r="EW21" s="29"/>
+      <c r="EX21" s="29"/>
+      <c r="EY21" s="29"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3363,21 +3363,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="36" t="s">
+      <c r="EM22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="36"/>
-      <c r="EO22" s="36"/>
-      <c r="EP22" s="36"/>
-      <c r="EQ22" s="36"/>
-      <c r="ER22" s="36"/>
-      <c r="ES22" s="36"/>
-      <c r="ET22" s="36"/>
-      <c r="EU22" s="36"/>
-      <c r="EV22" s="36"/>
-      <c r="EW22" s="36"/>
-      <c r="EX22" s="36"/>
-      <c r="EY22" s="36"/>
+      <c r="EN22" s="29"/>
+      <c r="EO22" s="29"/>
+      <c r="EP22" s="29"/>
+      <c r="EQ22" s="29"/>
+      <c r="ER22" s="29"/>
+      <c r="ES22" s="29"/>
+      <c r="ET22" s="29"/>
+      <c r="EU22" s="29"/>
+      <c r="EV22" s="29"/>
+      <c r="EW22" s="29"/>
+      <c r="EX22" s="29"/>
+      <c r="EY22" s="29"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3388,39 +3388,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="36" t="s">
+      <c r="EM23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="36"/>
-      <c r="EO23" s="36"/>
-      <c r="EP23" s="36"/>
-      <c r="EQ23" s="36"/>
-      <c r="ER23" s="36"/>
-      <c r="ES23" s="36"/>
-      <c r="ET23" s="36"/>
-      <c r="EU23" s="36"/>
-      <c r="EV23" s="36"/>
-      <c r="EW23" s="36"/>
-      <c r="EX23" s="36"/>
-      <c r="EY23" s="36"/>
+      <c r="EN23" s="29"/>
+      <c r="EO23" s="29"/>
+      <c r="EP23" s="29"/>
+      <c r="EQ23" s="29"/>
+      <c r="ER23" s="29"/>
+      <c r="ES23" s="29"/>
+      <c r="ET23" s="29"/>
+      <c r="EU23" s="29"/>
+      <c r="EV23" s="29"/>
+      <c r="EW23" s="29"/>
+      <c r="EX23" s="29"/>
+      <c r="EY23" s="29"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="36" t="s">
+      <c r="EM24" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="36"/>
-      <c r="EO24" s="36"/>
-      <c r="EP24" s="36"/>
-      <c r="EQ24" s="36"/>
-      <c r="ER24" s="36"/>
-      <c r="ES24" s="36"/>
-      <c r="ET24" s="36"/>
-      <c r="EU24" s="36"/>
-      <c r="EV24" s="36"/>
-      <c r="EW24" s="36"/>
-      <c r="EX24" s="36"/>
-      <c r="EY24" s="36"/>
+      <c r="EN24" s="29"/>
+      <c r="EO24" s="29"/>
+      <c r="EP24" s="29"/>
+      <c r="EQ24" s="29"/>
+      <c r="ER24" s="29"/>
+      <c r="ES24" s="29"/>
+      <c r="ET24" s="29"/>
+      <c r="EU24" s="29"/>
+      <c r="EV24" s="29"/>
+      <c r="EW24" s="29"/>
+      <c r="EX24" s="29"/>
+      <c r="EY24" s="29"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3569,21 +3569,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="36" t="s">
+      <c r="EM25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="36"/>
-      <c r="EO25" s="36"/>
-      <c r="EP25" s="36"/>
-      <c r="EQ25" s="36"/>
-      <c r="ER25" s="36"/>
-      <c r="ES25" s="36"/>
-      <c r="ET25" s="36"/>
-      <c r="EU25" s="36"/>
-      <c r="EV25" s="36"/>
-      <c r="EW25" s="36"/>
-      <c r="EX25" s="36"/>
-      <c r="EY25" s="36"/>
+      <c r="EN25" s="29"/>
+      <c r="EO25" s="29"/>
+      <c r="EP25" s="29"/>
+      <c r="EQ25" s="29"/>
+      <c r="ER25" s="29"/>
+      <c r="ES25" s="29"/>
+      <c r="ET25" s="29"/>
+      <c r="EU25" s="29"/>
+      <c r="EV25" s="29"/>
+      <c r="EW25" s="29"/>
+      <c r="EX25" s="29"/>
+      <c r="EY25" s="29"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3620,40 +3620,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="36" t="s">
+      <c r="EM26" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="36"/>
-      <c r="EO26" s="36"/>
-      <c r="EP26" s="36"/>
-      <c r="EQ26" s="36"/>
-      <c r="ER26" s="36"/>
-      <c r="ES26" s="36"/>
-      <c r="ET26" s="36"/>
-      <c r="EU26" s="36"/>
-      <c r="EV26" s="36"/>
-      <c r="EW26" s="36"/>
-      <c r="EX26" s="36"/>
-      <c r="EY26" s="36"/>
+      <c r="EN26" s="29"/>
+      <c r="EO26" s="29"/>
+      <c r="EP26" s="29"/>
+      <c r="EQ26" s="29"/>
+      <c r="ER26" s="29"/>
+      <c r="ES26" s="29"/>
+      <c r="ET26" s="29"/>
+      <c r="EU26" s="29"/>
+      <c r="EV26" s="29"/>
+      <c r="EW26" s="29"/>
+      <c r="EX26" s="29"/>
+      <c r="EY26" s="29"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="36" t="s">
+      <c r="EM27" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="36"/>
-      <c r="EO27" s="36"/>
-      <c r="EP27" s="36"/>
-      <c r="EQ27" s="36"/>
-      <c r="ER27" s="36"/>
-      <c r="ES27" s="36"/>
-      <c r="ET27" s="36"/>
-      <c r="EU27" s="36"/>
-      <c r="EV27" s="36"/>
-      <c r="EW27" s="36"/>
-      <c r="EX27" s="36"/>
-      <c r="EY27" s="36"/>
+      <c r="EN27" s="29"/>
+      <c r="EO27" s="29"/>
+      <c r="EP27" s="29"/>
+      <c r="EQ27" s="29"/>
+      <c r="ER27" s="29"/>
+      <c r="ES27" s="29"/>
+      <c r="ET27" s="29"/>
+      <c r="EU27" s="29"/>
+      <c r="EV27" s="29"/>
+      <c r="EW27" s="29"/>
+      <c r="EX27" s="29"/>
+      <c r="EY27" s="29"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3802,21 +3802,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="36" t="s">
+      <c r="EM28" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="36"/>
-      <c r="EO28" s="36"/>
-      <c r="EP28" s="36"/>
-      <c r="EQ28" s="36"/>
-      <c r="ER28" s="36"/>
-      <c r="ES28" s="36"/>
-      <c r="ET28" s="36"/>
-      <c r="EU28" s="36"/>
-      <c r="EV28" s="36"/>
-      <c r="EW28" s="36"/>
-      <c r="EX28" s="36"/>
-      <c r="EY28" s="36"/>
+      <c r="EN28" s="29"/>
+      <c r="EO28" s="29"/>
+      <c r="EP28" s="29"/>
+      <c r="EQ28" s="29"/>
+      <c r="ER28" s="29"/>
+      <c r="ES28" s="29"/>
+      <c r="ET28" s="29"/>
+      <c r="EU28" s="29"/>
+      <c r="EV28" s="29"/>
+      <c r="EW28" s="29"/>
+      <c r="EX28" s="29"/>
+      <c r="EY28" s="29"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3890,21 +3890,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="36" t="s">
+      <c r="EM29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="36"/>
-      <c r="EO29" s="36"/>
-      <c r="EP29" s="36"/>
-      <c r="EQ29" s="36"/>
-      <c r="ER29" s="36"/>
-      <c r="ES29" s="36"/>
-      <c r="ET29" s="36"/>
-      <c r="EU29" s="36"/>
-      <c r="EV29" s="36"/>
-      <c r="EW29" s="36"/>
-      <c r="EX29" s="36"/>
-      <c r="EY29" s="36"/>
+      <c r="EN29" s="29"/>
+      <c r="EO29" s="29"/>
+      <c r="EP29" s="29"/>
+      <c r="EQ29" s="29"/>
+      <c r="ER29" s="29"/>
+      <c r="ES29" s="29"/>
+      <c r="ET29" s="29"/>
+      <c r="EU29" s="29"/>
+      <c r="EV29" s="29"/>
+      <c r="EW29" s="29"/>
+      <c r="EX29" s="29"/>
+      <c r="EY29" s="29"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4053,21 +4053,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="36" t="s">
+      <c r="EM30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="36"/>
-      <c r="EO30" s="36"/>
-      <c r="EP30" s="36"/>
-      <c r="EQ30" s="36"/>
-      <c r="ER30" s="36"/>
-      <c r="ES30" s="36"/>
-      <c r="ET30" s="36"/>
-      <c r="EU30" s="36"/>
-      <c r="EV30" s="36"/>
-      <c r="EW30" s="36"/>
-      <c r="EX30" s="36"/>
-      <c r="EY30" s="36"/>
+      <c r="EN30" s="29"/>
+      <c r="EO30" s="29"/>
+      <c r="EP30" s="29"/>
+      <c r="EQ30" s="29"/>
+      <c r="ER30" s="29"/>
+      <c r="ES30" s="29"/>
+      <c r="ET30" s="29"/>
+      <c r="EU30" s="29"/>
+      <c r="EV30" s="29"/>
+      <c r="EW30" s="29"/>
+      <c r="EX30" s="29"/>
+      <c r="EY30" s="29"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4155,109 +4155,105 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="36" t="s">
+      <c r="EM31" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="36"/>
-      <c r="EO31" s="36"/>
-      <c r="EP31" s="36"/>
-      <c r="EQ31" s="36"/>
-      <c r="ER31" s="36"/>
-      <c r="ES31" s="36"/>
-      <c r="ET31" s="36"/>
-      <c r="EU31" s="36"/>
-      <c r="EV31" s="36"/>
-      <c r="EW31" s="36"/>
-      <c r="EX31" s="36"/>
-      <c r="EY31" s="36"/>
+      <c r="EN31" s="29"/>
+      <c r="EO31" s="29"/>
+      <c r="EP31" s="29"/>
+      <c r="EQ31" s="29"/>
+      <c r="ER31" s="29"/>
+      <c r="ES31" s="29"/>
+      <c r="ET31" s="29"/>
+      <c r="EU31" s="29"/>
+      <c r="EV31" s="29"/>
+      <c r="EW31" s="29"/>
+      <c r="EX31" s="29"/>
+      <c r="EY31" s="29"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="36" t="s">
+      <c r="EM32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="36"/>
-      <c r="EO32" s="36"/>
-      <c r="EP32" s="36"/>
-      <c r="EQ32" s="36"/>
-      <c r="ER32" s="36"/>
-      <c r="ES32" s="36"/>
-      <c r="ET32" s="36"/>
-      <c r="EU32" s="36"/>
-      <c r="EV32" s="36"/>
-      <c r="EW32" s="36"/>
-      <c r="EX32" s="36"/>
-      <c r="EY32" s="36"/>
+      <c r="EN32" s="29"/>
+      <c r="EO32" s="29"/>
+      <c r="EP32" s="29"/>
+      <c r="EQ32" s="29"/>
+      <c r="ER32" s="29"/>
+      <c r="ES32" s="29"/>
+      <c r="ET32" s="29"/>
+      <c r="EU32" s="29"/>
+      <c r="EV32" s="29"/>
+      <c r="EW32" s="29"/>
+      <c r="EX32" s="29"/>
+      <c r="EY32" s="29"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="36" t="s">
+      <c r="EM33" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="36"/>
-      <c r="EO33" s="36"/>
-      <c r="EP33" s="36"/>
-      <c r="EQ33" s="36"/>
-      <c r="ER33" s="36"/>
-      <c r="ES33" s="36"/>
-      <c r="ET33" s="36"/>
-      <c r="EU33" s="36"/>
-      <c r="EV33" s="36"/>
-      <c r="EW33" s="36"/>
-      <c r="EX33" s="36"/>
-      <c r="EY33" s="36"/>
+      <c r="EN33" s="29"/>
+      <c r="EO33" s="29"/>
+      <c r="EP33" s="29"/>
+      <c r="EQ33" s="29"/>
+      <c r="ER33" s="29"/>
+      <c r="ES33" s="29"/>
+      <c r="ET33" s="29"/>
+      <c r="EU33" s="29"/>
+      <c r="EV33" s="29"/>
+      <c r="EW33" s="29"/>
+      <c r="EX33" s="29"/>
+      <c r="EY33" s="29"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="36" t="s">
+      <c r="EM34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="36"/>
-      <c r="EO34" s="36"/>
-      <c r="EP34" s="36"/>
-      <c r="EQ34" s="36"/>
-      <c r="ER34" s="36"/>
-      <c r="ES34" s="36"/>
-      <c r="ET34" s="36"/>
-      <c r="EU34" s="36"/>
-      <c r="EV34" s="36"/>
-      <c r="EW34" s="36"/>
-      <c r="EX34" s="36"/>
-      <c r="EY34" s="36"/>
+      <c r="EN34" s="29"/>
+      <c r="EO34" s="29"/>
+      <c r="EP34" s="29"/>
+      <c r="EQ34" s="29"/>
+      <c r="ER34" s="29"/>
+      <c r="ES34" s="29"/>
+      <c r="ET34" s="29"/>
+      <c r="EU34" s="29"/>
+      <c r="EV34" s="29"/>
+      <c r="EW34" s="29"/>
+      <c r="EX34" s="29"/>
+      <c r="EY34" s="29"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="36" t="s">
+      <c r="EM35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="36"/>
-      <c r="EO35" s="36"/>
-      <c r="EP35" s="36"/>
-      <c r="EQ35" s="36"/>
-      <c r="ER35" s="36"/>
-      <c r="ES35" s="36"/>
-      <c r="ET35" s="36"/>
-      <c r="EU35" s="36"/>
-      <c r="EV35" s="36"/>
-      <c r="EW35" s="36"/>
-      <c r="EX35" s="36"/>
-      <c r="EY35" s="36"/>
+      <c r="EN35" s="29"/>
+      <c r="EO35" s="29"/>
+      <c r="EP35" s="29"/>
+      <c r="EQ35" s="29"/>
+      <c r="ER35" s="29"/>
+      <c r="ES35" s="29"/>
+      <c r="ET35" s="29"/>
+      <c r="EU35" s="29"/>
+      <c r="EV35" s="29"/>
+      <c r="EW35" s="29"/>
+      <c r="EX35" s="29"/>
+      <c r="EY35" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AD1:AI1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4271,19 +4267,23 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportering" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -142,9 +143,6 @@
   </si>
   <si>
     <t>Planerad tid:</t>
-  </si>
-  <si>
-    <t>UPPDATERAD:</t>
   </si>
   <si>
     <t>Mailat JP och Helge</t>
@@ -421,33 +419,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
@@ -828,7 +820,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -908,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IF35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1016,68 +1008,64 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AD1" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="35">
-        <v>41135</v>
-      </c>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:240">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30">
         <f>SUM(C7:IF7)</f>
         <v>2</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1086,260 +1074,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="30"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30" t="s">
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32"/>
+      <c r="BG4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="30"/>
-      <c r="BK4" s="30"/>
-      <c r="BL4" s="30"/>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="30"/>
-      <c r="BP4" s="30"/>
-      <c r="BQ4" s="30"/>
-      <c r="BR4" s="30"/>
-      <c r="BS4" s="30"/>
-      <c r="BT4" s="30"/>
-      <c r="BU4" s="30"/>
-      <c r="BV4" s="30"/>
-      <c r="BW4" s="30"/>
-      <c r="BX4" s="30"/>
-      <c r="BY4" s="30"/>
-      <c r="BZ4" s="30"/>
-      <c r="CA4" s="30"/>
-      <c r="CB4" s="30"/>
-      <c r="CC4" s="30"/>
-      <c r="CD4" s="30"/>
-      <c r="CE4" s="30"/>
-      <c r="CF4" s="30"/>
-      <c r="CG4" s="30"/>
-      <c r="CH4" s="30"/>
-      <c r="CI4" s="30"/>
-      <c r="CJ4" s="30"/>
-      <c r="CK4" s="30"/>
-      <c r="CL4" s="30" t="s">
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="32"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="32"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="32"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="32"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="32"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="32"/>
+      <c r="CE4" s="32"/>
+      <c r="CF4" s="32"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="32"/>
+      <c r="CI4" s="32"/>
+      <c r="CJ4" s="32"/>
+      <c r="CK4" s="32"/>
+      <c r="CL4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="30"/>
-      <c r="CN4" s="30"/>
-      <c r="CO4" s="30"/>
-      <c r="CP4" s="30"/>
-      <c r="CQ4" s="30"/>
-      <c r="CR4" s="30"/>
-      <c r="CS4" s="30"/>
-      <c r="CT4" s="30"/>
-      <c r="CU4" s="30"/>
-      <c r="CV4" s="30"/>
-      <c r="CW4" s="30"/>
-      <c r="CX4" s="30"/>
-      <c r="CY4" s="30"/>
-      <c r="CZ4" s="30"/>
-      <c r="DA4" s="30"/>
-      <c r="DB4" s="30"/>
-      <c r="DC4" s="30"/>
-      <c r="DD4" s="30"/>
-      <c r="DE4" s="30"/>
-      <c r="DF4" s="30"/>
-      <c r="DG4" s="30"/>
-      <c r="DH4" s="30"/>
-      <c r="DI4" s="30"/>
-      <c r="DJ4" s="30"/>
-      <c r="DK4" s="30"/>
-      <c r="DL4" s="30"/>
-      <c r="DM4" s="30"/>
-      <c r="DN4" s="30"/>
-      <c r="DO4" s="30"/>
-      <c r="DP4" s="30" t="s">
+      <c r="CM4" s="32"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="32"/>
+      <c r="CP4" s="32"/>
+      <c r="CQ4" s="32"/>
+      <c r="CR4" s="32"/>
+      <c r="CS4" s="32"/>
+      <c r="CT4" s="32"/>
+      <c r="CU4" s="32"/>
+      <c r="CV4" s="32"/>
+      <c r="CW4" s="32"/>
+      <c r="CX4" s="32"/>
+      <c r="CY4" s="32"/>
+      <c r="CZ4" s="32"/>
+      <c r="DA4" s="32"/>
+      <c r="DB4" s="32"/>
+      <c r="DC4" s="32"/>
+      <c r="DD4" s="32"/>
+      <c r="DE4" s="32"/>
+      <c r="DF4" s="32"/>
+      <c r="DG4" s="32"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
+      <c r="DM4" s="32"/>
+      <c r="DN4" s="32"/>
+      <c r="DO4" s="32"/>
+      <c r="DP4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="30"/>
-      <c r="DR4" s="30"/>
-      <c r="DS4" s="30"/>
-      <c r="DT4" s="30"/>
-      <c r="DU4" s="30"/>
-      <c r="DV4" s="30"/>
-      <c r="DW4" s="30"/>
-      <c r="DX4" s="30"/>
-      <c r="DY4" s="30"/>
-      <c r="DZ4" s="30"/>
-      <c r="EA4" s="30"/>
-      <c r="EB4" s="30"/>
-      <c r="EC4" s="30"/>
-      <c r="ED4" s="30"/>
-      <c r="EE4" s="30"/>
-      <c r="EF4" s="30"/>
-      <c r="EG4" s="30"/>
-      <c r="EH4" s="30"/>
-      <c r="EI4" s="30"/>
-      <c r="EJ4" s="30"/>
-      <c r="EK4" s="30"/>
-      <c r="EL4" s="30"/>
-      <c r="EM4" s="30"/>
-      <c r="EN4" s="30"/>
-      <c r="EO4" s="30"/>
-      <c r="EP4" s="30"/>
-      <c r="EQ4" s="30"/>
-      <c r="ER4" s="30"/>
-      <c r="ES4" s="30"/>
-      <c r="ET4" s="30"/>
-      <c r="EU4" s="30" t="s">
+      <c r="DQ4" s="32"/>
+      <c r="DR4" s="32"/>
+      <c r="DS4" s="32"/>
+      <c r="DT4" s="32"/>
+      <c r="DU4" s="32"/>
+      <c r="DV4" s="32"/>
+      <c r="DW4" s="32"/>
+      <c r="DX4" s="32"/>
+      <c r="DY4" s="32"/>
+      <c r="DZ4" s="32"/>
+      <c r="EA4" s="32"/>
+      <c r="EB4" s="32"/>
+      <c r="EC4" s="32"/>
+      <c r="ED4" s="32"/>
+      <c r="EE4" s="32"/>
+      <c r="EF4" s="32"/>
+      <c r="EG4" s="32"/>
+      <c r="EH4" s="32"/>
+      <c r="EI4" s="32"/>
+      <c r="EJ4" s="32"/>
+      <c r="EK4" s="32"/>
+      <c r="EL4" s="32"/>
+      <c r="EM4" s="32"/>
+      <c r="EN4" s="32"/>
+      <c r="EO4" s="32"/>
+      <c r="EP4" s="32"/>
+      <c r="EQ4" s="32"/>
+      <c r="ER4" s="32"/>
+      <c r="ES4" s="32"/>
+      <c r="ET4" s="32"/>
+      <c r="EU4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="30"/>
-      <c r="EW4" s="30"/>
-      <c r="EX4" s="30"/>
-      <c r="EY4" s="30"/>
-      <c r="EZ4" s="30"/>
-      <c r="FA4" s="30"/>
-      <c r="FB4" s="30"/>
-      <c r="FC4" s="30"/>
-      <c r="FD4" s="30"/>
-      <c r="FE4" s="30"/>
-      <c r="FF4" s="30"/>
-      <c r="FG4" s="30"/>
-      <c r="FH4" s="30"/>
-      <c r="FI4" s="30"/>
-      <c r="FJ4" s="30"/>
-      <c r="FK4" s="30"/>
-      <c r="FL4" s="30"/>
-      <c r="FM4" s="30"/>
-      <c r="FN4" s="30"/>
-      <c r="FO4" s="30"/>
-      <c r="FP4" s="30"/>
-      <c r="FQ4" s="30"/>
-      <c r="FR4" s="30"/>
-      <c r="FS4" s="30"/>
-      <c r="FT4" s="30"/>
-      <c r="FU4" s="30"/>
-      <c r="FV4" s="30"/>
-      <c r="FW4" s="30"/>
-      <c r="FX4" s="30"/>
-      <c r="FY4" s="30"/>
-      <c r="FZ4" s="30" t="s">
+      <c r="EV4" s="32"/>
+      <c r="EW4" s="32"/>
+      <c r="EX4" s="32"/>
+      <c r="EY4" s="32"/>
+      <c r="EZ4" s="32"/>
+      <c r="FA4" s="32"/>
+      <c r="FB4" s="32"/>
+      <c r="FC4" s="32"/>
+      <c r="FD4" s="32"/>
+      <c r="FE4" s="32"/>
+      <c r="FF4" s="32"/>
+      <c r="FG4" s="32"/>
+      <c r="FH4" s="32"/>
+      <c r="FI4" s="32"/>
+      <c r="FJ4" s="32"/>
+      <c r="FK4" s="32"/>
+      <c r="FL4" s="32"/>
+      <c r="FM4" s="32"/>
+      <c r="FN4" s="32"/>
+      <c r="FO4" s="32"/>
+      <c r="FP4" s="32"/>
+      <c r="FQ4" s="32"/>
+      <c r="FR4" s="32"/>
+      <c r="FS4" s="32"/>
+      <c r="FT4" s="32"/>
+      <c r="FU4" s="32"/>
+      <c r="FV4" s="32"/>
+      <c r="FW4" s="32"/>
+      <c r="FX4" s="32"/>
+      <c r="FY4" s="32"/>
+      <c r="FZ4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="30"/>
-      <c r="GB4" s="30"/>
-      <c r="GC4" s="30"/>
-      <c r="GD4" s="30"/>
-      <c r="GE4" s="30"/>
-      <c r="GF4" s="30"/>
-      <c r="GG4" s="30"/>
-      <c r="GH4" s="30"/>
-      <c r="GI4" s="30"/>
-      <c r="GJ4" s="30"/>
-      <c r="GK4" s="30"/>
-      <c r="GL4" s="30"/>
-      <c r="GM4" s="30"/>
-      <c r="GN4" s="30"/>
-      <c r="GO4" s="30"/>
-      <c r="GP4" s="30"/>
-      <c r="GQ4" s="30"/>
-      <c r="GR4" s="30"/>
-      <c r="GS4" s="30"/>
-      <c r="GT4" s="30"/>
-      <c r="GU4" s="30"/>
-      <c r="GV4" s="30"/>
-      <c r="GW4" s="30"/>
-      <c r="GX4" s="30"/>
-      <c r="GY4" s="30"/>
-      <c r="GZ4" s="30"/>
-      <c r="HA4" s="30"/>
-      <c r="HB4" s="30" t="s">
+      <c r="GA4" s="32"/>
+      <c r="GB4" s="32"/>
+      <c r="GC4" s="32"/>
+      <c r="GD4" s="32"/>
+      <c r="GE4" s="32"/>
+      <c r="GF4" s="32"/>
+      <c r="GG4" s="32"/>
+      <c r="GH4" s="32"/>
+      <c r="GI4" s="32"/>
+      <c r="GJ4" s="32"/>
+      <c r="GK4" s="32"/>
+      <c r="GL4" s="32"/>
+      <c r="GM4" s="32"/>
+      <c r="GN4" s="32"/>
+      <c r="GO4" s="32"/>
+      <c r="GP4" s="32"/>
+      <c r="GQ4" s="32"/>
+      <c r="GR4" s="32"/>
+      <c r="GS4" s="32"/>
+      <c r="GT4" s="32"/>
+      <c r="GU4" s="32"/>
+      <c r="GV4" s="32"/>
+      <c r="GW4" s="32"/>
+      <c r="GX4" s="32"/>
+      <c r="GY4" s="32"/>
+      <c r="GZ4" s="32"/>
+      <c r="HA4" s="32"/>
+      <c r="HB4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="30"/>
-      <c r="HD4" s="30"/>
-      <c r="HE4" s="30"/>
-      <c r="HF4" s="30"/>
-      <c r="HG4" s="30"/>
-      <c r="HH4" s="30"/>
-      <c r="HI4" s="30"/>
-      <c r="HJ4" s="30"/>
-      <c r="HK4" s="30"/>
-      <c r="HL4" s="30"/>
-      <c r="HM4" s="30"/>
-      <c r="HN4" s="30"/>
-      <c r="HO4" s="30"/>
-      <c r="HP4" s="30"/>
-      <c r="HQ4" s="30"/>
-      <c r="HR4" s="30"/>
-      <c r="HS4" s="30"/>
-      <c r="HT4" s="30"/>
-      <c r="HU4" s="30"/>
-      <c r="HV4" s="30"/>
-      <c r="HW4" s="30"/>
-      <c r="HX4" s="30"/>
-      <c r="HY4" s="30"/>
-      <c r="HZ4" s="30"/>
-      <c r="IA4" s="30"/>
-      <c r="IB4" s="30"/>
-      <c r="IC4" s="30"/>
-      <c r="ID4" s="30"/>
-      <c r="IE4" s="30"/>
-      <c r="IF4" s="31"/>
+      <c r="HC4" s="32"/>
+      <c r="HD4" s="32"/>
+      <c r="HE4" s="32"/>
+      <c r="HF4" s="32"/>
+      <c r="HG4" s="32"/>
+      <c r="HH4" s="32"/>
+      <c r="HI4" s="32"/>
+      <c r="HJ4" s="32"/>
+      <c r="HK4" s="32"/>
+      <c r="HL4" s="32"/>
+      <c r="HM4" s="32"/>
+      <c r="HN4" s="32"/>
+      <c r="HO4" s="32"/>
+      <c r="HP4" s="32"/>
+      <c r="HQ4" s="32"/>
+      <c r="HR4" s="32"/>
+      <c r="HS4" s="32"/>
+      <c r="HT4" s="32"/>
+      <c r="HU4" s="32"/>
+      <c r="HV4" s="32"/>
+      <c r="HW4" s="32"/>
+      <c r="HX4" s="32"/>
+      <c r="HY4" s="32"/>
+      <c r="HZ4" s="32"/>
+      <c r="IA4" s="32"/>
+      <c r="IB4" s="32"/>
+      <c r="IC4" s="32"/>
+      <c r="ID4" s="32"/>
+      <c r="IE4" s="32"/>
+      <c r="IF4" s="34"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2836,21 +2824,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="29" t="s">
+      <c r="EM9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="29"/>
-      <c r="EO9" s="29"/>
-      <c r="EP9" s="29"/>
-      <c r="EQ9" s="29"/>
-      <c r="ER9" s="29"/>
-      <c r="ES9" s="29"/>
-      <c r="ET9" s="29"/>
-      <c r="EU9" s="29"/>
-      <c r="EV9" s="29"/>
-      <c r="EW9" s="29"/>
-      <c r="EX9" s="29"/>
-      <c r="EY9" s="29"/>
+      <c r="EN9" s="33"/>
+      <c r="EO9" s="33"/>
+      <c r="EP9" s="33"/>
+      <c r="EQ9" s="33"/>
+      <c r="ER9" s="33"/>
+      <c r="ES9" s="33"/>
+      <c r="ET9" s="33"/>
+      <c r="EU9" s="33"/>
+      <c r="EV9" s="33"/>
+      <c r="EW9" s="33"/>
+      <c r="EX9" s="33"/>
+      <c r="EY9" s="33"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2865,21 +2853,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="29" t="s">
+      <c r="EM10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="29"/>
-      <c r="EO10" s="29"/>
-      <c r="EP10" s="29"/>
-      <c r="EQ10" s="29"/>
-      <c r="ER10" s="29"/>
-      <c r="ES10" s="29"/>
-      <c r="ET10" s="29"/>
-      <c r="EU10" s="29"/>
-      <c r="EV10" s="29"/>
-      <c r="EW10" s="29"/>
-      <c r="EX10" s="29"/>
-      <c r="EY10" s="29"/>
+      <c r="EN10" s="33"/>
+      <c r="EO10" s="33"/>
+      <c r="EP10" s="33"/>
+      <c r="EQ10" s="33"/>
+      <c r="ER10" s="33"/>
+      <c r="ES10" s="33"/>
+      <c r="ET10" s="33"/>
+      <c r="EU10" s="33"/>
+      <c r="EV10" s="33"/>
+      <c r="EW10" s="33"/>
+      <c r="EX10" s="33"/>
+      <c r="EY10" s="33"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2893,21 +2881,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="29" t="s">
+      <c r="EM11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="29"/>
-      <c r="EO11" s="29"/>
-      <c r="EP11" s="29"/>
-      <c r="EQ11" s="29"/>
-      <c r="ER11" s="29"/>
-      <c r="ES11" s="29"/>
-      <c r="ET11" s="29"/>
-      <c r="EU11" s="29"/>
-      <c r="EV11" s="29"/>
-      <c r="EW11" s="29"/>
-      <c r="EX11" s="29"/>
-      <c r="EY11" s="29"/>
+      <c r="EN11" s="33"/>
+      <c r="EO11" s="33"/>
+      <c r="EP11" s="33"/>
+      <c r="EQ11" s="33"/>
+      <c r="ER11" s="33"/>
+      <c r="ES11" s="33"/>
+      <c r="ET11" s="33"/>
+      <c r="EU11" s="33"/>
+      <c r="EV11" s="33"/>
+      <c r="EW11" s="33"/>
+      <c r="EX11" s="33"/>
+      <c r="EY11" s="33"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2923,21 +2911,21 @@
       <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="29" t="s">
+      <c r="EM12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="29"/>
-      <c r="EO12" s="29"/>
-      <c r="EP12" s="29"/>
-      <c r="EQ12" s="29"/>
-      <c r="ER12" s="29"/>
-      <c r="ES12" s="29"/>
-      <c r="ET12" s="29"/>
-      <c r="EU12" s="29"/>
-      <c r="EV12" s="29"/>
-      <c r="EW12" s="29"/>
-      <c r="EX12" s="29"/>
-      <c r="EY12" s="29"/>
+      <c r="EN12" s="33"/>
+      <c r="EO12" s="33"/>
+      <c r="EP12" s="33"/>
+      <c r="EQ12" s="33"/>
+      <c r="ER12" s="33"/>
+      <c r="ES12" s="33"/>
+      <c r="ET12" s="33"/>
+      <c r="EU12" s="33"/>
+      <c r="EV12" s="33"/>
+      <c r="EW12" s="33"/>
+      <c r="EX12" s="33"/>
+      <c r="EY12" s="33"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2950,39 +2938,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="29" t="s">
+      <c r="EM13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="29"/>
-      <c r="EO13" s="29"/>
-      <c r="EP13" s="29"/>
-      <c r="EQ13" s="29"/>
-      <c r="ER13" s="29"/>
-      <c r="ES13" s="29"/>
-      <c r="ET13" s="29"/>
-      <c r="EU13" s="29"/>
-      <c r="EV13" s="29"/>
-      <c r="EW13" s="29"/>
-      <c r="EX13" s="29"/>
-      <c r="EY13" s="29"/>
+      <c r="EN13" s="33"/>
+      <c r="EO13" s="33"/>
+      <c r="EP13" s="33"/>
+      <c r="EQ13" s="33"/>
+      <c r="ER13" s="33"/>
+      <c r="ES13" s="33"/>
+      <c r="ET13" s="33"/>
+      <c r="EU13" s="33"/>
+      <c r="EV13" s="33"/>
+      <c r="EW13" s="33"/>
+      <c r="EX13" s="33"/>
+      <c r="EY13" s="33"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="29" t="s">
+      <c r="EM14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="29"/>
-      <c r="EO14" s="29"/>
-      <c r="EP14" s="29"/>
-      <c r="EQ14" s="29"/>
-      <c r="ER14" s="29"/>
-      <c r="ES14" s="29"/>
-      <c r="ET14" s="29"/>
-      <c r="EU14" s="29"/>
-      <c r="EV14" s="29"/>
-      <c r="EW14" s="29"/>
-      <c r="EX14" s="29"/>
-      <c r="EY14" s="29"/>
+      <c r="EN14" s="33"/>
+      <c r="EO14" s="33"/>
+      <c r="EP14" s="33"/>
+      <c r="EQ14" s="33"/>
+      <c r="ER14" s="33"/>
+      <c r="ES14" s="33"/>
+      <c r="ET14" s="33"/>
+      <c r="EU14" s="33"/>
+      <c r="EV14" s="33"/>
+      <c r="EW14" s="33"/>
+      <c r="EX14" s="33"/>
+      <c r="EY14" s="33"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3017,21 +3005,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="29" t="s">
+      <c r="EM15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="29"/>
-      <c r="EO15" s="29"/>
-      <c r="EP15" s="29"/>
-      <c r="EQ15" s="29"/>
-      <c r="ER15" s="29"/>
-      <c r="ES15" s="29"/>
-      <c r="ET15" s="29"/>
-      <c r="EU15" s="29"/>
-      <c r="EV15" s="29"/>
-      <c r="EW15" s="29"/>
-      <c r="EX15" s="29"/>
-      <c r="EY15" s="29"/>
+      <c r="EN15" s="33"/>
+      <c r="EO15" s="33"/>
+      <c r="EP15" s="33"/>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
+      <c r="EW15" s="33"/>
+      <c r="EX15" s="33"/>
+      <c r="EY15" s="33"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3042,39 +3030,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="29" t="s">
+      <c r="EM16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="29"/>
-      <c r="EO16" s="29"/>
-      <c r="EP16" s="29"/>
-      <c r="EQ16" s="29"/>
-      <c r="ER16" s="29"/>
-      <c r="ES16" s="29"/>
-      <c r="ET16" s="29"/>
-      <c r="EU16" s="29"/>
-      <c r="EV16" s="29"/>
-      <c r="EW16" s="29"/>
-      <c r="EX16" s="29"/>
-      <c r="EY16" s="29"/>
+      <c r="EN16" s="33"/>
+      <c r="EO16" s="33"/>
+      <c r="EP16" s="33"/>
+      <c r="EQ16" s="33"/>
+      <c r="ER16" s="33"/>
+      <c r="ES16" s="33"/>
+      <c r="ET16" s="33"/>
+      <c r="EU16" s="33"/>
+      <c r="EV16" s="33"/>
+      <c r="EW16" s="33"/>
+      <c r="EX16" s="33"/>
+      <c r="EY16" s="33"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="29" t="s">
+      <c r="EM17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="29"/>
-      <c r="EO17" s="29"/>
-      <c r="EP17" s="29"/>
-      <c r="EQ17" s="29"/>
-      <c r="ER17" s="29"/>
-      <c r="ES17" s="29"/>
-      <c r="ET17" s="29"/>
-      <c r="EU17" s="29"/>
-      <c r="EV17" s="29"/>
-      <c r="EW17" s="29"/>
-      <c r="EX17" s="29"/>
-      <c r="EY17" s="29"/>
+      <c r="EN17" s="33"/>
+      <c r="EO17" s="33"/>
+      <c r="EP17" s="33"/>
+      <c r="EQ17" s="33"/>
+      <c r="ER17" s="33"/>
+      <c r="ES17" s="33"/>
+      <c r="ET17" s="33"/>
+      <c r="EU17" s="33"/>
+      <c r="EV17" s="33"/>
+      <c r="EW17" s="33"/>
+      <c r="EX17" s="33"/>
+      <c r="EY17" s="33"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3132,39 +3120,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="29" t="s">
+      <c r="EM18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="29"/>
-      <c r="EO18" s="29"/>
-      <c r="EP18" s="29"/>
-      <c r="EQ18" s="29"/>
-      <c r="ER18" s="29"/>
-      <c r="ES18" s="29"/>
-      <c r="ET18" s="29"/>
-      <c r="EU18" s="29"/>
-      <c r="EV18" s="29"/>
-      <c r="EW18" s="29"/>
-      <c r="EX18" s="29"/>
-      <c r="EY18" s="29"/>
+      <c r="EN18" s="33"/>
+      <c r="EO18" s="33"/>
+      <c r="EP18" s="33"/>
+      <c r="EQ18" s="33"/>
+      <c r="ER18" s="33"/>
+      <c r="ES18" s="33"/>
+      <c r="ET18" s="33"/>
+      <c r="EU18" s="33"/>
+      <c r="EV18" s="33"/>
+      <c r="EW18" s="33"/>
+      <c r="EX18" s="33"/>
+      <c r="EY18" s="33"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="29" t="s">
+      <c r="EM19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="29"/>
-      <c r="EO19" s="29"/>
-      <c r="EP19" s="29"/>
-      <c r="EQ19" s="29"/>
-      <c r="ER19" s="29"/>
-      <c r="ES19" s="29"/>
-      <c r="ET19" s="29"/>
-      <c r="EU19" s="29"/>
-      <c r="EV19" s="29"/>
-      <c r="EW19" s="29"/>
-      <c r="EX19" s="29"/>
-      <c r="EY19" s="29"/>
+      <c r="EN19" s="33"/>
+      <c r="EO19" s="33"/>
+      <c r="EP19" s="33"/>
+      <c r="EQ19" s="33"/>
+      <c r="ER19" s="33"/>
+      <c r="ES19" s="33"/>
+      <c r="ET19" s="33"/>
+      <c r="EU19" s="33"/>
+      <c r="EV19" s="33"/>
+      <c r="EW19" s="33"/>
+      <c r="EX19" s="33"/>
+      <c r="EY19" s="33"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3313,21 +3301,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="29" t="s">
+      <c r="EM20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="29"/>
-      <c r="EO20" s="29"/>
-      <c r="EP20" s="29"/>
-      <c r="EQ20" s="29"/>
-      <c r="ER20" s="29"/>
-      <c r="ES20" s="29"/>
-      <c r="ET20" s="29"/>
-      <c r="EU20" s="29"/>
-      <c r="EV20" s="29"/>
-      <c r="EW20" s="29"/>
-      <c r="EX20" s="29"/>
-      <c r="EY20" s="29"/>
+      <c r="EN20" s="33"/>
+      <c r="EO20" s="33"/>
+      <c r="EP20" s="33"/>
+      <c r="EQ20" s="33"/>
+      <c r="ER20" s="33"/>
+      <c r="ES20" s="33"/>
+      <c r="ET20" s="33"/>
+      <c r="EU20" s="33"/>
+      <c r="EV20" s="33"/>
+      <c r="EW20" s="33"/>
+      <c r="EX20" s="33"/>
+      <c r="EY20" s="33"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3338,21 +3326,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="29" t="s">
+      <c r="EM21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="29"/>
-      <c r="EO21" s="29"/>
-      <c r="EP21" s="29"/>
-      <c r="EQ21" s="29"/>
-      <c r="ER21" s="29"/>
-      <c r="ES21" s="29"/>
-      <c r="ET21" s="29"/>
-      <c r="EU21" s="29"/>
-      <c r="EV21" s="29"/>
-      <c r="EW21" s="29"/>
-      <c r="EX21" s="29"/>
-      <c r="EY21" s="29"/>
+      <c r="EN21" s="33"/>
+      <c r="EO21" s="33"/>
+      <c r="EP21" s="33"/>
+      <c r="EQ21" s="33"/>
+      <c r="ER21" s="33"/>
+      <c r="ES21" s="33"/>
+      <c r="ET21" s="33"/>
+      <c r="EU21" s="33"/>
+      <c r="EV21" s="33"/>
+      <c r="EW21" s="33"/>
+      <c r="EX21" s="33"/>
+      <c r="EY21" s="33"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3363,21 +3351,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="29" t="s">
+      <c r="EM22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="29"/>
-      <c r="EO22" s="29"/>
-      <c r="EP22" s="29"/>
-      <c r="EQ22" s="29"/>
-      <c r="ER22" s="29"/>
-      <c r="ES22" s="29"/>
-      <c r="ET22" s="29"/>
-      <c r="EU22" s="29"/>
-      <c r="EV22" s="29"/>
-      <c r="EW22" s="29"/>
-      <c r="EX22" s="29"/>
-      <c r="EY22" s="29"/>
+      <c r="EN22" s="33"/>
+      <c r="EO22" s="33"/>
+      <c r="EP22" s="33"/>
+      <c r="EQ22" s="33"/>
+      <c r="ER22" s="33"/>
+      <c r="ES22" s="33"/>
+      <c r="ET22" s="33"/>
+      <c r="EU22" s="33"/>
+      <c r="EV22" s="33"/>
+      <c r="EW22" s="33"/>
+      <c r="EX22" s="33"/>
+      <c r="EY22" s="33"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3388,39 +3376,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="29" t="s">
+      <c r="EM23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="29"/>
-      <c r="EO23" s="29"/>
-      <c r="EP23" s="29"/>
-      <c r="EQ23" s="29"/>
-      <c r="ER23" s="29"/>
-      <c r="ES23" s="29"/>
-      <c r="ET23" s="29"/>
-      <c r="EU23" s="29"/>
-      <c r="EV23" s="29"/>
-      <c r="EW23" s="29"/>
-      <c r="EX23" s="29"/>
-      <c r="EY23" s="29"/>
+      <c r="EN23" s="33"/>
+      <c r="EO23" s="33"/>
+      <c r="EP23" s="33"/>
+      <c r="EQ23" s="33"/>
+      <c r="ER23" s="33"/>
+      <c r="ES23" s="33"/>
+      <c r="ET23" s="33"/>
+      <c r="EU23" s="33"/>
+      <c r="EV23" s="33"/>
+      <c r="EW23" s="33"/>
+      <c r="EX23" s="33"/>
+      <c r="EY23" s="33"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="29" t="s">
+      <c r="EM24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="29"/>
-      <c r="EO24" s="29"/>
-      <c r="EP24" s="29"/>
-      <c r="EQ24" s="29"/>
-      <c r="ER24" s="29"/>
-      <c r="ES24" s="29"/>
-      <c r="ET24" s="29"/>
-      <c r="EU24" s="29"/>
-      <c r="EV24" s="29"/>
-      <c r="EW24" s="29"/>
-      <c r="EX24" s="29"/>
-      <c r="EY24" s="29"/>
+      <c r="EN24" s="33"/>
+      <c r="EO24" s="33"/>
+      <c r="EP24" s="33"/>
+      <c r="EQ24" s="33"/>
+      <c r="ER24" s="33"/>
+      <c r="ES24" s="33"/>
+      <c r="ET24" s="33"/>
+      <c r="EU24" s="33"/>
+      <c r="EV24" s="33"/>
+      <c r="EW24" s="33"/>
+      <c r="EX24" s="33"/>
+      <c r="EY24" s="33"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3569,21 +3557,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="29" t="s">
+      <c r="EM25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="29"/>
-      <c r="EO25" s="29"/>
-      <c r="EP25" s="29"/>
-      <c r="EQ25" s="29"/>
-      <c r="ER25" s="29"/>
-      <c r="ES25" s="29"/>
-      <c r="ET25" s="29"/>
-      <c r="EU25" s="29"/>
-      <c r="EV25" s="29"/>
-      <c r="EW25" s="29"/>
-      <c r="EX25" s="29"/>
-      <c r="EY25" s="29"/>
+      <c r="EN25" s="33"/>
+      <c r="EO25" s="33"/>
+      <c r="EP25" s="33"/>
+      <c r="EQ25" s="33"/>
+      <c r="ER25" s="33"/>
+      <c r="ES25" s="33"/>
+      <c r="ET25" s="33"/>
+      <c r="EU25" s="33"/>
+      <c r="EV25" s="33"/>
+      <c r="EW25" s="33"/>
+      <c r="EX25" s="33"/>
+      <c r="EY25" s="33"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3620,40 +3608,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="29" t="s">
+      <c r="EM26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="29"/>
-      <c r="EO26" s="29"/>
-      <c r="EP26" s="29"/>
-      <c r="EQ26" s="29"/>
-      <c r="ER26" s="29"/>
-      <c r="ES26" s="29"/>
-      <c r="ET26" s="29"/>
-      <c r="EU26" s="29"/>
-      <c r="EV26" s="29"/>
-      <c r="EW26" s="29"/>
-      <c r="EX26" s="29"/>
-      <c r="EY26" s="29"/>
+      <c r="EN26" s="33"/>
+      <c r="EO26" s="33"/>
+      <c r="EP26" s="33"/>
+      <c r="EQ26" s="33"/>
+      <c r="ER26" s="33"/>
+      <c r="ES26" s="33"/>
+      <c r="ET26" s="33"/>
+      <c r="EU26" s="33"/>
+      <c r="EV26" s="33"/>
+      <c r="EW26" s="33"/>
+      <c r="EX26" s="33"/>
+      <c r="EY26" s="33"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="29" t="s">
+      <c r="EM27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="29"/>
-      <c r="EO27" s="29"/>
-      <c r="EP27" s="29"/>
-      <c r="EQ27" s="29"/>
-      <c r="ER27" s="29"/>
-      <c r="ES27" s="29"/>
-      <c r="ET27" s="29"/>
-      <c r="EU27" s="29"/>
-      <c r="EV27" s="29"/>
-      <c r="EW27" s="29"/>
-      <c r="EX27" s="29"/>
-      <c r="EY27" s="29"/>
+      <c r="EN27" s="33"/>
+      <c r="EO27" s="33"/>
+      <c r="EP27" s="33"/>
+      <c r="EQ27" s="33"/>
+      <c r="ER27" s="33"/>
+      <c r="ES27" s="33"/>
+      <c r="ET27" s="33"/>
+      <c r="EU27" s="33"/>
+      <c r="EV27" s="33"/>
+      <c r="EW27" s="33"/>
+      <c r="EX27" s="33"/>
+      <c r="EY27" s="33"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3802,21 +3790,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="29" t="s">
+      <c r="EM28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="29"/>
-      <c r="EO28" s="29"/>
-      <c r="EP28" s="29"/>
-      <c r="EQ28" s="29"/>
-      <c r="ER28" s="29"/>
-      <c r="ES28" s="29"/>
-      <c r="ET28" s="29"/>
-      <c r="EU28" s="29"/>
-      <c r="EV28" s="29"/>
-      <c r="EW28" s="29"/>
-      <c r="EX28" s="29"/>
-      <c r="EY28" s="29"/>
+      <c r="EN28" s="33"/>
+      <c r="EO28" s="33"/>
+      <c r="EP28" s="33"/>
+      <c r="EQ28" s="33"/>
+      <c r="ER28" s="33"/>
+      <c r="ES28" s="33"/>
+      <c r="ET28" s="33"/>
+      <c r="EU28" s="33"/>
+      <c r="EV28" s="33"/>
+      <c r="EW28" s="33"/>
+      <c r="EX28" s="33"/>
+      <c r="EY28" s="33"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3890,21 +3878,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="29" t="s">
+      <c r="EM29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="29"/>
-      <c r="EO29" s="29"/>
-      <c r="EP29" s="29"/>
-      <c r="EQ29" s="29"/>
-      <c r="ER29" s="29"/>
-      <c r="ES29" s="29"/>
-      <c r="ET29" s="29"/>
-      <c r="EU29" s="29"/>
-      <c r="EV29" s="29"/>
-      <c r="EW29" s="29"/>
-      <c r="EX29" s="29"/>
-      <c r="EY29" s="29"/>
+      <c r="EN29" s="33"/>
+      <c r="EO29" s="33"/>
+      <c r="EP29" s="33"/>
+      <c r="EQ29" s="33"/>
+      <c r="ER29" s="33"/>
+      <c r="ES29" s="33"/>
+      <c r="ET29" s="33"/>
+      <c r="EU29" s="33"/>
+      <c r="EV29" s="33"/>
+      <c r="EW29" s="33"/>
+      <c r="EX29" s="33"/>
+      <c r="EY29" s="33"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4053,21 +4041,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="29" t="s">
+      <c r="EM30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="29"/>
-      <c r="EO30" s="29"/>
-      <c r="EP30" s="29"/>
-      <c r="EQ30" s="29"/>
-      <c r="ER30" s="29"/>
-      <c r="ES30" s="29"/>
-      <c r="ET30" s="29"/>
-      <c r="EU30" s="29"/>
-      <c r="EV30" s="29"/>
-      <c r="EW30" s="29"/>
-      <c r="EX30" s="29"/>
-      <c r="EY30" s="29"/>
+      <c r="EN30" s="33"/>
+      <c r="EO30" s="33"/>
+      <c r="EP30" s="33"/>
+      <c r="EQ30" s="33"/>
+      <c r="ER30" s="33"/>
+      <c r="ES30" s="33"/>
+      <c r="ET30" s="33"/>
+      <c r="EU30" s="33"/>
+      <c r="EV30" s="33"/>
+      <c r="EW30" s="33"/>
+      <c r="EX30" s="33"/>
+      <c r="EY30" s="33"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4155,105 +4143,109 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="29" t="s">
+      <c r="EM31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="29"/>
-      <c r="EO31" s="29"/>
-      <c r="EP31" s="29"/>
-      <c r="EQ31" s="29"/>
-      <c r="ER31" s="29"/>
-      <c r="ES31" s="29"/>
-      <c r="ET31" s="29"/>
-      <c r="EU31" s="29"/>
-      <c r="EV31" s="29"/>
-      <c r="EW31" s="29"/>
-      <c r="EX31" s="29"/>
-      <c r="EY31" s="29"/>
+      <c r="EN31" s="33"/>
+      <c r="EO31" s="33"/>
+      <c r="EP31" s="33"/>
+      <c r="EQ31" s="33"/>
+      <c r="ER31" s="33"/>
+      <c r="ES31" s="33"/>
+      <c r="ET31" s="33"/>
+      <c r="EU31" s="33"/>
+      <c r="EV31" s="33"/>
+      <c r="EW31" s="33"/>
+      <c r="EX31" s="33"/>
+      <c r="EY31" s="33"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="29" t="s">
+      <c r="EM32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="29"/>
-      <c r="EO32" s="29"/>
-      <c r="EP32" s="29"/>
-      <c r="EQ32" s="29"/>
-      <c r="ER32" s="29"/>
-      <c r="ES32" s="29"/>
-      <c r="ET32" s="29"/>
-      <c r="EU32" s="29"/>
-      <c r="EV32" s="29"/>
-      <c r="EW32" s="29"/>
-      <c r="EX32" s="29"/>
-      <c r="EY32" s="29"/>
+      <c r="EN32" s="33"/>
+      <c r="EO32" s="33"/>
+      <c r="EP32" s="33"/>
+      <c r="EQ32" s="33"/>
+      <c r="ER32" s="33"/>
+      <c r="ES32" s="33"/>
+      <c r="ET32" s="33"/>
+      <c r="EU32" s="33"/>
+      <c r="EV32" s="33"/>
+      <c r="EW32" s="33"/>
+      <c r="EX32" s="33"/>
+      <c r="EY32" s="33"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="29" t="s">
+      <c r="EM33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="29"/>
-      <c r="EO33" s="29"/>
-      <c r="EP33" s="29"/>
-      <c r="EQ33" s="29"/>
-      <c r="ER33" s="29"/>
-      <c r="ES33" s="29"/>
-      <c r="ET33" s="29"/>
-      <c r="EU33" s="29"/>
-      <c r="EV33" s="29"/>
-      <c r="EW33" s="29"/>
-      <c r="EX33" s="29"/>
-      <c r="EY33" s="29"/>
+      <c r="EN33" s="33"/>
+      <c r="EO33" s="33"/>
+      <c r="EP33" s="33"/>
+      <c r="EQ33" s="33"/>
+      <c r="ER33" s="33"/>
+      <c r="ES33" s="33"/>
+      <c r="ET33" s="33"/>
+      <c r="EU33" s="33"/>
+      <c r="EV33" s="33"/>
+      <c r="EW33" s="33"/>
+      <c r="EX33" s="33"/>
+      <c r="EY33" s="33"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="29" t="s">
+      <c r="EM34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="29"/>
-      <c r="EO34" s="29"/>
-      <c r="EP34" s="29"/>
-      <c r="EQ34" s="29"/>
-      <c r="ER34" s="29"/>
-      <c r="ES34" s="29"/>
-      <c r="ET34" s="29"/>
-      <c r="EU34" s="29"/>
-      <c r="EV34" s="29"/>
-      <c r="EW34" s="29"/>
-      <c r="EX34" s="29"/>
-      <c r="EY34" s="29"/>
+      <c r="EN34" s="33"/>
+      <c r="EO34" s="33"/>
+      <c r="EP34" s="33"/>
+      <c r="EQ34" s="33"/>
+      <c r="ER34" s="33"/>
+      <c r="ES34" s="33"/>
+      <c r="ET34" s="33"/>
+      <c r="EU34" s="33"/>
+      <c r="EV34" s="33"/>
+      <c r="EW34" s="33"/>
+      <c r="EX34" s="33"/>
+      <c r="EY34" s="33"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="29" t="s">
+      <c r="EM35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="29"/>
-      <c r="EO35" s="29"/>
-      <c r="EP35" s="29"/>
-      <c r="EQ35" s="29"/>
-      <c r="ER35" s="29"/>
-      <c r="ES35" s="29"/>
-      <c r="ET35" s="29"/>
-      <c r="EU35" s="29"/>
-      <c r="EV35" s="29"/>
-      <c r="EW35" s="29"/>
-      <c r="EX35" s="29"/>
-      <c r="EY35" s="29"/>
+      <c r="EN35" s="33"/>
+      <c r="EO35" s="33"/>
+      <c r="EP35" s="33"/>
+      <c r="EQ35" s="33"/>
+      <c r="ER35" s="33"/>
+      <c r="ES35" s="33"/>
+      <c r="ET35" s="33"/>
+      <c r="EU35" s="33"/>
+      <c r="EV35" s="33"/>
+      <c r="EW35" s="33"/>
+      <c r="EX35" s="33"/>
+      <c r="EY35" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AD1:AI1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
+  <mergeCells count="41">
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4267,23 +4259,17 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportering" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +145,9 @@
   </si>
   <si>
     <t>Mailat JP och Helge</t>
+  </si>
+  <si>
+    <t>Mailat och lärt mig GIT</t>
   </si>
 </sst>
 </file>
@@ -419,27 +421,27 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +744,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +763,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -827,8 +829,17 @@
       </c>
     </row>
     <row r="7" spans="2:5">
+      <c r="B7" s="2">
+        <v>41139</v>
+      </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -900,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,64 +1019,64 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="S1" s="29" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="S1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30">
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
     </row>
     <row r="2" spans="1:240">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37">
         <f>SUM(C7:IF7)</f>
-        <v>2</v>
-      </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1074,259 +1085,259 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32"/>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32" t="s">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="33"/>
+      <c r="BB4" s="33"/>
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="33"/>
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32"/>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32"/>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32"/>
-      <c r="CL4" s="32" t="s">
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="33"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="33"/>
+      <c r="CI4" s="33"/>
+      <c r="CJ4" s="33"/>
+      <c r="CK4" s="33"/>
+      <c r="CL4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="32"/>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32"/>
-      <c r="CR4" s="32"/>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32"/>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
-      <c r="CY4" s="32"/>
-      <c r="CZ4" s="32"/>
-      <c r="DA4" s="32"/>
-      <c r="DB4" s="32"/>
-      <c r="DC4" s="32"/>
-      <c r="DD4" s="32"/>
-      <c r="DE4" s="32"/>
-      <c r="DF4" s="32"/>
-      <c r="DG4" s="32"/>
-      <c r="DH4" s="32"/>
-      <c r="DI4" s="32"/>
-      <c r="DJ4" s="32"/>
-      <c r="DK4" s="32"/>
-      <c r="DL4" s="32"/>
-      <c r="DM4" s="32"/>
-      <c r="DN4" s="32"/>
-      <c r="DO4" s="32"/>
-      <c r="DP4" s="32" t="s">
+      <c r="CM4" s="33"/>
+      <c r="CN4" s="33"/>
+      <c r="CO4" s="33"/>
+      <c r="CP4" s="33"/>
+      <c r="CQ4" s="33"/>
+      <c r="CR4" s="33"/>
+      <c r="CS4" s="33"/>
+      <c r="CT4" s="33"/>
+      <c r="CU4" s="33"/>
+      <c r="CV4" s="33"/>
+      <c r="CW4" s="33"/>
+      <c r="CX4" s="33"/>
+      <c r="CY4" s="33"/>
+      <c r="CZ4" s="33"/>
+      <c r="DA4" s="33"/>
+      <c r="DB4" s="33"/>
+      <c r="DC4" s="33"/>
+      <c r="DD4" s="33"/>
+      <c r="DE4" s="33"/>
+      <c r="DF4" s="33"/>
+      <c r="DG4" s="33"/>
+      <c r="DH4" s="33"/>
+      <c r="DI4" s="33"/>
+      <c r="DJ4" s="33"/>
+      <c r="DK4" s="33"/>
+      <c r="DL4" s="33"/>
+      <c r="DM4" s="33"/>
+      <c r="DN4" s="33"/>
+      <c r="DO4" s="33"/>
+      <c r="DP4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="32"/>
-      <c r="DR4" s="32"/>
-      <c r="DS4" s="32"/>
-      <c r="DT4" s="32"/>
-      <c r="DU4" s="32"/>
-      <c r="DV4" s="32"/>
-      <c r="DW4" s="32"/>
-      <c r="DX4" s="32"/>
-      <c r="DY4" s="32"/>
-      <c r="DZ4" s="32"/>
-      <c r="EA4" s="32"/>
-      <c r="EB4" s="32"/>
-      <c r="EC4" s="32"/>
-      <c r="ED4" s="32"/>
-      <c r="EE4" s="32"/>
-      <c r="EF4" s="32"/>
-      <c r="EG4" s="32"/>
-      <c r="EH4" s="32"/>
-      <c r="EI4" s="32"/>
-      <c r="EJ4" s="32"/>
-      <c r="EK4" s="32"/>
-      <c r="EL4" s="32"/>
-      <c r="EM4" s="32"/>
-      <c r="EN4" s="32"/>
-      <c r="EO4" s="32"/>
-      <c r="EP4" s="32"/>
-      <c r="EQ4" s="32"/>
-      <c r="ER4" s="32"/>
-      <c r="ES4" s="32"/>
-      <c r="ET4" s="32"/>
-      <c r="EU4" s="32" t="s">
+      <c r="DQ4" s="33"/>
+      <c r="DR4" s="33"/>
+      <c r="DS4" s="33"/>
+      <c r="DT4" s="33"/>
+      <c r="DU4" s="33"/>
+      <c r="DV4" s="33"/>
+      <c r="DW4" s="33"/>
+      <c r="DX4" s="33"/>
+      <c r="DY4" s="33"/>
+      <c r="DZ4" s="33"/>
+      <c r="EA4" s="33"/>
+      <c r="EB4" s="33"/>
+      <c r="EC4" s="33"/>
+      <c r="ED4" s="33"/>
+      <c r="EE4" s="33"/>
+      <c r="EF4" s="33"/>
+      <c r="EG4" s="33"/>
+      <c r="EH4" s="33"/>
+      <c r="EI4" s="33"/>
+      <c r="EJ4" s="33"/>
+      <c r="EK4" s="33"/>
+      <c r="EL4" s="33"/>
+      <c r="EM4" s="33"/>
+      <c r="EN4" s="33"/>
+      <c r="EO4" s="33"/>
+      <c r="EP4" s="33"/>
+      <c r="EQ4" s="33"/>
+      <c r="ER4" s="33"/>
+      <c r="ES4" s="33"/>
+      <c r="ET4" s="33"/>
+      <c r="EU4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="32"/>
-      <c r="EW4" s="32"/>
-      <c r="EX4" s="32"/>
-      <c r="EY4" s="32"/>
-      <c r="EZ4" s="32"/>
-      <c r="FA4" s="32"/>
-      <c r="FB4" s="32"/>
-      <c r="FC4" s="32"/>
-      <c r="FD4" s="32"/>
-      <c r="FE4" s="32"/>
-      <c r="FF4" s="32"/>
-      <c r="FG4" s="32"/>
-      <c r="FH4" s="32"/>
-      <c r="FI4" s="32"/>
-      <c r="FJ4" s="32"/>
-      <c r="FK4" s="32"/>
-      <c r="FL4" s="32"/>
-      <c r="FM4" s="32"/>
-      <c r="FN4" s="32"/>
-      <c r="FO4" s="32"/>
-      <c r="FP4" s="32"/>
-      <c r="FQ4" s="32"/>
-      <c r="FR4" s="32"/>
-      <c r="FS4" s="32"/>
-      <c r="FT4" s="32"/>
-      <c r="FU4" s="32"/>
-      <c r="FV4" s="32"/>
-      <c r="FW4" s="32"/>
-      <c r="FX4" s="32"/>
-      <c r="FY4" s="32"/>
-      <c r="FZ4" s="32" t="s">
+      <c r="EV4" s="33"/>
+      <c r="EW4" s="33"/>
+      <c r="EX4" s="33"/>
+      <c r="EY4" s="33"/>
+      <c r="EZ4" s="33"/>
+      <c r="FA4" s="33"/>
+      <c r="FB4" s="33"/>
+      <c r="FC4" s="33"/>
+      <c r="FD4" s="33"/>
+      <c r="FE4" s="33"/>
+      <c r="FF4" s="33"/>
+      <c r="FG4" s="33"/>
+      <c r="FH4" s="33"/>
+      <c r="FI4" s="33"/>
+      <c r="FJ4" s="33"/>
+      <c r="FK4" s="33"/>
+      <c r="FL4" s="33"/>
+      <c r="FM4" s="33"/>
+      <c r="FN4" s="33"/>
+      <c r="FO4" s="33"/>
+      <c r="FP4" s="33"/>
+      <c r="FQ4" s="33"/>
+      <c r="FR4" s="33"/>
+      <c r="FS4" s="33"/>
+      <c r="FT4" s="33"/>
+      <c r="FU4" s="33"/>
+      <c r="FV4" s="33"/>
+      <c r="FW4" s="33"/>
+      <c r="FX4" s="33"/>
+      <c r="FY4" s="33"/>
+      <c r="FZ4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="32"/>
-      <c r="GB4" s="32"/>
-      <c r="GC4" s="32"/>
-      <c r="GD4" s="32"/>
-      <c r="GE4" s="32"/>
-      <c r="GF4" s="32"/>
-      <c r="GG4" s="32"/>
-      <c r="GH4" s="32"/>
-      <c r="GI4" s="32"/>
-      <c r="GJ4" s="32"/>
-      <c r="GK4" s="32"/>
-      <c r="GL4" s="32"/>
-      <c r="GM4" s="32"/>
-      <c r="GN4" s="32"/>
-      <c r="GO4" s="32"/>
-      <c r="GP4" s="32"/>
-      <c r="GQ4" s="32"/>
-      <c r="GR4" s="32"/>
-      <c r="GS4" s="32"/>
-      <c r="GT4" s="32"/>
-      <c r="GU4" s="32"/>
-      <c r="GV4" s="32"/>
-      <c r="GW4" s="32"/>
-      <c r="GX4" s="32"/>
-      <c r="GY4" s="32"/>
-      <c r="GZ4" s="32"/>
-      <c r="HA4" s="32"/>
-      <c r="HB4" s="32" t="s">
+      <c r="GA4" s="33"/>
+      <c r="GB4" s="33"/>
+      <c r="GC4" s="33"/>
+      <c r="GD4" s="33"/>
+      <c r="GE4" s="33"/>
+      <c r="GF4" s="33"/>
+      <c r="GG4" s="33"/>
+      <c r="GH4" s="33"/>
+      <c r="GI4" s="33"/>
+      <c r="GJ4" s="33"/>
+      <c r="GK4" s="33"/>
+      <c r="GL4" s="33"/>
+      <c r="GM4" s="33"/>
+      <c r="GN4" s="33"/>
+      <c r="GO4" s="33"/>
+      <c r="GP4" s="33"/>
+      <c r="GQ4" s="33"/>
+      <c r="GR4" s="33"/>
+      <c r="GS4" s="33"/>
+      <c r="GT4" s="33"/>
+      <c r="GU4" s="33"/>
+      <c r="GV4" s="33"/>
+      <c r="GW4" s="33"/>
+      <c r="GX4" s="33"/>
+      <c r="GY4" s="33"/>
+      <c r="GZ4" s="33"/>
+      <c r="HA4" s="33"/>
+      <c r="HB4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="32"/>
-      <c r="HD4" s="32"/>
-      <c r="HE4" s="32"/>
-      <c r="HF4" s="32"/>
-      <c r="HG4" s="32"/>
-      <c r="HH4" s="32"/>
-      <c r="HI4" s="32"/>
-      <c r="HJ4" s="32"/>
-      <c r="HK4" s="32"/>
-      <c r="HL4" s="32"/>
-      <c r="HM4" s="32"/>
-      <c r="HN4" s="32"/>
-      <c r="HO4" s="32"/>
-      <c r="HP4" s="32"/>
-      <c r="HQ4" s="32"/>
-      <c r="HR4" s="32"/>
-      <c r="HS4" s="32"/>
-      <c r="HT4" s="32"/>
-      <c r="HU4" s="32"/>
-      <c r="HV4" s="32"/>
-      <c r="HW4" s="32"/>
-      <c r="HX4" s="32"/>
-      <c r="HY4" s="32"/>
-      <c r="HZ4" s="32"/>
-      <c r="IA4" s="32"/>
-      <c r="IB4" s="32"/>
-      <c r="IC4" s="32"/>
-      <c r="ID4" s="32"/>
-      <c r="IE4" s="32"/>
+      <c r="HC4" s="33"/>
+      <c r="HD4" s="33"/>
+      <c r="HE4" s="33"/>
+      <c r="HF4" s="33"/>
+      <c r="HG4" s="33"/>
+      <c r="HH4" s="33"/>
+      <c r="HI4" s="33"/>
+      <c r="HJ4" s="33"/>
+      <c r="HK4" s="33"/>
+      <c r="HL4" s="33"/>
+      <c r="HM4" s="33"/>
+      <c r="HN4" s="33"/>
+      <c r="HO4" s="33"/>
+      <c r="HP4" s="33"/>
+      <c r="HQ4" s="33"/>
+      <c r="HR4" s="33"/>
+      <c r="HS4" s="33"/>
+      <c r="HT4" s="33"/>
+      <c r="HU4" s="33"/>
+      <c r="HV4" s="33"/>
+      <c r="HW4" s="33"/>
+      <c r="HX4" s="33"/>
+      <c r="HY4" s="33"/>
+      <c r="HZ4" s="33"/>
+      <c r="IA4" s="33"/>
+      <c r="IB4" s="33"/>
+      <c r="IC4" s="33"/>
+      <c r="ID4" s="33"/>
+      <c r="IE4" s="33"/>
       <c r="IF4" s="34"/>
     </row>
     <row r="5" spans="1:240">
@@ -2074,7 +2085,7 @@
       <c r="O6" s="24"/>
       <c r="P6" s="27">
         <f>SUM(J7:P7)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" s="24">
         <v>15</v>
@@ -2577,7 +2588,9 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -2824,21 +2837,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="33" t="s">
+      <c r="EM9" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="33"/>
-      <c r="EO9" s="33"/>
-      <c r="EP9" s="33"/>
-      <c r="EQ9" s="33"/>
-      <c r="ER9" s="33"/>
-      <c r="ES9" s="33"/>
-      <c r="ET9" s="33"/>
-      <c r="EU9" s="33"/>
-      <c r="EV9" s="33"/>
-      <c r="EW9" s="33"/>
-      <c r="EX9" s="33"/>
-      <c r="EY9" s="33"/>
+      <c r="EN9" s="32"/>
+      <c r="EO9" s="32"/>
+      <c r="EP9" s="32"/>
+      <c r="EQ9" s="32"/>
+      <c r="ER9" s="32"/>
+      <c r="ES9" s="32"/>
+      <c r="ET9" s="32"/>
+      <c r="EU9" s="32"/>
+      <c r="EV9" s="32"/>
+      <c r="EW9" s="32"/>
+      <c r="EX9" s="32"/>
+      <c r="EY9" s="32"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2853,21 +2866,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="33" t="s">
+      <c r="EM10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="33"/>
-      <c r="EO10" s="33"/>
-      <c r="EP10" s="33"/>
-      <c r="EQ10" s="33"/>
-      <c r="ER10" s="33"/>
-      <c r="ES10" s="33"/>
-      <c r="ET10" s="33"/>
-      <c r="EU10" s="33"/>
-      <c r="EV10" s="33"/>
-      <c r="EW10" s="33"/>
-      <c r="EX10" s="33"/>
-      <c r="EY10" s="33"/>
+      <c r="EN10" s="32"/>
+      <c r="EO10" s="32"/>
+      <c r="EP10" s="32"/>
+      <c r="EQ10" s="32"/>
+      <c r="ER10" s="32"/>
+      <c r="ES10" s="32"/>
+      <c r="ET10" s="32"/>
+      <c r="EU10" s="32"/>
+      <c r="EV10" s="32"/>
+      <c r="EW10" s="32"/>
+      <c r="EX10" s="32"/>
+      <c r="EY10" s="32"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2881,21 +2894,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="33" t="s">
+      <c r="EM11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="33"/>
-      <c r="EO11" s="33"/>
-      <c r="EP11" s="33"/>
-      <c r="EQ11" s="33"/>
-      <c r="ER11" s="33"/>
-      <c r="ES11" s="33"/>
-      <c r="ET11" s="33"/>
-      <c r="EU11" s="33"/>
-      <c r="EV11" s="33"/>
-      <c r="EW11" s="33"/>
-      <c r="EX11" s="33"/>
-      <c r="EY11" s="33"/>
+      <c r="EN11" s="32"/>
+      <c r="EO11" s="32"/>
+      <c r="EP11" s="32"/>
+      <c r="EQ11" s="32"/>
+      <c r="ER11" s="32"/>
+      <c r="ES11" s="32"/>
+      <c r="ET11" s="32"/>
+      <c r="EU11" s="32"/>
+      <c r="EV11" s="32"/>
+      <c r="EW11" s="32"/>
+      <c r="EX11" s="32"/>
+      <c r="EY11" s="32"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2911,21 +2924,24 @@
       <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="33" t="s">
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="EM12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="33"/>
-      <c r="EO12" s="33"/>
-      <c r="EP12" s="33"/>
-      <c r="EQ12" s="33"/>
-      <c r="ER12" s="33"/>
-      <c r="ES12" s="33"/>
-      <c r="ET12" s="33"/>
-      <c r="EU12" s="33"/>
-      <c r="EV12" s="33"/>
-      <c r="EW12" s="33"/>
-      <c r="EX12" s="33"/>
-      <c r="EY12" s="33"/>
+      <c r="EN12" s="32"/>
+      <c r="EO12" s="32"/>
+      <c r="EP12" s="32"/>
+      <c r="EQ12" s="32"/>
+      <c r="ER12" s="32"/>
+      <c r="ES12" s="32"/>
+      <c r="ET12" s="32"/>
+      <c r="EU12" s="32"/>
+      <c r="EV12" s="32"/>
+      <c r="EW12" s="32"/>
+      <c r="EX12" s="32"/>
+      <c r="EY12" s="32"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2938,39 +2954,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="33" t="s">
+      <c r="EM13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="33"/>
-      <c r="EO13" s="33"/>
-      <c r="EP13" s="33"/>
-      <c r="EQ13" s="33"/>
-      <c r="ER13" s="33"/>
-      <c r="ES13" s="33"/>
-      <c r="ET13" s="33"/>
-      <c r="EU13" s="33"/>
-      <c r="EV13" s="33"/>
-      <c r="EW13" s="33"/>
-      <c r="EX13" s="33"/>
-      <c r="EY13" s="33"/>
+      <c r="EN13" s="32"/>
+      <c r="EO13" s="32"/>
+      <c r="EP13" s="32"/>
+      <c r="EQ13" s="32"/>
+      <c r="ER13" s="32"/>
+      <c r="ES13" s="32"/>
+      <c r="ET13" s="32"/>
+      <c r="EU13" s="32"/>
+      <c r="EV13" s="32"/>
+      <c r="EW13" s="32"/>
+      <c r="EX13" s="32"/>
+      <c r="EY13" s="32"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="33" t="s">
+      <c r="EM14" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="33"/>
-      <c r="EO14" s="33"/>
-      <c r="EP14" s="33"/>
-      <c r="EQ14" s="33"/>
-      <c r="ER14" s="33"/>
-      <c r="ES14" s="33"/>
-      <c r="ET14" s="33"/>
-      <c r="EU14" s="33"/>
-      <c r="EV14" s="33"/>
-      <c r="EW14" s="33"/>
-      <c r="EX14" s="33"/>
-      <c r="EY14" s="33"/>
+      <c r="EN14" s="32"/>
+      <c r="EO14" s="32"/>
+      <c r="EP14" s="32"/>
+      <c r="EQ14" s="32"/>
+      <c r="ER14" s="32"/>
+      <c r="ES14" s="32"/>
+      <c r="ET14" s="32"/>
+      <c r="EU14" s="32"/>
+      <c r="EV14" s="32"/>
+      <c r="EW14" s="32"/>
+      <c r="EX14" s="32"/>
+      <c r="EY14" s="32"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3005,21 +3021,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="33" t="s">
+      <c r="EM15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="33"/>
-      <c r="EO15" s="33"/>
-      <c r="EP15" s="33"/>
-      <c r="EQ15" s="33"/>
-      <c r="ER15" s="33"/>
-      <c r="ES15" s="33"/>
-      <c r="ET15" s="33"/>
-      <c r="EU15" s="33"/>
-      <c r="EV15" s="33"/>
-      <c r="EW15" s="33"/>
-      <c r="EX15" s="33"/>
-      <c r="EY15" s="33"/>
+      <c r="EN15" s="32"/>
+      <c r="EO15" s="32"/>
+      <c r="EP15" s="32"/>
+      <c r="EQ15" s="32"/>
+      <c r="ER15" s="32"/>
+      <c r="ES15" s="32"/>
+      <c r="ET15" s="32"/>
+      <c r="EU15" s="32"/>
+      <c r="EV15" s="32"/>
+      <c r="EW15" s="32"/>
+      <c r="EX15" s="32"/>
+      <c r="EY15" s="32"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3030,39 +3046,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="33" t="s">
+      <c r="EM16" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="33"/>
-      <c r="EO16" s="33"/>
-      <c r="EP16" s="33"/>
-      <c r="EQ16" s="33"/>
-      <c r="ER16" s="33"/>
-      <c r="ES16" s="33"/>
-      <c r="ET16" s="33"/>
-      <c r="EU16" s="33"/>
-      <c r="EV16" s="33"/>
-      <c r="EW16" s="33"/>
-      <c r="EX16" s="33"/>
-      <c r="EY16" s="33"/>
+      <c r="EN16" s="32"/>
+      <c r="EO16" s="32"/>
+      <c r="EP16" s="32"/>
+      <c r="EQ16" s="32"/>
+      <c r="ER16" s="32"/>
+      <c r="ES16" s="32"/>
+      <c r="ET16" s="32"/>
+      <c r="EU16" s="32"/>
+      <c r="EV16" s="32"/>
+      <c r="EW16" s="32"/>
+      <c r="EX16" s="32"/>
+      <c r="EY16" s="32"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="33" t="s">
+      <c r="EM17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="33"/>
-      <c r="EO17" s="33"/>
-      <c r="EP17" s="33"/>
-      <c r="EQ17" s="33"/>
-      <c r="ER17" s="33"/>
-      <c r="ES17" s="33"/>
-      <c r="ET17" s="33"/>
-      <c r="EU17" s="33"/>
-      <c r="EV17" s="33"/>
-      <c r="EW17" s="33"/>
-      <c r="EX17" s="33"/>
-      <c r="EY17" s="33"/>
+      <c r="EN17" s="32"/>
+      <c r="EO17" s="32"/>
+      <c r="EP17" s="32"/>
+      <c r="EQ17" s="32"/>
+      <c r="ER17" s="32"/>
+      <c r="ES17" s="32"/>
+      <c r="ET17" s="32"/>
+      <c r="EU17" s="32"/>
+      <c r="EV17" s="32"/>
+      <c r="EW17" s="32"/>
+      <c r="EX17" s="32"/>
+      <c r="EY17" s="32"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3120,39 +3136,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="33" t="s">
+      <c r="EM18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="33"/>
-      <c r="EO18" s="33"/>
-      <c r="EP18" s="33"/>
-      <c r="EQ18" s="33"/>
-      <c r="ER18" s="33"/>
-      <c r="ES18" s="33"/>
-      <c r="ET18" s="33"/>
-      <c r="EU18" s="33"/>
-      <c r="EV18" s="33"/>
-      <c r="EW18" s="33"/>
-      <c r="EX18" s="33"/>
-      <c r="EY18" s="33"/>
+      <c r="EN18" s="32"/>
+      <c r="EO18" s="32"/>
+      <c r="EP18" s="32"/>
+      <c r="EQ18" s="32"/>
+      <c r="ER18" s="32"/>
+      <c r="ES18" s="32"/>
+      <c r="ET18" s="32"/>
+      <c r="EU18" s="32"/>
+      <c r="EV18" s="32"/>
+      <c r="EW18" s="32"/>
+      <c r="EX18" s="32"/>
+      <c r="EY18" s="32"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="33" t="s">
+      <c r="EM19" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="33"/>
-      <c r="EO19" s="33"/>
-      <c r="EP19" s="33"/>
-      <c r="EQ19" s="33"/>
-      <c r="ER19" s="33"/>
-      <c r="ES19" s="33"/>
-      <c r="ET19" s="33"/>
-      <c r="EU19" s="33"/>
-      <c r="EV19" s="33"/>
-      <c r="EW19" s="33"/>
-      <c r="EX19" s="33"/>
-      <c r="EY19" s="33"/>
+      <c r="EN19" s="32"/>
+      <c r="EO19" s="32"/>
+      <c r="EP19" s="32"/>
+      <c r="EQ19" s="32"/>
+      <c r="ER19" s="32"/>
+      <c r="ES19" s="32"/>
+      <c r="ET19" s="32"/>
+      <c r="EU19" s="32"/>
+      <c r="EV19" s="32"/>
+      <c r="EW19" s="32"/>
+      <c r="EX19" s="32"/>
+      <c r="EY19" s="32"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3301,21 +3317,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="33" t="s">
+      <c r="EM20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="33"/>
-      <c r="EO20" s="33"/>
-      <c r="EP20" s="33"/>
-      <c r="EQ20" s="33"/>
-      <c r="ER20" s="33"/>
-      <c r="ES20" s="33"/>
-      <c r="ET20" s="33"/>
-      <c r="EU20" s="33"/>
-      <c r="EV20" s="33"/>
-      <c r="EW20" s="33"/>
-      <c r="EX20" s="33"/>
-      <c r="EY20" s="33"/>
+      <c r="EN20" s="32"/>
+      <c r="EO20" s="32"/>
+      <c r="EP20" s="32"/>
+      <c r="EQ20" s="32"/>
+      <c r="ER20" s="32"/>
+      <c r="ES20" s="32"/>
+      <c r="ET20" s="32"/>
+      <c r="EU20" s="32"/>
+      <c r="EV20" s="32"/>
+      <c r="EW20" s="32"/>
+      <c r="EX20" s="32"/>
+      <c r="EY20" s="32"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3326,21 +3342,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="33" t="s">
+      <c r="EM21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="33"/>
-      <c r="EO21" s="33"/>
-      <c r="EP21" s="33"/>
-      <c r="EQ21" s="33"/>
-      <c r="ER21" s="33"/>
-      <c r="ES21" s="33"/>
-      <c r="ET21" s="33"/>
-      <c r="EU21" s="33"/>
-      <c r="EV21" s="33"/>
-      <c r="EW21" s="33"/>
-      <c r="EX21" s="33"/>
-      <c r="EY21" s="33"/>
+      <c r="EN21" s="32"/>
+      <c r="EO21" s="32"/>
+      <c r="EP21" s="32"/>
+      <c r="EQ21" s="32"/>
+      <c r="ER21" s="32"/>
+      <c r="ES21" s="32"/>
+      <c r="ET21" s="32"/>
+      <c r="EU21" s="32"/>
+      <c r="EV21" s="32"/>
+      <c r="EW21" s="32"/>
+      <c r="EX21" s="32"/>
+      <c r="EY21" s="32"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3351,21 +3367,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="33" t="s">
+      <c r="EM22" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="33"/>
-      <c r="EO22" s="33"/>
-      <c r="EP22" s="33"/>
-      <c r="EQ22" s="33"/>
-      <c r="ER22" s="33"/>
-      <c r="ES22" s="33"/>
-      <c r="ET22" s="33"/>
-      <c r="EU22" s="33"/>
-      <c r="EV22" s="33"/>
-      <c r="EW22" s="33"/>
-      <c r="EX22" s="33"/>
-      <c r="EY22" s="33"/>
+      <c r="EN22" s="32"/>
+      <c r="EO22" s="32"/>
+      <c r="EP22" s="32"/>
+      <c r="EQ22" s="32"/>
+      <c r="ER22" s="32"/>
+      <c r="ES22" s="32"/>
+      <c r="ET22" s="32"/>
+      <c r="EU22" s="32"/>
+      <c r="EV22" s="32"/>
+      <c r="EW22" s="32"/>
+      <c r="EX22" s="32"/>
+      <c r="EY22" s="32"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3376,39 +3392,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="33" t="s">
+      <c r="EM23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="33"/>
-      <c r="EO23" s="33"/>
-      <c r="EP23" s="33"/>
-      <c r="EQ23" s="33"/>
-      <c r="ER23" s="33"/>
-      <c r="ES23" s="33"/>
-      <c r="ET23" s="33"/>
-      <c r="EU23" s="33"/>
-      <c r="EV23" s="33"/>
-      <c r="EW23" s="33"/>
-      <c r="EX23" s="33"/>
-      <c r="EY23" s="33"/>
+      <c r="EN23" s="32"/>
+      <c r="EO23" s="32"/>
+      <c r="EP23" s="32"/>
+      <c r="EQ23" s="32"/>
+      <c r="ER23" s="32"/>
+      <c r="ES23" s="32"/>
+      <c r="ET23" s="32"/>
+      <c r="EU23" s="32"/>
+      <c r="EV23" s="32"/>
+      <c r="EW23" s="32"/>
+      <c r="EX23" s="32"/>
+      <c r="EY23" s="32"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="33" t="s">
+      <c r="EM24" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="33"/>
-      <c r="EO24" s="33"/>
-      <c r="EP24" s="33"/>
-      <c r="EQ24" s="33"/>
-      <c r="ER24" s="33"/>
-      <c r="ES24" s="33"/>
-      <c r="ET24" s="33"/>
-      <c r="EU24" s="33"/>
-      <c r="EV24" s="33"/>
-      <c r="EW24" s="33"/>
-      <c r="EX24" s="33"/>
-      <c r="EY24" s="33"/>
+      <c r="EN24" s="32"/>
+      <c r="EO24" s="32"/>
+      <c r="EP24" s="32"/>
+      <c r="EQ24" s="32"/>
+      <c r="ER24" s="32"/>
+      <c r="ES24" s="32"/>
+      <c r="ET24" s="32"/>
+      <c r="EU24" s="32"/>
+      <c r="EV24" s="32"/>
+      <c r="EW24" s="32"/>
+      <c r="EX24" s="32"/>
+      <c r="EY24" s="32"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3557,21 +3573,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="33" t="s">
+      <c r="EM25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="33"/>
-      <c r="EO25" s="33"/>
-      <c r="EP25" s="33"/>
-      <c r="EQ25" s="33"/>
-      <c r="ER25" s="33"/>
-      <c r="ES25" s="33"/>
-      <c r="ET25" s="33"/>
-      <c r="EU25" s="33"/>
-      <c r="EV25" s="33"/>
-      <c r="EW25" s="33"/>
-      <c r="EX25" s="33"/>
-      <c r="EY25" s="33"/>
+      <c r="EN25" s="32"/>
+      <c r="EO25" s="32"/>
+      <c r="EP25" s="32"/>
+      <c r="EQ25" s="32"/>
+      <c r="ER25" s="32"/>
+      <c r="ES25" s="32"/>
+      <c r="ET25" s="32"/>
+      <c r="EU25" s="32"/>
+      <c r="EV25" s="32"/>
+      <c r="EW25" s="32"/>
+      <c r="EX25" s="32"/>
+      <c r="EY25" s="32"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3608,40 +3624,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="33" t="s">
+      <c r="EM26" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="33"/>
-      <c r="EO26" s="33"/>
-      <c r="EP26" s="33"/>
-      <c r="EQ26" s="33"/>
-      <c r="ER26" s="33"/>
-      <c r="ES26" s="33"/>
-      <c r="ET26" s="33"/>
-      <c r="EU26" s="33"/>
-      <c r="EV26" s="33"/>
-      <c r="EW26" s="33"/>
-      <c r="EX26" s="33"/>
-      <c r="EY26" s="33"/>
+      <c r="EN26" s="32"/>
+      <c r="EO26" s="32"/>
+      <c r="EP26" s="32"/>
+      <c r="EQ26" s="32"/>
+      <c r="ER26" s="32"/>
+      <c r="ES26" s="32"/>
+      <c r="ET26" s="32"/>
+      <c r="EU26" s="32"/>
+      <c r="EV26" s="32"/>
+      <c r="EW26" s="32"/>
+      <c r="EX26" s="32"/>
+      <c r="EY26" s="32"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="33" t="s">
+      <c r="EM27" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="33"/>
-      <c r="EO27" s="33"/>
-      <c r="EP27" s="33"/>
-      <c r="EQ27" s="33"/>
-      <c r="ER27" s="33"/>
-      <c r="ES27" s="33"/>
-      <c r="ET27" s="33"/>
-      <c r="EU27" s="33"/>
-      <c r="EV27" s="33"/>
-      <c r="EW27" s="33"/>
-      <c r="EX27" s="33"/>
-      <c r="EY27" s="33"/>
+      <c r="EN27" s="32"/>
+      <c r="EO27" s="32"/>
+      <c r="EP27" s="32"/>
+      <c r="EQ27" s="32"/>
+      <c r="ER27" s="32"/>
+      <c r="ES27" s="32"/>
+      <c r="ET27" s="32"/>
+      <c r="EU27" s="32"/>
+      <c r="EV27" s="32"/>
+      <c r="EW27" s="32"/>
+      <c r="EX27" s="32"/>
+      <c r="EY27" s="32"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3790,21 +3806,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="33" t="s">
+      <c r="EM28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="33"/>
-      <c r="EO28" s="33"/>
-      <c r="EP28" s="33"/>
-      <c r="EQ28" s="33"/>
-      <c r="ER28" s="33"/>
-      <c r="ES28" s="33"/>
-      <c r="ET28" s="33"/>
-      <c r="EU28" s="33"/>
-      <c r="EV28" s="33"/>
-      <c r="EW28" s="33"/>
-      <c r="EX28" s="33"/>
-      <c r="EY28" s="33"/>
+      <c r="EN28" s="32"/>
+      <c r="EO28" s="32"/>
+      <c r="EP28" s="32"/>
+      <c r="EQ28" s="32"/>
+      <c r="ER28" s="32"/>
+      <c r="ES28" s="32"/>
+      <c r="ET28" s="32"/>
+      <c r="EU28" s="32"/>
+      <c r="EV28" s="32"/>
+      <c r="EW28" s="32"/>
+      <c r="EX28" s="32"/>
+      <c r="EY28" s="32"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3878,21 +3894,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="33" t="s">
+      <c r="EM29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="33"/>
-      <c r="EO29" s="33"/>
-      <c r="EP29" s="33"/>
-      <c r="EQ29" s="33"/>
-      <c r="ER29" s="33"/>
-      <c r="ES29" s="33"/>
-      <c r="ET29" s="33"/>
-      <c r="EU29" s="33"/>
-      <c r="EV29" s="33"/>
-      <c r="EW29" s="33"/>
-      <c r="EX29" s="33"/>
-      <c r="EY29" s="33"/>
+      <c r="EN29" s="32"/>
+      <c r="EO29" s="32"/>
+      <c r="EP29" s="32"/>
+      <c r="EQ29" s="32"/>
+      <c r="ER29" s="32"/>
+      <c r="ES29" s="32"/>
+      <c r="ET29" s="32"/>
+      <c r="EU29" s="32"/>
+      <c r="EV29" s="32"/>
+      <c r="EW29" s="32"/>
+      <c r="EX29" s="32"/>
+      <c r="EY29" s="32"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4041,21 +4057,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="33" t="s">
+      <c r="EM30" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="33"/>
-      <c r="EO30" s="33"/>
-      <c r="EP30" s="33"/>
-      <c r="EQ30" s="33"/>
-      <c r="ER30" s="33"/>
-      <c r="ES30" s="33"/>
-      <c r="ET30" s="33"/>
-      <c r="EU30" s="33"/>
-      <c r="EV30" s="33"/>
-      <c r="EW30" s="33"/>
-      <c r="EX30" s="33"/>
-      <c r="EY30" s="33"/>
+      <c r="EN30" s="32"/>
+      <c r="EO30" s="32"/>
+      <c r="EP30" s="32"/>
+      <c r="EQ30" s="32"/>
+      <c r="ER30" s="32"/>
+      <c r="ES30" s="32"/>
+      <c r="ET30" s="32"/>
+      <c r="EU30" s="32"/>
+      <c r="EV30" s="32"/>
+      <c r="EW30" s="32"/>
+      <c r="EX30" s="32"/>
+      <c r="EY30" s="32"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4143,109 +4159,103 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="33" t="s">
+      <c r="EM31" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="33"/>
-      <c r="EO31" s="33"/>
-      <c r="EP31" s="33"/>
-      <c r="EQ31" s="33"/>
-      <c r="ER31" s="33"/>
-      <c r="ES31" s="33"/>
-      <c r="ET31" s="33"/>
-      <c r="EU31" s="33"/>
-      <c r="EV31" s="33"/>
-      <c r="EW31" s="33"/>
-      <c r="EX31" s="33"/>
-      <c r="EY31" s="33"/>
+      <c r="EN31" s="32"/>
+      <c r="EO31" s="32"/>
+      <c r="EP31" s="32"/>
+      <c r="EQ31" s="32"/>
+      <c r="ER31" s="32"/>
+      <c r="ES31" s="32"/>
+      <c r="ET31" s="32"/>
+      <c r="EU31" s="32"/>
+      <c r="EV31" s="32"/>
+      <c r="EW31" s="32"/>
+      <c r="EX31" s="32"/>
+      <c r="EY31" s="32"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="33" t="s">
+      <c r="EM32" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="33"/>
-      <c r="EO32" s="33"/>
-      <c r="EP32" s="33"/>
-      <c r="EQ32" s="33"/>
-      <c r="ER32" s="33"/>
-      <c r="ES32" s="33"/>
-      <c r="ET32" s="33"/>
-      <c r="EU32" s="33"/>
-      <c r="EV32" s="33"/>
-      <c r="EW32" s="33"/>
-      <c r="EX32" s="33"/>
-      <c r="EY32" s="33"/>
+      <c r="EN32" s="32"/>
+      <c r="EO32" s="32"/>
+      <c r="EP32" s="32"/>
+      <c r="EQ32" s="32"/>
+      <c r="ER32" s="32"/>
+      <c r="ES32" s="32"/>
+      <c r="ET32" s="32"/>
+      <c r="EU32" s="32"/>
+      <c r="EV32" s="32"/>
+      <c r="EW32" s="32"/>
+      <c r="EX32" s="32"/>
+      <c r="EY32" s="32"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="33" t="s">
+      <c r="EM33" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="33"/>
-      <c r="EO33" s="33"/>
-      <c r="EP33" s="33"/>
-      <c r="EQ33" s="33"/>
-      <c r="ER33" s="33"/>
-      <c r="ES33" s="33"/>
-      <c r="ET33" s="33"/>
-      <c r="EU33" s="33"/>
-      <c r="EV33" s="33"/>
-      <c r="EW33" s="33"/>
-      <c r="EX33" s="33"/>
-      <c r="EY33" s="33"/>
+      <c r="EN33" s="32"/>
+      <c r="EO33" s="32"/>
+      <c r="EP33" s="32"/>
+      <c r="EQ33" s="32"/>
+      <c r="ER33" s="32"/>
+      <c r="ES33" s="32"/>
+      <c r="ET33" s="32"/>
+      <c r="EU33" s="32"/>
+      <c r="EV33" s="32"/>
+      <c r="EW33" s="32"/>
+      <c r="EX33" s="32"/>
+      <c r="EY33" s="32"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="33" t="s">
+      <c r="EM34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="33"/>
-      <c r="EO34" s="33"/>
-      <c r="EP34" s="33"/>
-      <c r="EQ34" s="33"/>
-      <c r="ER34" s="33"/>
-      <c r="ES34" s="33"/>
-      <c r="ET34" s="33"/>
-      <c r="EU34" s="33"/>
-      <c r="EV34" s="33"/>
-      <c r="EW34" s="33"/>
-      <c r="EX34" s="33"/>
-      <c r="EY34" s="33"/>
+      <c r="EN34" s="32"/>
+      <c r="EO34" s="32"/>
+      <c r="EP34" s="32"/>
+      <c r="EQ34" s="32"/>
+      <c r="ER34" s="32"/>
+      <c r="ES34" s="32"/>
+      <c r="ET34" s="32"/>
+      <c r="EU34" s="32"/>
+      <c r="EV34" s="32"/>
+      <c r="EW34" s="32"/>
+      <c r="EX34" s="32"/>
+      <c r="EY34" s="32"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="33" t="s">
+      <c r="EM35" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="33"/>
-      <c r="EO35" s="33"/>
-      <c r="EP35" s="33"/>
-      <c r="EQ35" s="33"/>
-      <c r="ER35" s="33"/>
-      <c r="ES35" s="33"/>
-      <c r="ET35" s="33"/>
-      <c r="EU35" s="33"/>
-      <c r="EV35" s="33"/>
-      <c r="EW35" s="33"/>
-      <c r="EX35" s="33"/>
-      <c r="EY35" s="33"/>
+      <c r="EN35" s="32"/>
+      <c r="EO35" s="32"/>
+      <c r="EP35" s="32"/>
+      <c r="EQ35" s="32"/>
+      <c r="ER35" s="32"/>
+      <c r="ES35" s="32"/>
+      <c r="ET35" s="32"/>
+      <c r="EU35" s="32"/>
+      <c r="EV35" s="32"/>
+      <c r="EW35" s="32"/>
+      <c r="EX35" s="32"/>
+      <c r="EY35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4259,17 +4269,23 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Mailat och lärt mig GIT</t>
+  </si>
+  <si>
+    <t>Repeterat GLM (Kursboken)</t>
+  </si>
+  <si>
+    <t>Forts rep + läst 2 relevanta tidigare X-jobb (2006-15 , 2004-15)</t>
   </si>
 </sst>
 </file>
@@ -391,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,23 +430,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +756,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +772,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -782,7 +791,7 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -843,13 +852,31 @@
       </c>
     </row>
     <row r="8" spans="2:5">
+      <c r="B8" s="2">
+        <v>41141</v>
+      </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>41142</v>
+      </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -912,7 +939,7 @@
   <dimension ref="A1:IF35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,33 +1046,33 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="S1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="33">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
@@ -1063,20 +1090,20 @@
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33">
         <f>SUM(C7:IF7)</f>
-        <v>3</v>
-      </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1085,260 +1112,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="33"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="33"/>
-      <c r="BG4" s="33" t="s">
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="33"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="33"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="33"/>
-      <c r="BU4" s="33"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="33"/>
-      <c r="CA4" s="33"/>
-      <c r="CB4" s="33"/>
-      <c r="CC4" s="33"/>
-      <c r="CD4" s="33"/>
-      <c r="CE4" s="33"/>
-      <c r="CF4" s="33"/>
-      <c r="CG4" s="33"/>
-      <c r="CH4" s="33"/>
-      <c r="CI4" s="33"/>
-      <c r="CJ4" s="33"/>
-      <c r="CK4" s="33"/>
-      <c r="CL4" s="33" t="s">
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="33"/>
-      <c r="CN4" s="33"/>
-      <c r="CO4" s="33"/>
-      <c r="CP4" s="33"/>
-      <c r="CQ4" s="33"/>
-      <c r="CR4" s="33"/>
-      <c r="CS4" s="33"/>
-      <c r="CT4" s="33"/>
-      <c r="CU4" s="33"/>
-      <c r="CV4" s="33"/>
-      <c r="CW4" s="33"/>
-      <c r="CX4" s="33"/>
-      <c r="CY4" s="33"/>
-      <c r="CZ4" s="33"/>
-      <c r="DA4" s="33"/>
-      <c r="DB4" s="33"/>
-      <c r="DC4" s="33"/>
-      <c r="DD4" s="33"/>
-      <c r="DE4" s="33"/>
-      <c r="DF4" s="33"/>
-      <c r="DG4" s="33"/>
-      <c r="DH4" s="33"/>
-      <c r="DI4" s="33"/>
-      <c r="DJ4" s="33"/>
-      <c r="DK4" s="33"/>
-      <c r="DL4" s="33"/>
-      <c r="DM4" s="33"/>
-      <c r="DN4" s="33"/>
-      <c r="DO4" s="33"/>
-      <c r="DP4" s="33" t="s">
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="33"/>
-      <c r="DR4" s="33"/>
-      <c r="DS4" s="33"/>
-      <c r="DT4" s="33"/>
-      <c r="DU4" s="33"/>
-      <c r="DV4" s="33"/>
-      <c r="DW4" s="33"/>
-      <c r="DX4" s="33"/>
-      <c r="DY4" s="33"/>
-      <c r="DZ4" s="33"/>
-      <c r="EA4" s="33"/>
-      <c r="EB4" s="33"/>
-      <c r="EC4" s="33"/>
-      <c r="ED4" s="33"/>
-      <c r="EE4" s="33"/>
-      <c r="EF4" s="33"/>
-      <c r="EG4" s="33"/>
-      <c r="EH4" s="33"/>
-      <c r="EI4" s="33"/>
-      <c r="EJ4" s="33"/>
-      <c r="EK4" s="33"/>
-      <c r="EL4" s="33"/>
-      <c r="EM4" s="33"/>
-      <c r="EN4" s="33"/>
-      <c r="EO4" s="33"/>
-      <c r="EP4" s="33"/>
-      <c r="EQ4" s="33"/>
-      <c r="ER4" s="33"/>
-      <c r="ES4" s="33"/>
-      <c r="ET4" s="33"/>
-      <c r="EU4" s="33" t="s">
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35"/>
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35"/>
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35"/>
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="33"/>
-      <c r="EW4" s="33"/>
-      <c r="EX4" s="33"/>
-      <c r="EY4" s="33"/>
-      <c r="EZ4" s="33"/>
-      <c r="FA4" s="33"/>
-      <c r="FB4" s="33"/>
-      <c r="FC4" s="33"/>
-      <c r="FD4" s="33"/>
-      <c r="FE4" s="33"/>
-      <c r="FF4" s="33"/>
-      <c r="FG4" s="33"/>
-      <c r="FH4" s="33"/>
-      <c r="FI4" s="33"/>
-      <c r="FJ4" s="33"/>
-      <c r="FK4" s="33"/>
-      <c r="FL4" s="33"/>
-      <c r="FM4" s="33"/>
-      <c r="FN4" s="33"/>
-      <c r="FO4" s="33"/>
-      <c r="FP4" s="33"/>
-      <c r="FQ4" s="33"/>
-      <c r="FR4" s="33"/>
-      <c r="FS4" s="33"/>
-      <c r="FT4" s="33"/>
-      <c r="FU4" s="33"/>
-      <c r="FV4" s="33"/>
-      <c r="FW4" s="33"/>
-      <c r="FX4" s="33"/>
-      <c r="FY4" s="33"/>
-      <c r="FZ4" s="33" t="s">
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35"/>
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35"/>
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="33"/>
-      <c r="GB4" s="33"/>
-      <c r="GC4" s="33"/>
-      <c r="GD4" s="33"/>
-      <c r="GE4" s="33"/>
-      <c r="GF4" s="33"/>
-      <c r="GG4" s="33"/>
-      <c r="GH4" s="33"/>
-      <c r="GI4" s="33"/>
-      <c r="GJ4" s="33"/>
-      <c r="GK4" s="33"/>
-      <c r="GL4" s="33"/>
-      <c r="GM4" s="33"/>
-      <c r="GN4" s="33"/>
-      <c r="GO4" s="33"/>
-      <c r="GP4" s="33"/>
-      <c r="GQ4" s="33"/>
-      <c r="GR4" s="33"/>
-      <c r="GS4" s="33"/>
-      <c r="GT4" s="33"/>
-      <c r="GU4" s="33"/>
-      <c r="GV4" s="33"/>
-      <c r="GW4" s="33"/>
-      <c r="GX4" s="33"/>
-      <c r="GY4" s="33"/>
-      <c r="GZ4" s="33"/>
-      <c r="HA4" s="33"/>
-      <c r="HB4" s="33" t="s">
+      <c r="GA4" s="35"/>
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35"/>
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35"/>
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="33"/>
-      <c r="HD4" s="33"/>
-      <c r="HE4" s="33"/>
-      <c r="HF4" s="33"/>
-      <c r="HG4" s="33"/>
-      <c r="HH4" s="33"/>
-      <c r="HI4" s="33"/>
-      <c r="HJ4" s="33"/>
-      <c r="HK4" s="33"/>
-      <c r="HL4" s="33"/>
-      <c r="HM4" s="33"/>
-      <c r="HN4" s="33"/>
-      <c r="HO4" s="33"/>
-      <c r="HP4" s="33"/>
-      <c r="HQ4" s="33"/>
-      <c r="HR4" s="33"/>
-      <c r="HS4" s="33"/>
-      <c r="HT4" s="33"/>
-      <c r="HU4" s="33"/>
-      <c r="HV4" s="33"/>
-      <c r="HW4" s="33"/>
-      <c r="HX4" s="33"/>
-      <c r="HY4" s="33"/>
-      <c r="HZ4" s="33"/>
-      <c r="IA4" s="33"/>
-      <c r="IB4" s="33"/>
-      <c r="IC4" s="33"/>
-      <c r="ID4" s="33"/>
-      <c r="IE4" s="33"/>
-      <c r="IF4" s="34"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35"/>
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35"/>
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="37"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2100,7 +2127,7 @@
       <c r="V6" s="24"/>
       <c r="W6" s="27">
         <f>SUM(Q7:W7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X6" s="24">
         <v>12</v>
@@ -2592,8 +2619,12 @@
         <v>1</v>
       </c>
       <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="Q7" s="21">
+        <v>3</v>
+      </c>
+      <c r="R7" s="21">
+        <v>3</v>
+      </c>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -2837,21 +2868,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="32" t="s">
+      <c r="EM9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="32"/>
-      <c r="EO9" s="32"/>
-      <c r="EP9" s="32"/>
-      <c r="EQ9" s="32"/>
-      <c r="ER9" s="32"/>
-      <c r="ES9" s="32"/>
-      <c r="ET9" s="32"/>
-      <c r="EU9" s="32"/>
-      <c r="EV9" s="32"/>
-      <c r="EW9" s="32"/>
-      <c r="EX9" s="32"/>
-      <c r="EY9" s="32"/>
+      <c r="EN9" s="36"/>
+      <c r="EO9" s="36"/>
+      <c r="EP9" s="36"/>
+      <c r="EQ9" s="36"/>
+      <c r="ER9" s="36"/>
+      <c r="ES9" s="36"/>
+      <c r="ET9" s="36"/>
+      <c r="EU9" s="36"/>
+      <c r="EV9" s="36"/>
+      <c r="EW9" s="36"/>
+      <c r="EX9" s="36"/>
+      <c r="EY9" s="36"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2866,21 +2897,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="32" t="s">
+      <c r="EM10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="32"/>
-      <c r="EO10" s="32"/>
-      <c r="EP10" s="32"/>
-      <c r="EQ10" s="32"/>
-      <c r="ER10" s="32"/>
-      <c r="ES10" s="32"/>
-      <c r="ET10" s="32"/>
-      <c r="EU10" s="32"/>
-      <c r="EV10" s="32"/>
-      <c r="EW10" s="32"/>
-      <c r="EX10" s="32"/>
-      <c r="EY10" s="32"/>
+      <c r="EN10" s="36"/>
+      <c r="EO10" s="36"/>
+      <c r="EP10" s="36"/>
+      <c r="EQ10" s="36"/>
+      <c r="ER10" s="36"/>
+      <c r="ES10" s="36"/>
+      <c r="ET10" s="36"/>
+      <c r="EU10" s="36"/>
+      <c r="EV10" s="36"/>
+      <c r="EW10" s="36"/>
+      <c r="EX10" s="36"/>
+      <c r="EY10" s="36"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2894,21 +2925,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="32" t="s">
+      <c r="EM11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="32"/>
-      <c r="EO11" s="32"/>
-      <c r="EP11" s="32"/>
-      <c r="EQ11" s="32"/>
-      <c r="ER11" s="32"/>
-      <c r="ES11" s="32"/>
-      <c r="ET11" s="32"/>
-      <c r="EU11" s="32"/>
-      <c r="EV11" s="32"/>
-      <c r="EW11" s="32"/>
-      <c r="EX11" s="32"/>
-      <c r="EY11" s="32"/>
+      <c r="EN11" s="36"/>
+      <c r="EO11" s="36"/>
+      <c r="EP11" s="36"/>
+      <c r="EQ11" s="36"/>
+      <c r="ER11" s="36"/>
+      <c r="ES11" s="36"/>
+      <c r="ET11" s="36"/>
+      <c r="EU11" s="36"/>
+      <c r="EV11" s="36"/>
+      <c r="EW11" s="36"/>
+      <c r="EX11" s="36"/>
+      <c r="EY11" s="36"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2927,21 +2958,21 @@
       <c r="O12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="32" t="s">
+      <c r="EM12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="32"/>
-      <c r="EO12" s="32"/>
-      <c r="EP12" s="32"/>
-      <c r="EQ12" s="32"/>
-      <c r="ER12" s="32"/>
-      <c r="ES12" s="32"/>
-      <c r="ET12" s="32"/>
-      <c r="EU12" s="32"/>
-      <c r="EV12" s="32"/>
-      <c r="EW12" s="32"/>
-      <c r="EX12" s="32"/>
-      <c r="EY12" s="32"/>
+      <c r="EN12" s="36"/>
+      <c r="EO12" s="36"/>
+      <c r="EP12" s="36"/>
+      <c r="EQ12" s="36"/>
+      <c r="ER12" s="36"/>
+      <c r="ES12" s="36"/>
+      <c r="ET12" s="36"/>
+      <c r="EU12" s="36"/>
+      <c r="EV12" s="36"/>
+      <c r="EW12" s="36"/>
+      <c r="EX12" s="36"/>
+      <c r="EY12" s="36"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2954,39 +2985,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="32" t="s">
+      <c r="EM13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="32"/>
-      <c r="EO13" s="32"/>
-      <c r="EP13" s="32"/>
-      <c r="EQ13" s="32"/>
-      <c r="ER13" s="32"/>
-      <c r="ES13" s="32"/>
-      <c r="ET13" s="32"/>
-      <c r="EU13" s="32"/>
-      <c r="EV13" s="32"/>
-      <c r="EW13" s="32"/>
-      <c r="EX13" s="32"/>
-      <c r="EY13" s="32"/>
+      <c r="EN13" s="36"/>
+      <c r="EO13" s="36"/>
+      <c r="EP13" s="36"/>
+      <c r="EQ13" s="36"/>
+      <c r="ER13" s="36"/>
+      <c r="ES13" s="36"/>
+      <c r="ET13" s="36"/>
+      <c r="EU13" s="36"/>
+      <c r="EV13" s="36"/>
+      <c r="EW13" s="36"/>
+      <c r="EX13" s="36"/>
+      <c r="EY13" s="36"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="32" t="s">
+      <c r="EM14" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="32"/>
-      <c r="EO14" s="32"/>
-      <c r="EP14" s="32"/>
-      <c r="EQ14" s="32"/>
-      <c r="ER14" s="32"/>
-      <c r="ES14" s="32"/>
-      <c r="ET14" s="32"/>
-      <c r="EU14" s="32"/>
-      <c r="EV14" s="32"/>
-      <c r="EW14" s="32"/>
-      <c r="EX14" s="32"/>
-      <c r="EY14" s="32"/>
+      <c r="EN14" s="36"/>
+      <c r="EO14" s="36"/>
+      <c r="EP14" s="36"/>
+      <c r="EQ14" s="36"/>
+      <c r="ER14" s="36"/>
+      <c r="ES14" s="36"/>
+      <c r="ET14" s="36"/>
+      <c r="EU14" s="36"/>
+      <c r="EV14" s="36"/>
+      <c r="EW14" s="36"/>
+      <c r="EX14" s="36"/>
+      <c r="EY14" s="36"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3021,21 +3052,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="32" t="s">
+      <c r="EM15" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="32"/>
-      <c r="EO15" s="32"/>
-      <c r="EP15" s="32"/>
-      <c r="EQ15" s="32"/>
-      <c r="ER15" s="32"/>
-      <c r="ES15" s="32"/>
-      <c r="ET15" s="32"/>
-      <c r="EU15" s="32"/>
-      <c r="EV15" s="32"/>
-      <c r="EW15" s="32"/>
-      <c r="EX15" s="32"/>
-      <c r="EY15" s="32"/>
+      <c r="EN15" s="36"/>
+      <c r="EO15" s="36"/>
+      <c r="EP15" s="36"/>
+      <c r="EQ15" s="36"/>
+      <c r="ER15" s="36"/>
+      <c r="ES15" s="36"/>
+      <c r="ET15" s="36"/>
+      <c r="EU15" s="36"/>
+      <c r="EV15" s="36"/>
+      <c r="EW15" s="36"/>
+      <c r="EX15" s="36"/>
+      <c r="EY15" s="36"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3046,39 +3077,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="32" t="s">
+      <c r="EM16" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="32"/>
-      <c r="EO16" s="32"/>
-      <c r="EP16" s="32"/>
-      <c r="EQ16" s="32"/>
-      <c r="ER16" s="32"/>
-      <c r="ES16" s="32"/>
-      <c r="ET16" s="32"/>
-      <c r="EU16" s="32"/>
-      <c r="EV16" s="32"/>
-      <c r="EW16" s="32"/>
-      <c r="EX16" s="32"/>
-      <c r="EY16" s="32"/>
+      <c r="EN16" s="36"/>
+      <c r="EO16" s="36"/>
+      <c r="EP16" s="36"/>
+      <c r="EQ16" s="36"/>
+      <c r="ER16" s="36"/>
+      <c r="ES16" s="36"/>
+      <c r="ET16" s="36"/>
+      <c r="EU16" s="36"/>
+      <c r="EV16" s="36"/>
+      <c r="EW16" s="36"/>
+      <c r="EX16" s="36"/>
+      <c r="EY16" s="36"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="32" t="s">
+      <c r="EM17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="32"/>
-      <c r="EO17" s="32"/>
-      <c r="EP17" s="32"/>
-      <c r="EQ17" s="32"/>
-      <c r="ER17" s="32"/>
-      <c r="ES17" s="32"/>
-      <c r="ET17" s="32"/>
-      <c r="EU17" s="32"/>
-      <c r="EV17" s="32"/>
-      <c r="EW17" s="32"/>
-      <c r="EX17" s="32"/>
-      <c r="EY17" s="32"/>
+      <c r="EN17" s="36"/>
+      <c r="EO17" s="36"/>
+      <c r="EP17" s="36"/>
+      <c r="EQ17" s="36"/>
+      <c r="ER17" s="36"/>
+      <c r="ES17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="36"/>
+      <c r="EV17" s="36"/>
+      <c r="EW17" s="36"/>
+      <c r="EX17" s="36"/>
+      <c r="EY17" s="36"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3101,8 +3132,12 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -3136,39 +3171,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="32" t="s">
+      <c r="EM18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="32"/>
-      <c r="EO18" s="32"/>
-      <c r="EP18" s="32"/>
-      <c r="EQ18" s="32"/>
-      <c r="ER18" s="32"/>
-      <c r="ES18" s="32"/>
-      <c r="ET18" s="32"/>
-      <c r="EU18" s="32"/>
-      <c r="EV18" s="32"/>
-      <c r="EW18" s="32"/>
-      <c r="EX18" s="32"/>
-      <c r="EY18" s="32"/>
+      <c r="EN18" s="36"/>
+      <c r="EO18" s="36"/>
+      <c r="EP18" s="36"/>
+      <c r="EQ18" s="36"/>
+      <c r="ER18" s="36"/>
+      <c r="ES18" s="36"/>
+      <c r="ET18" s="36"/>
+      <c r="EU18" s="36"/>
+      <c r="EV18" s="36"/>
+      <c r="EW18" s="36"/>
+      <c r="EX18" s="36"/>
+      <c r="EY18" s="36"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="32" t="s">
+      <c r="EM19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="32"/>
-      <c r="EO19" s="32"/>
-      <c r="EP19" s="32"/>
-      <c r="EQ19" s="32"/>
-      <c r="ER19" s="32"/>
-      <c r="ES19" s="32"/>
-      <c r="ET19" s="32"/>
-      <c r="EU19" s="32"/>
-      <c r="EV19" s="32"/>
-      <c r="EW19" s="32"/>
-      <c r="EX19" s="32"/>
-      <c r="EY19" s="32"/>
+      <c r="EN19" s="36"/>
+      <c r="EO19" s="36"/>
+      <c r="EP19" s="36"/>
+      <c r="EQ19" s="36"/>
+      <c r="ER19" s="36"/>
+      <c r="ES19" s="36"/>
+      <c r="ET19" s="36"/>
+      <c r="EU19" s="36"/>
+      <c r="EV19" s="36"/>
+      <c r="EW19" s="36"/>
+      <c r="EX19" s="36"/>
+      <c r="EY19" s="36"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3317,21 +3352,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="32" t="s">
+      <c r="EM20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="32"/>
-      <c r="EO20" s="32"/>
-      <c r="EP20" s="32"/>
-      <c r="EQ20" s="32"/>
-      <c r="ER20" s="32"/>
-      <c r="ES20" s="32"/>
-      <c r="ET20" s="32"/>
-      <c r="EU20" s="32"/>
-      <c r="EV20" s="32"/>
-      <c r="EW20" s="32"/>
-      <c r="EX20" s="32"/>
-      <c r="EY20" s="32"/>
+      <c r="EN20" s="36"/>
+      <c r="EO20" s="36"/>
+      <c r="EP20" s="36"/>
+      <c r="EQ20" s="36"/>
+      <c r="ER20" s="36"/>
+      <c r="ES20" s="36"/>
+      <c r="ET20" s="36"/>
+      <c r="EU20" s="36"/>
+      <c r="EV20" s="36"/>
+      <c r="EW20" s="36"/>
+      <c r="EX20" s="36"/>
+      <c r="EY20" s="36"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3342,21 +3377,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="32" t="s">
+      <c r="EM21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="32"/>
-      <c r="EO21" s="32"/>
-      <c r="EP21" s="32"/>
-      <c r="EQ21" s="32"/>
-      <c r="ER21" s="32"/>
-      <c r="ES21" s="32"/>
-      <c r="ET21" s="32"/>
-      <c r="EU21" s="32"/>
-      <c r="EV21" s="32"/>
-      <c r="EW21" s="32"/>
-      <c r="EX21" s="32"/>
-      <c r="EY21" s="32"/>
+      <c r="EN21" s="36"/>
+      <c r="EO21" s="36"/>
+      <c r="EP21" s="36"/>
+      <c r="EQ21" s="36"/>
+      <c r="ER21" s="36"/>
+      <c r="ES21" s="36"/>
+      <c r="ET21" s="36"/>
+      <c r="EU21" s="36"/>
+      <c r="EV21" s="36"/>
+      <c r="EW21" s="36"/>
+      <c r="EX21" s="36"/>
+      <c r="EY21" s="36"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3367,21 +3402,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="32" t="s">
+      <c r="EM22" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="32"/>
-      <c r="EO22" s="32"/>
-      <c r="EP22" s="32"/>
-      <c r="EQ22" s="32"/>
-      <c r="ER22" s="32"/>
-      <c r="ES22" s="32"/>
-      <c r="ET22" s="32"/>
-      <c r="EU22" s="32"/>
-      <c r="EV22" s="32"/>
-      <c r="EW22" s="32"/>
-      <c r="EX22" s="32"/>
-      <c r="EY22" s="32"/>
+      <c r="EN22" s="36"/>
+      <c r="EO22" s="36"/>
+      <c r="EP22" s="36"/>
+      <c r="EQ22" s="36"/>
+      <c r="ER22" s="36"/>
+      <c r="ES22" s="36"/>
+      <c r="ET22" s="36"/>
+      <c r="EU22" s="36"/>
+      <c r="EV22" s="36"/>
+      <c r="EW22" s="36"/>
+      <c r="EX22" s="36"/>
+      <c r="EY22" s="36"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3392,39 +3427,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="32" t="s">
+      <c r="EM23" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="32"/>
-      <c r="EO23" s="32"/>
-      <c r="EP23" s="32"/>
-      <c r="EQ23" s="32"/>
-      <c r="ER23" s="32"/>
-      <c r="ES23" s="32"/>
-      <c r="ET23" s="32"/>
-      <c r="EU23" s="32"/>
-      <c r="EV23" s="32"/>
-      <c r="EW23" s="32"/>
-      <c r="EX23" s="32"/>
-      <c r="EY23" s="32"/>
+      <c r="EN23" s="36"/>
+      <c r="EO23" s="36"/>
+      <c r="EP23" s="36"/>
+      <c r="EQ23" s="36"/>
+      <c r="ER23" s="36"/>
+      <c r="ES23" s="36"/>
+      <c r="ET23" s="36"/>
+      <c r="EU23" s="36"/>
+      <c r="EV23" s="36"/>
+      <c r="EW23" s="36"/>
+      <c r="EX23" s="36"/>
+      <c r="EY23" s="36"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="32" t="s">
+      <c r="EM24" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="32"/>
-      <c r="EO24" s="32"/>
-      <c r="EP24" s="32"/>
-      <c r="EQ24" s="32"/>
-      <c r="ER24" s="32"/>
-      <c r="ES24" s="32"/>
-      <c r="ET24" s="32"/>
-      <c r="EU24" s="32"/>
-      <c r="EV24" s="32"/>
-      <c r="EW24" s="32"/>
-      <c r="EX24" s="32"/>
-      <c r="EY24" s="32"/>
+      <c r="EN24" s="36"/>
+      <c r="EO24" s="36"/>
+      <c r="EP24" s="36"/>
+      <c r="EQ24" s="36"/>
+      <c r="ER24" s="36"/>
+      <c r="ES24" s="36"/>
+      <c r="ET24" s="36"/>
+      <c r="EU24" s="36"/>
+      <c r="EV24" s="36"/>
+      <c r="EW24" s="36"/>
+      <c r="EX24" s="36"/>
+      <c r="EY24" s="36"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3573,21 +3608,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="32" t="s">
+      <c r="EM25" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="32"/>
-      <c r="EO25" s="32"/>
-      <c r="EP25" s="32"/>
-      <c r="EQ25" s="32"/>
-      <c r="ER25" s="32"/>
-      <c r="ES25" s="32"/>
-      <c r="ET25" s="32"/>
-      <c r="EU25" s="32"/>
-      <c r="EV25" s="32"/>
-      <c r="EW25" s="32"/>
-      <c r="EX25" s="32"/>
-      <c r="EY25" s="32"/>
+      <c r="EN25" s="36"/>
+      <c r="EO25" s="36"/>
+      <c r="EP25" s="36"/>
+      <c r="EQ25" s="36"/>
+      <c r="ER25" s="36"/>
+      <c r="ES25" s="36"/>
+      <c r="ET25" s="36"/>
+      <c r="EU25" s="36"/>
+      <c r="EV25" s="36"/>
+      <c r="EW25" s="36"/>
+      <c r="EX25" s="36"/>
+      <c r="EY25" s="36"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3624,40 +3659,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="32" t="s">
+      <c r="EM26" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="32"/>
-      <c r="EO26" s="32"/>
-      <c r="EP26" s="32"/>
-      <c r="EQ26" s="32"/>
-      <c r="ER26" s="32"/>
-      <c r="ES26" s="32"/>
-      <c r="ET26" s="32"/>
-      <c r="EU26" s="32"/>
-      <c r="EV26" s="32"/>
-      <c r="EW26" s="32"/>
-      <c r="EX26" s="32"/>
-      <c r="EY26" s="32"/>
+      <c r="EN26" s="36"/>
+      <c r="EO26" s="36"/>
+      <c r="EP26" s="36"/>
+      <c r="EQ26" s="36"/>
+      <c r="ER26" s="36"/>
+      <c r="ES26" s="36"/>
+      <c r="ET26" s="36"/>
+      <c r="EU26" s="36"/>
+      <c r="EV26" s="36"/>
+      <c r="EW26" s="36"/>
+      <c r="EX26" s="36"/>
+      <c r="EY26" s="36"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="32" t="s">
+      <c r="EM27" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="32"/>
-      <c r="EO27" s="32"/>
-      <c r="EP27" s="32"/>
-      <c r="EQ27" s="32"/>
-      <c r="ER27" s="32"/>
-      <c r="ES27" s="32"/>
-      <c r="ET27" s="32"/>
-      <c r="EU27" s="32"/>
-      <c r="EV27" s="32"/>
-      <c r="EW27" s="32"/>
-      <c r="EX27" s="32"/>
-      <c r="EY27" s="32"/>
+      <c r="EN27" s="36"/>
+      <c r="EO27" s="36"/>
+      <c r="EP27" s="36"/>
+      <c r="EQ27" s="36"/>
+      <c r="ER27" s="36"/>
+      <c r="ES27" s="36"/>
+      <c r="ET27" s="36"/>
+      <c r="EU27" s="36"/>
+      <c r="EV27" s="36"/>
+      <c r="EW27" s="36"/>
+      <c r="EX27" s="36"/>
+      <c r="EY27" s="36"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3806,21 +3841,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="32" t="s">
+      <c r="EM28" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="32"/>
-      <c r="EO28" s="32"/>
-      <c r="EP28" s="32"/>
-      <c r="EQ28" s="32"/>
-      <c r="ER28" s="32"/>
-      <c r="ES28" s="32"/>
-      <c r="ET28" s="32"/>
-      <c r="EU28" s="32"/>
-      <c r="EV28" s="32"/>
-      <c r="EW28" s="32"/>
-      <c r="EX28" s="32"/>
-      <c r="EY28" s="32"/>
+      <c r="EN28" s="36"/>
+      <c r="EO28" s="36"/>
+      <c r="EP28" s="36"/>
+      <c r="EQ28" s="36"/>
+      <c r="ER28" s="36"/>
+      <c r="ES28" s="36"/>
+      <c r="ET28" s="36"/>
+      <c r="EU28" s="36"/>
+      <c r="EV28" s="36"/>
+      <c r="EW28" s="36"/>
+      <c r="EX28" s="36"/>
+      <c r="EY28" s="36"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3894,21 +3929,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="32" t="s">
+      <c r="EM29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="32"/>
-      <c r="EO29" s="32"/>
-      <c r="EP29" s="32"/>
-      <c r="EQ29" s="32"/>
-      <c r="ER29" s="32"/>
-      <c r="ES29" s="32"/>
-      <c r="ET29" s="32"/>
-      <c r="EU29" s="32"/>
-      <c r="EV29" s="32"/>
-      <c r="EW29" s="32"/>
-      <c r="EX29" s="32"/>
-      <c r="EY29" s="32"/>
+      <c r="EN29" s="36"/>
+      <c r="EO29" s="36"/>
+      <c r="EP29" s="36"/>
+      <c r="EQ29" s="36"/>
+      <c r="ER29" s="36"/>
+      <c r="ES29" s="36"/>
+      <c r="ET29" s="36"/>
+      <c r="EU29" s="36"/>
+      <c r="EV29" s="36"/>
+      <c r="EW29" s="36"/>
+      <c r="EX29" s="36"/>
+      <c r="EY29" s="36"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4057,21 +4092,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="32" t="s">
+      <c r="EM30" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="32"/>
-      <c r="EO30" s="32"/>
-      <c r="EP30" s="32"/>
-      <c r="EQ30" s="32"/>
-      <c r="ER30" s="32"/>
-      <c r="ES30" s="32"/>
-      <c r="ET30" s="32"/>
-      <c r="EU30" s="32"/>
-      <c r="EV30" s="32"/>
-      <c r="EW30" s="32"/>
-      <c r="EX30" s="32"/>
-      <c r="EY30" s="32"/>
+      <c r="EN30" s="36"/>
+      <c r="EO30" s="36"/>
+      <c r="EP30" s="36"/>
+      <c r="EQ30" s="36"/>
+      <c r="ER30" s="36"/>
+      <c r="ES30" s="36"/>
+      <c r="ET30" s="36"/>
+      <c r="EU30" s="36"/>
+      <c r="EV30" s="36"/>
+      <c r="EW30" s="36"/>
+      <c r="EX30" s="36"/>
+      <c r="EY30" s="36"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4159,103 +4194,109 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="32" t="s">
+      <c r="EM31" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="32"/>
-      <c r="EO31" s="32"/>
-      <c r="EP31" s="32"/>
-      <c r="EQ31" s="32"/>
-      <c r="ER31" s="32"/>
-      <c r="ES31" s="32"/>
-      <c r="ET31" s="32"/>
-      <c r="EU31" s="32"/>
-      <c r="EV31" s="32"/>
-      <c r="EW31" s="32"/>
-      <c r="EX31" s="32"/>
-      <c r="EY31" s="32"/>
+      <c r="EN31" s="36"/>
+      <c r="EO31" s="36"/>
+      <c r="EP31" s="36"/>
+      <c r="EQ31" s="36"/>
+      <c r="ER31" s="36"/>
+      <c r="ES31" s="36"/>
+      <c r="ET31" s="36"/>
+      <c r="EU31" s="36"/>
+      <c r="EV31" s="36"/>
+      <c r="EW31" s="36"/>
+      <c r="EX31" s="36"/>
+      <c r="EY31" s="36"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="32" t="s">
+      <c r="EM32" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="32"/>
-      <c r="EO32" s="32"/>
-      <c r="EP32" s="32"/>
-      <c r="EQ32" s="32"/>
-      <c r="ER32" s="32"/>
-      <c r="ES32" s="32"/>
-      <c r="ET32" s="32"/>
-      <c r="EU32" s="32"/>
-      <c r="EV32" s="32"/>
-      <c r="EW32" s="32"/>
-      <c r="EX32" s="32"/>
-      <c r="EY32" s="32"/>
+      <c r="EN32" s="36"/>
+      <c r="EO32" s="36"/>
+      <c r="EP32" s="36"/>
+      <c r="EQ32" s="36"/>
+      <c r="ER32" s="36"/>
+      <c r="ES32" s="36"/>
+      <c r="ET32" s="36"/>
+      <c r="EU32" s="36"/>
+      <c r="EV32" s="36"/>
+      <c r="EW32" s="36"/>
+      <c r="EX32" s="36"/>
+      <c r="EY32" s="36"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="32" t="s">
+      <c r="EM33" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="32"/>
-      <c r="EO33" s="32"/>
-      <c r="EP33" s="32"/>
-      <c r="EQ33" s="32"/>
-      <c r="ER33" s="32"/>
-      <c r="ES33" s="32"/>
-      <c r="ET33" s="32"/>
-      <c r="EU33" s="32"/>
-      <c r="EV33" s="32"/>
-      <c r="EW33" s="32"/>
-      <c r="EX33" s="32"/>
-      <c r="EY33" s="32"/>
+      <c r="EN33" s="36"/>
+      <c r="EO33" s="36"/>
+      <c r="EP33" s="36"/>
+      <c r="EQ33" s="36"/>
+      <c r="ER33" s="36"/>
+      <c r="ES33" s="36"/>
+      <c r="ET33" s="36"/>
+      <c r="EU33" s="36"/>
+      <c r="EV33" s="36"/>
+      <c r="EW33" s="36"/>
+      <c r="EX33" s="36"/>
+      <c r="EY33" s="36"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="32" t="s">
+      <c r="EM34" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="32"/>
-      <c r="EO34" s="32"/>
-      <c r="EP34" s="32"/>
-      <c r="EQ34" s="32"/>
-      <c r="ER34" s="32"/>
-      <c r="ES34" s="32"/>
-      <c r="ET34" s="32"/>
-      <c r="EU34" s="32"/>
-      <c r="EV34" s="32"/>
-      <c r="EW34" s="32"/>
-      <c r="EX34" s="32"/>
-      <c r="EY34" s="32"/>
+      <c r="EN34" s="36"/>
+      <c r="EO34" s="36"/>
+      <c r="EP34" s="36"/>
+      <c r="EQ34" s="36"/>
+      <c r="ER34" s="36"/>
+      <c r="ES34" s="36"/>
+      <c r="ET34" s="36"/>
+      <c r="EU34" s="36"/>
+      <c r="EV34" s="36"/>
+      <c r="EW34" s="36"/>
+      <c r="EX34" s="36"/>
+      <c r="EY34" s="36"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="32" t="s">
+      <c r="EM35" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="32"/>
-      <c r="EO35" s="32"/>
-      <c r="EP35" s="32"/>
-      <c r="EQ35" s="32"/>
-      <c r="ER35" s="32"/>
-      <c r="ES35" s="32"/>
-      <c r="ET35" s="32"/>
-      <c r="EU35" s="32"/>
-      <c r="EV35" s="32"/>
-      <c r="EW35" s="32"/>
-      <c r="EX35" s="32"/>
-      <c r="EY35" s="32"/>
+      <c r="EN35" s="36"/>
+      <c r="EO35" s="36"/>
+      <c r="EP35" s="36"/>
+      <c r="EQ35" s="36"/>
+      <c r="ER35" s="36"/>
+      <c r="ES35" s="36"/>
+      <c r="ET35" s="36"/>
+      <c r="EU35" s="36"/>
+      <c r="EV35" s="36"/>
+      <c r="EW35" s="36"/>
+      <c r="EX35" s="36"/>
+      <c r="EY35" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4269,23 +4310,17 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportering" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>Forts rep + läst 2 relevanta tidigare X-jobb (2006-15 , 2004-15)</t>
+  </si>
+  <si>
+    <t>Problemformulering + möte med Bengt</t>
+  </si>
+  <si>
+    <t>Repeterat GLM (Kursboken) + Ex-jobb Erik</t>
+  </si>
+  <si>
+    <t>Eriks Ex-jobb feedback</t>
+  </si>
+  <si>
+    <t>4 &amp; 11</t>
+  </si>
+  <si>
+    <t>Problemformulering inför möte Universitetet</t>
   </si>
 </sst>
 </file>
@@ -430,26 +445,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,10 +768,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,7 +787,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -791,7 +806,7 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -880,23 +895,59 @@
       </c>
     </row>
     <row r="10" spans="2:5">
+      <c r="B10" s="2">
+        <v>41143</v>
+      </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:5">
+      <c r="B11" s="2">
+        <v>41144</v>
+      </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:5">
+      <c r="B12" s="2">
+        <v>41145</v>
+      </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:5">
+      <c r="B13" s="2">
+        <v>41146</v>
+      </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -938,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IF35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,33 +1097,33 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="33">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="S1" s="32" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="33">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
@@ -1090,20 +1141,20 @@
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38">
         <f>SUM(C7:IF7)</f>
-        <v>9</v>
-      </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1112,260 +1163,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35" t="s">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="35"/>
-      <c r="BP4" s="35"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="35"/>
-      <c r="BS4" s="35"/>
-      <c r="BT4" s="35"/>
-      <c r="BU4" s="35"/>
-      <c r="BV4" s="35"/>
-      <c r="BW4" s="35"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="35"/>
-      <c r="BZ4" s="35"/>
-      <c r="CA4" s="35"/>
-      <c r="CB4" s="35"/>
-      <c r="CC4" s="35"/>
-      <c r="CD4" s="35"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="35"/>
-      <c r="CG4" s="35"/>
-      <c r="CH4" s="35"/>
-      <c r="CI4" s="35"/>
-      <c r="CJ4" s="35"/>
-      <c r="CK4" s="35"/>
-      <c r="CL4" s="35" t="s">
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="34"/>
+      <c r="CK4" s="34"/>
+      <c r="CL4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="35"/>
-      <c r="CN4" s="35"/>
-      <c r="CO4" s="35"/>
-      <c r="CP4" s="35"/>
-      <c r="CQ4" s="35"/>
-      <c r="CR4" s="35"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="35"/>
-      <c r="CU4" s="35"/>
-      <c r="CV4" s="35"/>
-      <c r="CW4" s="35"/>
-      <c r="CX4" s="35"/>
-      <c r="CY4" s="35"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="35"/>
-      <c r="DB4" s="35"/>
-      <c r="DC4" s="35"/>
-      <c r="DD4" s="35"/>
-      <c r="DE4" s="35"/>
-      <c r="DF4" s="35"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="35"/>
-      <c r="DI4" s="35"/>
-      <c r="DJ4" s="35"/>
-      <c r="DK4" s="35"/>
-      <c r="DL4" s="35"/>
-      <c r="DM4" s="35"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="35"/>
-      <c r="DP4" s="35" t="s">
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="34"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="34"/>
+      <c r="CQ4" s="34"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="34"/>
+      <c r="CT4" s="34"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="34"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="34"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="34"/>
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="34"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="34"/>
+      <c r="DI4" s="34"/>
+      <c r="DJ4" s="34"/>
+      <c r="DK4" s="34"/>
+      <c r="DL4" s="34"/>
+      <c r="DM4" s="34"/>
+      <c r="DN4" s="34"/>
+      <c r="DO4" s="34"/>
+      <c r="DP4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="35"/>
-      <c r="DR4" s="35"/>
-      <c r="DS4" s="35"/>
-      <c r="DT4" s="35"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="35"/>
-      <c r="DW4" s="35"/>
-      <c r="DX4" s="35"/>
-      <c r="DY4" s="35"/>
-      <c r="DZ4" s="35"/>
-      <c r="EA4" s="35"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="35"/>
-      <c r="EE4" s="35"/>
-      <c r="EF4" s="35"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="35"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="35"/>
-      <c r="EK4" s="35"/>
-      <c r="EL4" s="35"/>
-      <c r="EM4" s="35"/>
-      <c r="EN4" s="35"/>
-      <c r="EO4" s="35"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="35"/>
-      <c r="ER4" s="35"/>
-      <c r="ES4" s="35"/>
-      <c r="ET4" s="35"/>
-      <c r="EU4" s="35" t="s">
+      <c r="DQ4" s="34"/>
+      <c r="DR4" s="34"/>
+      <c r="DS4" s="34"/>
+      <c r="DT4" s="34"/>
+      <c r="DU4" s="34"/>
+      <c r="DV4" s="34"/>
+      <c r="DW4" s="34"/>
+      <c r="DX4" s="34"/>
+      <c r="DY4" s="34"/>
+      <c r="DZ4" s="34"/>
+      <c r="EA4" s="34"/>
+      <c r="EB4" s="34"/>
+      <c r="EC4" s="34"/>
+      <c r="ED4" s="34"/>
+      <c r="EE4" s="34"/>
+      <c r="EF4" s="34"/>
+      <c r="EG4" s="34"/>
+      <c r="EH4" s="34"/>
+      <c r="EI4" s="34"/>
+      <c r="EJ4" s="34"/>
+      <c r="EK4" s="34"/>
+      <c r="EL4" s="34"/>
+      <c r="EM4" s="34"/>
+      <c r="EN4" s="34"/>
+      <c r="EO4" s="34"/>
+      <c r="EP4" s="34"/>
+      <c r="EQ4" s="34"/>
+      <c r="ER4" s="34"/>
+      <c r="ES4" s="34"/>
+      <c r="ET4" s="34"/>
+      <c r="EU4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="35"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="35"/>
-      <c r="EY4" s="35"/>
-      <c r="EZ4" s="35"/>
-      <c r="FA4" s="35"/>
-      <c r="FB4" s="35"/>
-      <c r="FC4" s="35"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="35"/>
-      <c r="FF4" s="35"/>
-      <c r="FG4" s="35"/>
-      <c r="FH4" s="35"/>
-      <c r="FI4" s="35"/>
-      <c r="FJ4" s="35"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="35"/>
-      <c r="FM4" s="35"/>
-      <c r="FN4" s="35"/>
-      <c r="FO4" s="35"/>
-      <c r="FP4" s="35"/>
-      <c r="FQ4" s="35"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="35"/>
-      <c r="FT4" s="35"/>
-      <c r="FU4" s="35"/>
-      <c r="FV4" s="35"/>
-      <c r="FW4" s="35"/>
-      <c r="FX4" s="35"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="35" t="s">
+      <c r="EV4" s="34"/>
+      <c r="EW4" s="34"/>
+      <c r="EX4" s="34"/>
+      <c r="EY4" s="34"/>
+      <c r="EZ4" s="34"/>
+      <c r="FA4" s="34"/>
+      <c r="FB4" s="34"/>
+      <c r="FC4" s="34"/>
+      <c r="FD4" s="34"/>
+      <c r="FE4" s="34"/>
+      <c r="FF4" s="34"/>
+      <c r="FG4" s="34"/>
+      <c r="FH4" s="34"/>
+      <c r="FI4" s="34"/>
+      <c r="FJ4" s="34"/>
+      <c r="FK4" s="34"/>
+      <c r="FL4" s="34"/>
+      <c r="FM4" s="34"/>
+      <c r="FN4" s="34"/>
+      <c r="FO4" s="34"/>
+      <c r="FP4" s="34"/>
+      <c r="FQ4" s="34"/>
+      <c r="FR4" s="34"/>
+      <c r="FS4" s="34"/>
+      <c r="FT4" s="34"/>
+      <c r="FU4" s="34"/>
+      <c r="FV4" s="34"/>
+      <c r="FW4" s="34"/>
+      <c r="FX4" s="34"/>
+      <c r="FY4" s="34"/>
+      <c r="FZ4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="35"/>
-      <c r="GB4" s="35"/>
-      <c r="GC4" s="35"/>
-      <c r="GD4" s="35"/>
-      <c r="GE4" s="35"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="35"/>
-      <c r="GH4" s="35"/>
-      <c r="GI4" s="35"/>
-      <c r="GJ4" s="35"/>
-      <c r="GK4" s="35"/>
-      <c r="GL4" s="35"/>
-      <c r="GM4" s="35"/>
-      <c r="GN4" s="35"/>
-      <c r="GO4" s="35"/>
-      <c r="GP4" s="35"/>
-      <c r="GQ4" s="35"/>
-      <c r="GR4" s="35"/>
-      <c r="GS4" s="35"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="35"/>
-      <c r="GV4" s="35"/>
-      <c r="GW4" s="35"/>
-      <c r="GX4" s="35"/>
-      <c r="GY4" s="35"/>
-      <c r="GZ4" s="35"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="35" t="s">
+      <c r="GA4" s="34"/>
+      <c r="GB4" s="34"/>
+      <c r="GC4" s="34"/>
+      <c r="GD4" s="34"/>
+      <c r="GE4" s="34"/>
+      <c r="GF4" s="34"/>
+      <c r="GG4" s="34"/>
+      <c r="GH4" s="34"/>
+      <c r="GI4" s="34"/>
+      <c r="GJ4" s="34"/>
+      <c r="GK4" s="34"/>
+      <c r="GL4" s="34"/>
+      <c r="GM4" s="34"/>
+      <c r="GN4" s="34"/>
+      <c r="GO4" s="34"/>
+      <c r="GP4" s="34"/>
+      <c r="GQ4" s="34"/>
+      <c r="GR4" s="34"/>
+      <c r="GS4" s="34"/>
+      <c r="GT4" s="34"/>
+      <c r="GU4" s="34"/>
+      <c r="GV4" s="34"/>
+      <c r="GW4" s="34"/>
+      <c r="GX4" s="34"/>
+      <c r="GY4" s="34"/>
+      <c r="GZ4" s="34"/>
+      <c r="HA4" s="34"/>
+      <c r="HB4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="35"/>
-      <c r="HD4" s="35"/>
-      <c r="HE4" s="35"/>
-      <c r="HF4" s="35"/>
-      <c r="HG4" s="35"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="35"/>
-      <c r="HJ4" s="35"/>
-      <c r="HK4" s="35"/>
-      <c r="HL4" s="35"/>
-      <c r="HM4" s="35"/>
-      <c r="HN4" s="35"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="35"/>
-      <c r="HQ4" s="35"/>
-      <c r="HR4" s="35"/>
-      <c r="HS4" s="35"/>
-      <c r="HT4" s="35"/>
-      <c r="HU4" s="35"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="35"/>
-      <c r="HX4" s="35"/>
-      <c r="HY4" s="35"/>
-      <c r="HZ4" s="35"/>
-      <c r="IA4" s="35"/>
-      <c r="IB4" s="35"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="35"/>
-      <c r="IE4" s="35"/>
-      <c r="IF4" s="37"/>
+      <c r="HC4" s="34"/>
+      <c r="HD4" s="34"/>
+      <c r="HE4" s="34"/>
+      <c r="HF4" s="34"/>
+      <c r="HG4" s="34"/>
+      <c r="HH4" s="34"/>
+      <c r="HI4" s="34"/>
+      <c r="HJ4" s="34"/>
+      <c r="HK4" s="34"/>
+      <c r="HL4" s="34"/>
+      <c r="HM4" s="34"/>
+      <c r="HN4" s="34"/>
+      <c r="HO4" s="34"/>
+      <c r="HP4" s="34"/>
+      <c r="HQ4" s="34"/>
+      <c r="HR4" s="34"/>
+      <c r="HS4" s="34"/>
+      <c r="HT4" s="34"/>
+      <c r="HU4" s="34"/>
+      <c r="HV4" s="34"/>
+      <c r="HW4" s="34"/>
+      <c r="HX4" s="34"/>
+      <c r="HY4" s="34"/>
+      <c r="HZ4" s="34"/>
+      <c r="IA4" s="34"/>
+      <c r="IB4" s="34"/>
+      <c r="IC4" s="34"/>
+      <c r="ID4" s="34"/>
+      <c r="IE4" s="34"/>
+      <c r="IF4" s="35"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2127,7 +2178,7 @@
       <c r="V6" s="24"/>
       <c r="W6" s="27">
         <f>SUM(Q7:W7)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X6" s="24">
         <v>12</v>
@@ -2625,10 +2676,18 @@
       <c r="R7" s="21">
         <v>3</v>
       </c>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="S7" s="21">
+        <v>2</v>
+      </c>
+      <c r="T7" s="21">
+        <v>2</v>
+      </c>
+      <c r="U7" s="21">
+        <v>1</v>
+      </c>
+      <c r="V7" s="21">
+        <v>1</v>
+      </c>
       <c r="W7" s="21"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="21"/>
@@ -2868,21 +2927,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="36" t="s">
+      <c r="EM9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="36"/>
-      <c r="EO9" s="36"/>
-      <c r="EP9" s="36"/>
-      <c r="EQ9" s="36"/>
-      <c r="ER9" s="36"/>
-      <c r="ES9" s="36"/>
-      <c r="ET9" s="36"/>
-      <c r="EU9" s="36"/>
-      <c r="EV9" s="36"/>
-      <c r="EW9" s="36"/>
-      <c r="EX9" s="36"/>
-      <c r="EY9" s="36"/>
+      <c r="EN9" s="33"/>
+      <c r="EO9" s="33"/>
+      <c r="EP9" s="33"/>
+      <c r="EQ9" s="33"/>
+      <c r="ER9" s="33"/>
+      <c r="ES9" s="33"/>
+      <c r="ET9" s="33"/>
+      <c r="EU9" s="33"/>
+      <c r="EV9" s="33"/>
+      <c r="EW9" s="33"/>
+      <c r="EX9" s="33"/>
+      <c r="EY9" s="33"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2897,21 +2956,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="36" t="s">
+      <c r="EM10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="36"/>
-      <c r="EO10" s="36"/>
-      <c r="EP10" s="36"/>
-      <c r="EQ10" s="36"/>
-      <c r="ER10" s="36"/>
-      <c r="ES10" s="36"/>
-      <c r="ET10" s="36"/>
-      <c r="EU10" s="36"/>
-      <c r="EV10" s="36"/>
-      <c r="EW10" s="36"/>
-      <c r="EX10" s="36"/>
-      <c r="EY10" s="36"/>
+      <c r="EN10" s="33"/>
+      <c r="EO10" s="33"/>
+      <c r="EP10" s="33"/>
+      <c r="EQ10" s="33"/>
+      <c r="ER10" s="33"/>
+      <c r="ES10" s="33"/>
+      <c r="ET10" s="33"/>
+      <c r="EU10" s="33"/>
+      <c r="EV10" s="33"/>
+      <c r="EW10" s="33"/>
+      <c r="EX10" s="33"/>
+      <c r="EY10" s="33"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2925,21 +2984,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="36" t="s">
+      <c r="EM11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="36"/>
-      <c r="EO11" s="36"/>
-      <c r="EP11" s="36"/>
-      <c r="EQ11" s="36"/>
-      <c r="ER11" s="36"/>
-      <c r="ES11" s="36"/>
-      <c r="ET11" s="36"/>
-      <c r="EU11" s="36"/>
-      <c r="EV11" s="36"/>
-      <c r="EW11" s="36"/>
-      <c r="EX11" s="36"/>
-      <c r="EY11" s="36"/>
+      <c r="EN11" s="33"/>
+      <c r="EO11" s="33"/>
+      <c r="EP11" s="33"/>
+      <c r="EQ11" s="33"/>
+      <c r="ER11" s="33"/>
+      <c r="ES11" s="33"/>
+      <c r="ET11" s="33"/>
+      <c r="EU11" s="33"/>
+      <c r="EV11" s="33"/>
+      <c r="EW11" s="33"/>
+      <c r="EX11" s="33"/>
+      <c r="EY11" s="33"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -2958,21 +3017,24 @@
       <c r="O12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="36" t="s">
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="EM12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="36"/>
-      <c r="EO12" s="36"/>
-      <c r="EP12" s="36"/>
-      <c r="EQ12" s="36"/>
-      <c r="ER12" s="36"/>
-      <c r="ES12" s="36"/>
-      <c r="ET12" s="36"/>
-      <c r="EU12" s="36"/>
-      <c r="EV12" s="36"/>
-      <c r="EW12" s="36"/>
-      <c r="EX12" s="36"/>
-      <c r="EY12" s="36"/>
+      <c r="EN12" s="33"/>
+      <c r="EO12" s="33"/>
+      <c r="EP12" s="33"/>
+      <c r="EQ12" s="33"/>
+      <c r="ER12" s="33"/>
+      <c r="ES12" s="33"/>
+      <c r="ET12" s="33"/>
+      <c r="EU12" s="33"/>
+      <c r="EV12" s="33"/>
+      <c r="EW12" s="33"/>
+      <c r="EX12" s="33"/>
+      <c r="EY12" s="33"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -2985,39 +3047,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="36" t="s">
+      <c r="EM13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="36"/>
-      <c r="EO13" s="36"/>
-      <c r="EP13" s="36"/>
-      <c r="EQ13" s="36"/>
-      <c r="ER13" s="36"/>
-      <c r="ES13" s="36"/>
-      <c r="ET13" s="36"/>
-      <c r="EU13" s="36"/>
-      <c r="EV13" s="36"/>
-      <c r="EW13" s="36"/>
-      <c r="EX13" s="36"/>
-      <c r="EY13" s="36"/>
+      <c r="EN13" s="33"/>
+      <c r="EO13" s="33"/>
+      <c r="EP13" s="33"/>
+      <c r="EQ13" s="33"/>
+      <c r="ER13" s="33"/>
+      <c r="ES13" s="33"/>
+      <c r="ET13" s="33"/>
+      <c r="EU13" s="33"/>
+      <c r="EV13" s="33"/>
+      <c r="EW13" s="33"/>
+      <c r="EX13" s="33"/>
+      <c r="EY13" s="33"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="36" t="s">
+      <c r="EM14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="36"/>
-      <c r="EO14" s="36"/>
-      <c r="EP14" s="36"/>
-      <c r="EQ14" s="36"/>
-      <c r="ER14" s="36"/>
-      <c r="ES14" s="36"/>
-      <c r="ET14" s="36"/>
-      <c r="EU14" s="36"/>
-      <c r="EV14" s="36"/>
-      <c r="EW14" s="36"/>
-      <c r="EX14" s="36"/>
-      <c r="EY14" s="36"/>
+      <c r="EN14" s="33"/>
+      <c r="EO14" s="33"/>
+      <c r="EP14" s="33"/>
+      <c r="EQ14" s="33"/>
+      <c r="ER14" s="33"/>
+      <c r="ES14" s="33"/>
+      <c r="ET14" s="33"/>
+      <c r="EU14" s="33"/>
+      <c r="EV14" s="33"/>
+      <c r="EW14" s="33"/>
+      <c r="EX14" s="33"/>
+      <c r="EY14" s="33"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3042,31 +3104,35 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="S15" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
+      <c r="V15" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="36" t="s">
+      <c r="EM15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="36"/>
-      <c r="EO15" s="36"/>
-      <c r="EP15" s="36"/>
-      <c r="EQ15" s="36"/>
-      <c r="ER15" s="36"/>
-      <c r="ES15" s="36"/>
-      <c r="ET15" s="36"/>
-      <c r="EU15" s="36"/>
-      <c r="EV15" s="36"/>
-      <c r="EW15" s="36"/>
-      <c r="EX15" s="36"/>
-      <c r="EY15" s="36"/>
+      <c r="EN15" s="33"/>
+      <c r="EO15" s="33"/>
+      <c r="EP15" s="33"/>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
+      <c r="EW15" s="33"/>
+      <c r="EX15" s="33"/>
+      <c r="EY15" s="33"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3077,39 +3143,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="36" t="s">
+      <c r="EM16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="36"/>
-      <c r="EO16" s="36"/>
-      <c r="EP16" s="36"/>
-      <c r="EQ16" s="36"/>
-      <c r="ER16" s="36"/>
-      <c r="ES16" s="36"/>
-      <c r="ET16" s="36"/>
-      <c r="EU16" s="36"/>
-      <c r="EV16" s="36"/>
-      <c r="EW16" s="36"/>
-      <c r="EX16" s="36"/>
-      <c r="EY16" s="36"/>
+      <c r="EN16" s="33"/>
+      <c r="EO16" s="33"/>
+      <c r="EP16" s="33"/>
+      <c r="EQ16" s="33"/>
+      <c r="ER16" s="33"/>
+      <c r="ES16" s="33"/>
+      <c r="ET16" s="33"/>
+      <c r="EU16" s="33"/>
+      <c r="EV16" s="33"/>
+      <c r="EW16" s="33"/>
+      <c r="EX16" s="33"/>
+      <c r="EY16" s="33"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="36" t="s">
+      <c r="EM17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="36"/>
-      <c r="EO17" s="36"/>
-      <c r="EP17" s="36"/>
-      <c r="EQ17" s="36"/>
-      <c r="ER17" s="36"/>
-      <c r="ES17" s="36"/>
-      <c r="ET17" s="36"/>
-      <c r="EU17" s="36"/>
-      <c r="EV17" s="36"/>
-      <c r="EW17" s="36"/>
-      <c r="EX17" s="36"/>
-      <c r="EY17" s="36"/>
+      <c r="EN17" s="33"/>
+      <c r="EO17" s="33"/>
+      <c r="EP17" s="33"/>
+      <c r="EQ17" s="33"/>
+      <c r="ER17" s="33"/>
+      <c r="ES17" s="33"/>
+      <c r="ET17" s="33"/>
+      <c r="EU17" s="33"/>
+      <c r="EV17" s="33"/>
+      <c r="EW17" s="33"/>
+      <c r="EX17" s="33"/>
+      <c r="EY17" s="33"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3139,8 +3205,12 @@
         <v>33</v>
       </c>
       <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
+      <c r="T18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="V18" s="13"/>
       <c r="W18" s="13"/>
       <c r="X18" s="14"/>
@@ -3171,39 +3241,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="36" t="s">
+      <c r="EM18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="36"/>
-      <c r="EO18" s="36"/>
-      <c r="EP18" s="36"/>
-      <c r="EQ18" s="36"/>
-      <c r="ER18" s="36"/>
-      <c r="ES18" s="36"/>
-      <c r="ET18" s="36"/>
-      <c r="EU18" s="36"/>
-      <c r="EV18" s="36"/>
-      <c r="EW18" s="36"/>
-      <c r="EX18" s="36"/>
-      <c r="EY18" s="36"/>
+      <c r="EN18" s="33"/>
+      <c r="EO18" s="33"/>
+      <c r="EP18" s="33"/>
+      <c r="EQ18" s="33"/>
+      <c r="ER18" s="33"/>
+      <c r="ES18" s="33"/>
+      <c r="ET18" s="33"/>
+      <c r="EU18" s="33"/>
+      <c r="EV18" s="33"/>
+      <c r="EW18" s="33"/>
+      <c r="EX18" s="33"/>
+      <c r="EY18" s="33"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="36" t="s">
+      <c r="EM19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="36"/>
-      <c r="EO19" s="36"/>
-      <c r="EP19" s="36"/>
-      <c r="EQ19" s="36"/>
-      <c r="ER19" s="36"/>
-      <c r="ES19" s="36"/>
-      <c r="ET19" s="36"/>
-      <c r="EU19" s="36"/>
-      <c r="EV19" s="36"/>
-      <c r="EW19" s="36"/>
-      <c r="EX19" s="36"/>
-      <c r="EY19" s="36"/>
+      <c r="EN19" s="33"/>
+      <c r="EO19" s="33"/>
+      <c r="EP19" s="33"/>
+      <c r="EQ19" s="33"/>
+      <c r="ER19" s="33"/>
+      <c r="ES19" s="33"/>
+      <c r="ET19" s="33"/>
+      <c r="EU19" s="33"/>
+      <c r="EV19" s="33"/>
+      <c r="EW19" s="33"/>
+      <c r="EX19" s="33"/>
+      <c r="EY19" s="33"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3352,21 +3422,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="36" t="s">
+      <c r="EM20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="36"/>
-      <c r="EO20" s="36"/>
-      <c r="EP20" s="36"/>
-      <c r="EQ20" s="36"/>
-      <c r="ER20" s="36"/>
-      <c r="ES20" s="36"/>
-      <c r="ET20" s="36"/>
-      <c r="EU20" s="36"/>
-      <c r="EV20" s="36"/>
-      <c r="EW20" s="36"/>
-      <c r="EX20" s="36"/>
-      <c r="EY20" s="36"/>
+      <c r="EN20" s="33"/>
+      <c r="EO20" s="33"/>
+      <c r="EP20" s="33"/>
+      <c r="EQ20" s="33"/>
+      <c r="ER20" s="33"/>
+      <c r="ES20" s="33"/>
+      <c r="ET20" s="33"/>
+      <c r="EU20" s="33"/>
+      <c r="EV20" s="33"/>
+      <c r="EW20" s="33"/>
+      <c r="EX20" s="33"/>
+      <c r="EY20" s="33"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3377,21 +3447,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="36" t="s">
+      <c r="EM21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="36"/>
-      <c r="EO21" s="36"/>
-      <c r="EP21" s="36"/>
-      <c r="EQ21" s="36"/>
-      <c r="ER21" s="36"/>
-      <c r="ES21" s="36"/>
-      <c r="ET21" s="36"/>
-      <c r="EU21" s="36"/>
-      <c r="EV21" s="36"/>
-      <c r="EW21" s="36"/>
-      <c r="EX21" s="36"/>
-      <c r="EY21" s="36"/>
+      <c r="EN21" s="33"/>
+      <c r="EO21" s="33"/>
+      <c r="EP21" s="33"/>
+      <c r="EQ21" s="33"/>
+      <c r="ER21" s="33"/>
+      <c r="ES21" s="33"/>
+      <c r="ET21" s="33"/>
+      <c r="EU21" s="33"/>
+      <c r="EV21" s="33"/>
+      <c r="EW21" s="33"/>
+      <c r="EX21" s="33"/>
+      <c r="EY21" s="33"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3402,21 +3472,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="36" t="s">
+      <c r="EM22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="36"/>
-      <c r="EO22" s="36"/>
-      <c r="EP22" s="36"/>
-      <c r="EQ22" s="36"/>
-      <c r="ER22" s="36"/>
-      <c r="ES22" s="36"/>
-      <c r="ET22" s="36"/>
-      <c r="EU22" s="36"/>
-      <c r="EV22" s="36"/>
-      <c r="EW22" s="36"/>
-      <c r="EX22" s="36"/>
-      <c r="EY22" s="36"/>
+      <c r="EN22" s="33"/>
+      <c r="EO22" s="33"/>
+      <c r="EP22" s="33"/>
+      <c r="EQ22" s="33"/>
+      <c r="ER22" s="33"/>
+      <c r="ES22" s="33"/>
+      <c r="ET22" s="33"/>
+      <c r="EU22" s="33"/>
+      <c r="EV22" s="33"/>
+      <c r="EW22" s="33"/>
+      <c r="EX22" s="33"/>
+      <c r="EY22" s="33"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3427,39 +3497,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="36" t="s">
+      <c r="EM23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="36"/>
-      <c r="EO23" s="36"/>
-      <c r="EP23" s="36"/>
-      <c r="EQ23" s="36"/>
-      <c r="ER23" s="36"/>
-      <c r="ES23" s="36"/>
-      <c r="ET23" s="36"/>
-      <c r="EU23" s="36"/>
-      <c r="EV23" s="36"/>
-      <c r="EW23" s="36"/>
-      <c r="EX23" s="36"/>
-      <c r="EY23" s="36"/>
+      <c r="EN23" s="33"/>
+      <c r="EO23" s="33"/>
+      <c r="EP23" s="33"/>
+      <c r="EQ23" s="33"/>
+      <c r="ER23" s="33"/>
+      <c r="ES23" s="33"/>
+      <c r="ET23" s="33"/>
+      <c r="EU23" s="33"/>
+      <c r="EV23" s="33"/>
+      <c r="EW23" s="33"/>
+      <c r="EX23" s="33"/>
+      <c r="EY23" s="33"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="36" t="s">
+      <c r="EM24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="36"/>
-      <c r="EO24" s="36"/>
-      <c r="EP24" s="36"/>
-      <c r="EQ24" s="36"/>
-      <c r="ER24" s="36"/>
-      <c r="ES24" s="36"/>
-      <c r="ET24" s="36"/>
-      <c r="EU24" s="36"/>
-      <c r="EV24" s="36"/>
-      <c r="EW24" s="36"/>
-      <c r="EX24" s="36"/>
-      <c r="EY24" s="36"/>
+      <c r="EN24" s="33"/>
+      <c r="EO24" s="33"/>
+      <c r="EP24" s="33"/>
+      <c r="EQ24" s="33"/>
+      <c r="ER24" s="33"/>
+      <c r="ES24" s="33"/>
+      <c r="ET24" s="33"/>
+      <c r="EU24" s="33"/>
+      <c r="EV24" s="33"/>
+      <c r="EW24" s="33"/>
+      <c r="EX24" s="33"/>
+      <c r="EY24" s="33"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3608,21 +3678,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="36" t="s">
+      <c r="EM25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="36"/>
-      <c r="EO25" s="36"/>
-      <c r="EP25" s="36"/>
-      <c r="EQ25" s="36"/>
-      <c r="ER25" s="36"/>
-      <c r="ES25" s="36"/>
-      <c r="ET25" s="36"/>
-      <c r="EU25" s="36"/>
-      <c r="EV25" s="36"/>
-      <c r="EW25" s="36"/>
-      <c r="EX25" s="36"/>
-      <c r="EY25" s="36"/>
+      <c r="EN25" s="33"/>
+      <c r="EO25" s="33"/>
+      <c r="EP25" s="33"/>
+      <c r="EQ25" s="33"/>
+      <c r="ER25" s="33"/>
+      <c r="ES25" s="33"/>
+      <c r="ET25" s="33"/>
+      <c r="EU25" s="33"/>
+      <c r="EV25" s="33"/>
+      <c r="EW25" s="33"/>
+      <c r="EX25" s="33"/>
+      <c r="EY25" s="33"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3659,40 +3729,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="36" t="s">
+      <c r="EM26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="36"/>
-      <c r="EO26" s="36"/>
-      <c r="EP26" s="36"/>
-      <c r="EQ26" s="36"/>
-      <c r="ER26" s="36"/>
-      <c r="ES26" s="36"/>
-      <c r="ET26" s="36"/>
-      <c r="EU26" s="36"/>
-      <c r="EV26" s="36"/>
-      <c r="EW26" s="36"/>
-      <c r="EX26" s="36"/>
-      <c r="EY26" s="36"/>
+      <c r="EN26" s="33"/>
+      <c r="EO26" s="33"/>
+      <c r="EP26" s="33"/>
+      <c r="EQ26" s="33"/>
+      <c r="ER26" s="33"/>
+      <c r="ES26" s="33"/>
+      <c r="ET26" s="33"/>
+      <c r="EU26" s="33"/>
+      <c r="EV26" s="33"/>
+      <c r="EW26" s="33"/>
+      <c r="EX26" s="33"/>
+      <c r="EY26" s="33"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="36" t="s">
+      <c r="EM27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="36"/>
-      <c r="EO27" s="36"/>
-      <c r="EP27" s="36"/>
-      <c r="EQ27" s="36"/>
-      <c r="ER27" s="36"/>
-      <c r="ES27" s="36"/>
-      <c r="ET27" s="36"/>
-      <c r="EU27" s="36"/>
-      <c r="EV27" s="36"/>
-      <c r="EW27" s="36"/>
-      <c r="EX27" s="36"/>
-      <c r="EY27" s="36"/>
+      <c r="EN27" s="33"/>
+      <c r="EO27" s="33"/>
+      <c r="EP27" s="33"/>
+      <c r="EQ27" s="33"/>
+      <c r="ER27" s="33"/>
+      <c r="ES27" s="33"/>
+      <c r="ET27" s="33"/>
+      <c r="EU27" s="33"/>
+      <c r="EV27" s="33"/>
+      <c r="EW27" s="33"/>
+      <c r="EX27" s="33"/>
+      <c r="EY27" s="33"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3841,21 +3911,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="36" t="s">
+      <c r="EM28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="36"/>
-      <c r="EO28" s="36"/>
-      <c r="EP28" s="36"/>
-      <c r="EQ28" s="36"/>
-      <c r="ER28" s="36"/>
-      <c r="ES28" s="36"/>
-      <c r="ET28" s="36"/>
-      <c r="EU28" s="36"/>
-      <c r="EV28" s="36"/>
-      <c r="EW28" s="36"/>
-      <c r="EX28" s="36"/>
-      <c r="EY28" s="36"/>
+      <c r="EN28" s="33"/>
+      <c r="EO28" s="33"/>
+      <c r="EP28" s="33"/>
+      <c r="EQ28" s="33"/>
+      <c r="ER28" s="33"/>
+      <c r="ES28" s="33"/>
+      <c r="ET28" s="33"/>
+      <c r="EU28" s="33"/>
+      <c r="EV28" s="33"/>
+      <c r="EW28" s="33"/>
+      <c r="EX28" s="33"/>
+      <c r="EY28" s="33"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3929,21 +3999,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="36" t="s">
+      <c r="EM29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="36"/>
-      <c r="EO29" s="36"/>
-      <c r="EP29" s="36"/>
-      <c r="EQ29" s="36"/>
-      <c r="ER29" s="36"/>
-      <c r="ES29" s="36"/>
-      <c r="ET29" s="36"/>
-      <c r="EU29" s="36"/>
-      <c r="EV29" s="36"/>
-      <c r="EW29" s="36"/>
-      <c r="EX29" s="36"/>
-      <c r="EY29" s="36"/>
+      <c r="EN29" s="33"/>
+      <c r="EO29" s="33"/>
+      <c r="EP29" s="33"/>
+      <c r="EQ29" s="33"/>
+      <c r="ER29" s="33"/>
+      <c r="ES29" s="33"/>
+      <c r="ET29" s="33"/>
+      <c r="EU29" s="33"/>
+      <c r="EV29" s="33"/>
+      <c r="EW29" s="33"/>
+      <c r="EX29" s="33"/>
+      <c r="EY29" s="33"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4092,21 +4162,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="36" t="s">
+      <c r="EM30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="36"/>
-      <c r="EO30" s="36"/>
-      <c r="EP30" s="36"/>
-      <c r="EQ30" s="36"/>
-      <c r="ER30" s="36"/>
-      <c r="ES30" s="36"/>
-      <c r="ET30" s="36"/>
-      <c r="EU30" s="36"/>
-      <c r="EV30" s="36"/>
-      <c r="EW30" s="36"/>
-      <c r="EX30" s="36"/>
-      <c r="EY30" s="36"/>
+      <c r="EN30" s="33"/>
+      <c r="EO30" s="33"/>
+      <c r="EP30" s="33"/>
+      <c r="EQ30" s="33"/>
+      <c r="ER30" s="33"/>
+      <c r="ES30" s="33"/>
+      <c r="ET30" s="33"/>
+      <c r="EU30" s="33"/>
+      <c r="EV30" s="33"/>
+      <c r="EW30" s="33"/>
+      <c r="EX30" s="33"/>
+      <c r="EY30" s="33"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4194,109 +4264,103 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="36" t="s">
+      <c r="EM31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="36"/>
-      <c r="EO31" s="36"/>
-      <c r="EP31" s="36"/>
-      <c r="EQ31" s="36"/>
-      <c r="ER31" s="36"/>
-      <c r="ES31" s="36"/>
-      <c r="ET31" s="36"/>
-      <c r="EU31" s="36"/>
-      <c r="EV31" s="36"/>
-      <c r="EW31" s="36"/>
-      <c r="EX31" s="36"/>
-      <c r="EY31" s="36"/>
+      <c r="EN31" s="33"/>
+      <c r="EO31" s="33"/>
+      <c r="EP31" s="33"/>
+      <c r="EQ31" s="33"/>
+      <c r="ER31" s="33"/>
+      <c r="ES31" s="33"/>
+      <c r="ET31" s="33"/>
+      <c r="EU31" s="33"/>
+      <c r="EV31" s="33"/>
+      <c r="EW31" s="33"/>
+      <c r="EX31" s="33"/>
+      <c r="EY31" s="33"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="36" t="s">
+      <c r="EM32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="36"/>
-      <c r="EO32" s="36"/>
-      <c r="EP32" s="36"/>
-      <c r="EQ32" s="36"/>
-      <c r="ER32" s="36"/>
-      <c r="ES32" s="36"/>
-      <c r="ET32" s="36"/>
-      <c r="EU32" s="36"/>
-      <c r="EV32" s="36"/>
-      <c r="EW32" s="36"/>
-      <c r="EX32" s="36"/>
-      <c r="EY32" s="36"/>
+      <c r="EN32" s="33"/>
+      <c r="EO32" s="33"/>
+      <c r="EP32" s="33"/>
+      <c r="EQ32" s="33"/>
+      <c r="ER32" s="33"/>
+      <c r="ES32" s="33"/>
+      <c r="ET32" s="33"/>
+      <c r="EU32" s="33"/>
+      <c r="EV32" s="33"/>
+      <c r="EW32" s="33"/>
+      <c r="EX32" s="33"/>
+      <c r="EY32" s="33"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="36" t="s">
+      <c r="EM33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="36"/>
-      <c r="EO33" s="36"/>
-      <c r="EP33" s="36"/>
-      <c r="EQ33" s="36"/>
-      <c r="ER33" s="36"/>
-      <c r="ES33" s="36"/>
-      <c r="ET33" s="36"/>
-      <c r="EU33" s="36"/>
-      <c r="EV33" s="36"/>
-      <c r="EW33" s="36"/>
-      <c r="EX33" s="36"/>
-      <c r="EY33" s="36"/>
+      <c r="EN33" s="33"/>
+      <c r="EO33" s="33"/>
+      <c r="EP33" s="33"/>
+      <c r="EQ33" s="33"/>
+      <c r="ER33" s="33"/>
+      <c r="ES33" s="33"/>
+      <c r="ET33" s="33"/>
+      <c r="EU33" s="33"/>
+      <c r="EV33" s="33"/>
+      <c r="EW33" s="33"/>
+      <c r="EX33" s="33"/>
+      <c r="EY33" s="33"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="36" t="s">
+      <c r="EM34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="36"/>
-      <c r="EO34" s="36"/>
-      <c r="EP34" s="36"/>
-      <c r="EQ34" s="36"/>
-      <c r="ER34" s="36"/>
-      <c r="ES34" s="36"/>
-      <c r="ET34" s="36"/>
-      <c r="EU34" s="36"/>
-      <c r="EV34" s="36"/>
-      <c r="EW34" s="36"/>
-      <c r="EX34" s="36"/>
-      <c r="EY34" s="36"/>
+      <c r="EN34" s="33"/>
+      <c r="EO34" s="33"/>
+      <c r="EP34" s="33"/>
+      <c r="EQ34" s="33"/>
+      <c r="ER34" s="33"/>
+      <c r="ES34" s="33"/>
+      <c r="ET34" s="33"/>
+      <c r="EU34" s="33"/>
+      <c r="EV34" s="33"/>
+      <c r="EW34" s="33"/>
+      <c r="EX34" s="33"/>
+      <c r="EY34" s="33"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="36" t="s">
+      <c r="EM35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="36"/>
-      <c r="EO35" s="36"/>
-      <c r="EP35" s="36"/>
-      <c r="EQ35" s="36"/>
-      <c r="ER35" s="36"/>
-      <c r="ES35" s="36"/>
-      <c r="ET35" s="36"/>
-      <c r="EU35" s="36"/>
-      <c r="EV35" s="36"/>
-      <c r="EW35" s="36"/>
-      <c r="EX35" s="36"/>
-      <c r="EY35" s="36"/>
+      <c r="EN35" s="33"/>
+      <c r="EO35" s="33"/>
+      <c r="EP35" s="33"/>
+      <c r="EQ35" s="33"/>
+      <c r="ER35" s="33"/>
+      <c r="ES35" s="33"/>
+      <c r="ET35" s="33"/>
+      <c r="EU35" s="33"/>
+      <c r="EV35" s="33"/>
+      <c r="EW35" s="33"/>
+      <c r="EX35" s="33"/>
+      <c r="EY35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4310,17 +4374,23 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Problemformulering inför möte Universitetet</t>
+  </si>
+  <si>
+    <t>Gjort i ordning dataset</t>
+  </si>
+  <si>
+    <t>GLM analys</t>
+  </si>
+  <si>
+    <t>Diverse</t>
   </si>
 </sst>
 </file>
@@ -448,22 +457,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +780,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,7 +796,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -951,34 +960,72 @@
       </c>
     </row>
     <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>41148</v>
+      </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:5">
+      <c r="B15" s="2">
+        <v>41149</v>
+      </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:5">
+      <c r="B16" s="2">
+        <v>41150</v>
+      </c>
       <c r="C16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>41151</v>
+      </c>
       <c r="C17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2">
+        <v>41156</v>
+      </c>
       <c r="C18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,7 +1037,7 @@
   <dimension ref="A1:IF35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1097,33 +1144,33 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="S1" s="37" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="38">
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
@@ -1141,20 +1188,20 @@
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
         <f>SUM(C7:IF7)</f>
-        <v>15</v>
-      </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+        <v>21</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1163,260 +1210,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34" t="s">
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
-      <c r="CJ4" s="34"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="34" t="s">
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="36"/>
+      <c r="BX4" s="36"/>
+      <c r="BY4" s="36"/>
+      <c r="BZ4" s="36"/>
+      <c r="CA4" s="36"/>
+      <c r="CB4" s="36"/>
+      <c r="CC4" s="36"/>
+      <c r="CD4" s="36"/>
+      <c r="CE4" s="36"/>
+      <c r="CF4" s="36"/>
+      <c r="CG4" s="36"/>
+      <c r="CH4" s="36"/>
+      <c r="CI4" s="36"/>
+      <c r="CJ4" s="36"/>
+      <c r="CK4" s="36"/>
+      <c r="CL4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="34"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="34"/>
-      <c r="CP4" s="34"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="34"/>
-      <c r="CS4" s="34"/>
-      <c r="CT4" s="34"/>
-      <c r="CU4" s="34"/>
-      <c r="CV4" s="34"/>
-      <c r="CW4" s="34"/>
-      <c r="CX4" s="34"/>
-      <c r="CY4" s="34"/>
-      <c r="CZ4" s="34"/>
-      <c r="DA4" s="34"/>
-      <c r="DB4" s="34"/>
-      <c r="DC4" s="34"/>
-      <c r="DD4" s="34"/>
-      <c r="DE4" s="34"/>
-      <c r="DF4" s="34"/>
-      <c r="DG4" s="34"/>
-      <c r="DH4" s="34"/>
-      <c r="DI4" s="34"/>
-      <c r="DJ4" s="34"/>
-      <c r="DK4" s="34"/>
-      <c r="DL4" s="34"/>
-      <c r="DM4" s="34"/>
-      <c r="DN4" s="34"/>
-      <c r="DO4" s="34"/>
-      <c r="DP4" s="34" t="s">
+      <c r="CM4" s="36"/>
+      <c r="CN4" s="36"/>
+      <c r="CO4" s="36"/>
+      <c r="CP4" s="36"/>
+      <c r="CQ4" s="36"/>
+      <c r="CR4" s="36"/>
+      <c r="CS4" s="36"/>
+      <c r="CT4" s="36"/>
+      <c r="CU4" s="36"/>
+      <c r="CV4" s="36"/>
+      <c r="CW4" s="36"/>
+      <c r="CX4" s="36"/>
+      <c r="CY4" s="36"/>
+      <c r="CZ4" s="36"/>
+      <c r="DA4" s="36"/>
+      <c r="DB4" s="36"/>
+      <c r="DC4" s="36"/>
+      <c r="DD4" s="36"/>
+      <c r="DE4" s="36"/>
+      <c r="DF4" s="36"/>
+      <c r="DG4" s="36"/>
+      <c r="DH4" s="36"/>
+      <c r="DI4" s="36"/>
+      <c r="DJ4" s="36"/>
+      <c r="DK4" s="36"/>
+      <c r="DL4" s="36"/>
+      <c r="DM4" s="36"/>
+      <c r="DN4" s="36"/>
+      <c r="DO4" s="36"/>
+      <c r="DP4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="34"/>
-      <c r="DR4" s="34"/>
-      <c r="DS4" s="34"/>
-      <c r="DT4" s="34"/>
-      <c r="DU4" s="34"/>
-      <c r="DV4" s="34"/>
-      <c r="DW4" s="34"/>
-      <c r="DX4" s="34"/>
-      <c r="DY4" s="34"/>
-      <c r="DZ4" s="34"/>
-      <c r="EA4" s="34"/>
-      <c r="EB4" s="34"/>
-      <c r="EC4" s="34"/>
-      <c r="ED4" s="34"/>
-      <c r="EE4" s="34"/>
-      <c r="EF4" s="34"/>
-      <c r="EG4" s="34"/>
-      <c r="EH4" s="34"/>
-      <c r="EI4" s="34"/>
-      <c r="EJ4" s="34"/>
-      <c r="EK4" s="34"/>
-      <c r="EL4" s="34"/>
-      <c r="EM4" s="34"/>
-      <c r="EN4" s="34"/>
-      <c r="EO4" s="34"/>
-      <c r="EP4" s="34"/>
-      <c r="EQ4" s="34"/>
-      <c r="ER4" s="34"/>
-      <c r="ES4" s="34"/>
-      <c r="ET4" s="34"/>
-      <c r="EU4" s="34" t="s">
+      <c r="DQ4" s="36"/>
+      <c r="DR4" s="36"/>
+      <c r="DS4" s="36"/>
+      <c r="DT4" s="36"/>
+      <c r="DU4" s="36"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="36"/>
+      <c r="DX4" s="36"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="36"/>
+      <c r="EA4" s="36"/>
+      <c r="EB4" s="36"/>
+      <c r="EC4" s="36"/>
+      <c r="ED4" s="36"/>
+      <c r="EE4" s="36"/>
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="36"/>
+      <c r="EH4" s="36"/>
+      <c r="EI4" s="36"/>
+      <c r="EJ4" s="36"/>
+      <c r="EK4" s="36"/>
+      <c r="EL4" s="36"/>
+      <c r="EM4" s="36"/>
+      <c r="EN4" s="36"/>
+      <c r="EO4" s="36"/>
+      <c r="EP4" s="36"/>
+      <c r="EQ4" s="36"/>
+      <c r="ER4" s="36"/>
+      <c r="ES4" s="36"/>
+      <c r="ET4" s="36"/>
+      <c r="EU4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="34"/>
-      <c r="EW4" s="34"/>
-      <c r="EX4" s="34"/>
-      <c r="EY4" s="34"/>
-      <c r="EZ4" s="34"/>
-      <c r="FA4" s="34"/>
-      <c r="FB4" s="34"/>
-      <c r="FC4" s="34"/>
-      <c r="FD4" s="34"/>
-      <c r="FE4" s="34"/>
-      <c r="FF4" s="34"/>
-      <c r="FG4" s="34"/>
-      <c r="FH4" s="34"/>
-      <c r="FI4" s="34"/>
-      <c r="FJ4" s="34"/>
-      <c r="FK4" s="34"/>
-      <c r="FL4" s="34"/>
-      <c r="FM4" s="34"/>
-      <c r="FN4" s="34"/>
-      <c r="FO4" s="34"/>
-      <c r="FP4" s="34"/>
-      <c r="FQ4" s="34"/>
-      <c r="FR4" s="34"/>
-      <c r="FS4" s="34"/>
-      <c r="FT4" s="34"/>
-      <c r="FU4" s="34"/>
-      <c r="FV4" s="34"/>
-      <c r="FW4" s="34"/>
-      <c r="FX4" s="34"/>
-      <c r="FY4" s="34"/>
-      <c r="FZ4" s="34" t="s">
+      <c r="EV4" s="36"/>
+      <c r="EW4" s="36"/>
+      <c r="EX4" s="36"/>
+      <c r="EY4" s="36"/>
+      <c r="EZ4" s="36"/>
+      <c r="FA4" s="36"/>
+      <c r="FB4" s="36"/>
+      <c r="FC4" s="36"/>
+      <c r="FD4" s="36"/>
+      <c r="FE4" s="36"/>
+      <c r="FF4" s="36"/>
+      <c r="FG4" s="36"/>
+      <c r="FH4" s="36"/>
+      <c r="FI4" s="36"/>
+      <c r="FJ4" s="36"/>
+      <c r="FK4" s="36"/>
+      <c r="FL4" s="36"/>
+      <c r="FM4" s="36"/>
+      <c r="FN4" s="36"/>
+      <c r="FO4" s="36"/>
+      <c r="FP4" s="36"/>
+      <c r="FQ4" s="36"/>
+      <c r="FR4" s="36"/>
+      <c r="FS4" s="36"/>
+      <c r="FT4" s="36"/>
+      <c r="FU4" s="36"/>
+      <c r="FV4" s="36"/>
+      <c r="FW4" s="36"/>
+      <c r="FX4" s="36"/>
+      <c r="FY4" s="36"/>
+      <c r="FZ4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="34"/>
-      <c r="GB4" s="34"/>
-      <c r="GC4" s="34"/>
-      <c r="GD4" s="34"/>
-      <c r="GE4" s="34"/>
-      <c r="GF4" s="34"/>
-      <c r="GG4" s="34"/>
-      <c r="GH4" s="34"/>
-      <c r="GI4" s="34"/>
-      <c r="GJ4" s="34"/>
-      <c r="GK4" s="34"/>
-      <c r="GL4" s="34"/>
-      <c r="GM4" s="34"/>
-      <c r="GN4" s="34"/>
-      <c r="GO4" s="34"/>
-      <c r="GP4" s="34"/>
-      <c r="GQ4" s="34"/>
-      <c r="GR4" s="34"/>
-      <c r="GS4" s="34"/>
-      <c r="GT4" s="34"/>
-      <c r="GU4" s="34"/>
-      <c r="GV4" s="34"/>
-      <c r="GW4" s="34"/>
-      <c r="GX4" s="34"/>
-      <c r="GY4" s="34"/>
-      <c r="GZ4" s="34"/>
-      <c r="HA4" s="34"/>
-      <c r="HB4" s="34" t="s">
+      <c r="GA4" s="36"/>
+      <c r="GB4" s="36"/>
+      <c r="GC4" s="36"/>
+      <c r="GD4" s="36"/>
+      <c r="GE4" s="36"/>
+      <c r="GF4" s="36"/>
+      <c r="GG4" s="36"/>
+      <c r="GH4" s="36"/>
+      <c r="GI4" s="36"/>
+      <c r="GJ4" s="36"/>
+      <c r="GK4" s="36"/>
+      <c r="GL4" s="36"/>
+      <c r="GM4" s="36"/>
+      <c r="GN4" s="36"/>
+      <c r="GO4" s="36"/>
+      <c r="GP4" s="36"/>
+      <c r="GQ4" s="36"/>
+      <c r="GR4" s="36"/>
+      <c r="GS4" s="36"/>
+      <c r="GT4" s="36"/>
+      <c r="GU4" s="36"/>
+      <c r="GV4" s="36"/>
+      <c r="GW4" s="36"/>
+      <c r="GX4" s="36"/>
+      <c r="GY4" s="36"/>
+      <c r="GZ4" s="36"/>
+      <c r="HA4" s="36"/>
+      <c r="HB4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="34"/>
-      <c r="HD4" s="34"/>
-      <c r="HE4" s="34"/>
-      <c r="HF4" s="34"/>
-      <c r="HG4" s="34"/>
-      <c r="HH4" s="34"/>
-      <c r="HI4" s="34"/>
-      <c r="HJ4" s="34"/>
-      <c r="HK4" s="34"/>
-      <c r="HL4" s="34"/>
-      <c r="HM4" s="34"/>
-      <c r="HN4" s="34"/>
-      <c r="HO4" s="34"/>
-      <c r="HP4" s="34"/>
-      <c r="HQ4" s="34"/>
-      <c r="HR4" s="34"/>
-      <c r="HS4" s="34"/>
-      <c r="HT4" s="34"/>
-      <c r="HU4" s="34"/>
-      <c r="HV4" s="34"/>
-      <c r="HW4" s="34"/>
-      <c r="HX4" s="34"/>
-      <c r="HY4" s="34"/>
-      <c r="HZ4" s="34"/>
-      <c r="IA4" s="34"/>
-      <c r="IB4" s="34"/>
-      <c r="IC4" s="34"/>
-      <c r="ID4" s="34"/>
-      <c r="IE4" s="34"/>
-      <c r="IF4" s="35"/>
+      <c r="HC4" s="36"/>
+      <c r="HD4" s="36"/>
+      <c r="HE4" s="36"/>
+      <c r="HF4" s="36"/>
+      <c r="HG4" s="36"/>
+      <c r="HH4" s="36"/>
+      <c r="HI4" s="36"/>
+      <c r="HJ4" s="36"/>
+      <c r="HK4" s="36"/>
+      <c r="HL4" s="36"/>
+      <c r="HM4" s="36"/>
+      <c r="HN4" s="36"/>
+      <c r="HO4" s="36"/>
+      <c r="HP4" s="36"/>
+      <c r="HQ4" s="36"/>
+      <c r="HR4" s="36"/>
+      <c r="HS4" s="36"/>
+      <c r="HT4" s="36"/>
+      <c r="HU4" s="36"/>
+      <c r="HV4" s="36"/>
+      <c r="HW4" s="36"/>
+      <c r="HX4" s="36"/>
+      <c r="HY4" s="36"/>
+      <c r="HZ4" s="36"/>
+      <c r="IA4" s="36"/>
+      <c r="IB4" s="36"/>
+      <c r="IC4" s="36"/>
+      <c r="ID4" s="36"/>
+      <c r="IE4" s="36"/>
+      <c r="IF4" s="38"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2193,7 +2240,7 @@
       <c r="AC6" s="24"/>
       <c r="AD6" s="27">
         <f>SUM(X7:AD7)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE6" s="24">
         <v>15</v>
@@ -2208,7 +2255,7 @@
       <c r="AJ6" s="24"/>
       <c r="AK6" s="27">
         <f>SUM(AE7:AK7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6" s="24">
         <v>12</v>
@@ -2689,15 +2736,25 @@
         <v>1</v>
       </c>
       <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
+      <c r="X7" s="21">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>1</v>
+      </c>
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
+      <c r="AF7" s="21">
+        <v>2</v>
+      </c>
       <c r="AG7" s="21"/>
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
@@ -2927,21 +2984,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="33" t="s">
+      <c r="EM9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="33"/>
-      <c r="EO9" s="33"/>
-      <c r="EP9" s="33"/>
-      <c r="EQ9" s="33"/>
-      <c r="ER9" s="33"/>
-      <c r="ES9" s="33"/>
-      <c r="ET9" s="33"/>
-      <c r="EU9" s="33"/>
-      <c r="EV9" s="33"/>
-      <c r="EW9" s="33"/>
-      <c r="EX9" s="33"/>
-      <c r="EY9" s="33"/>
+      <c r="EN9" s="37"/>
+      <c r="EO9" s="37"/>
+      <c r="EP9" s="37"/>
+      <c r="EQ9" s="37"/>
+      <c r="ER9" s="37"/>
+      <c r="ES9" s="37"/>
+      <c r="ET9" s="37"/>
+      <c r="EU9" s="37"/>
+      <c r="EV9" s="37"/>
+      <c r="EW9" s="37"/>
+      <c r="EX9" s="37"/>
+      <c r="EY9" s="37"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -2956,21 +3013,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="33" t="s">
+      <c r="EM10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="33"/>
-      <c r="EO10" s="33"/>
-      <c r="EP10" s="33"/>
-      <c r="EQ10" s="33"/>
-      <c r="ER10" s="33"/>
-      <c r="ES10" s="33"/>
-      <c r="ET10" s="33"/>
-      <c r="EU10" s="33"/>
-      <c r="EV10" s="33"/>
-      <c r="EW10" s="33"/>
-      <c r="EX10" s="33"/>
-      <c r="EY10" s="33"/>
+      <c r="EN10" s="37"/>
+      <c r="EO10" s="37"/>
+      <c r="EP10" s="37"/>
+      <c r="EQ10" s="37"/>
+      <c r="ER10" s="37"/>
+      <c r="ES10" s="37"/>
+      <c r="ET10" s="37"/>
+      <c r="EU10" s="37"/>
+      <c r="EV10" s="37"/>
+      <c r="EW10" s="37"/>
+      <c r="EX10" s="37"/>
+      <c r="EY10" s="37"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -2984,21 +3041,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="33" t="s">
+      <c r="EM11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="33"/>
-      <c r="EO11" s="33"/>
-      <c r="EP11" s="33"/>
-      <c r="EQ11" s="33"/>
-      <c r="ER11" s="33"/>
-      <c r="ES11" s="33"/>
-      <c r="ET11" s="33"/>
-      <c r="EU11" s="33"/>
-      <c r="EV11" s="33"/>
-      <c r="EW11" s="33"/>
-      <c r="EX11" s="33"/>
-      <c r="EY11" s="33"/>
+      <c r="EN11" s="37"/>
+      <c r="EO11" s="37"/>
+      <c r="EP11" s="37"/>
+      <c r="EQ11" s="37"/>
+      <c r="ER11" s="37"/>
+      <c r="ES11" s="37"/>
+      <c r="ET11" s="37"/>
+      <c r="EU11" s="37"/>
+      <c r="EV11" s="37"/>
+      <c r="EW11" s="37"/>
+      <c r="EX11" s="37"/>
+      <c r="EY11" s="37"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -3020,21 +3077,21 @@
       <c r="S12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="33" t="s">
+      <c r="EM12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="33"/>
-      <c r="EO12" s="33"/>
-      <c r="EP12" s="33"/>
-      <c r="EQ12" s="33"/>
-      <c r="ER12" s="33"/>
-      <c r="ES12" s="33"/>
-      <c r="ET12" s="33"/>
-      <c r="EU12" s="33"/>
-      <c r="EV12" s="33"/>
-      <c r="EW12" s="33"/>
-      <c r="EX12" s="33"/>
-      <c r="EY12" s="33"/>
+      <c r="EN12" s="37"/>
+      <c r="EO12" s="37"/>
+      <c r="EP12" s="37"/>
+      <c r="EQ12" s="37"/>
+      <c r="ER12" s="37"/>
+      <c r="ES12" s="37"/>
+      <c r="ET12" s="37"/>
+      <c r="EU12" s="37"/>
+      <c r="EV12" s="37"/>
+      <c r="EW12" s="37"/>
+      <c r="EX12" s="37"/>
+      <c r="EY12" s="37"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -3047,39 +3104,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="33" t="s">
+      <c r="EM13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="33"/>
-      <c r="EO13" s="33"/>
-      <c r="EP13" s="33"/>
-      <c r="EQ13" s="33"/>
-      <c r="ER13" s="33"/>
-      <c r="ES13" s="33"/>
-      <c r="ET13" s="33"/>
-      <c r="EU13" s="33"/>
-      <c r="EV13" s="33"/>
-      <c r="EW13" s="33"/>
-      <c r="EX13" s="33"/>
-      <c r="EY13" s="33"/>
+      <c r="EN13" s="37"/>
+      <c r="EO13" s="37"/>
+      <c r="EP13" s="37"/>
+      <c r="EQ13" s="37"/>
+      <c r="ER13" s="37"/>
+      <c r="ES13" s="37"/>
+      <c r="ET13" s="37"/>
+      <c r="EU13" s="37"/>
+      <c r="EV13" s="37"/>
+      <c r="EW13" s="37"/>
+      <c r="EX13" s="37"/>
+      <c r="EY13" s="37"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="33" t="s">
+      <c r="EM14" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="33"/>
-      <c r="EO14" s="33"/>
-      <c r="EP14" s="33"/>
-      <c r="EQ14" s="33"/>
-      <c r="ER14" s="33"/>
-      <c r="ES14" s="33"/>
-      <c r="ET14" s="33"/>
-      <c r="EU14" s="33"/>
-      <c r="EV14" s="33"/>
-      <c r="EW14" s="33"/>
-      <c r="EX14" s="33"/>
-      <c r="EY14" s="33"/>
+      <c r="EN14" s="37"/>
+      <c r="EO14" s="37"/>
+      <c r="EP14" s="37"/>
+      <c r="EQ14" s="37"/>
+      <c r="ER14" s="37"/>
+      <c r="ES14" s="37"/>
+      <c r="ET14" s="37"/>
+      <c r="EU14" s="37"/>
+      <c r="EV14" s="37"/>
+      <c r="EW14" s="37"/>
+      <c r="EX14" s="37"/>
+      <c r="EY14" s="37"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3118,21 +3175,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="33" t="s">
+      <c r="EM15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="33"/>
-      <c r="EO15" s="33"/>
-      <c r="EP15" s="33"/>
-      <c r="EQ15" s="33"/>
-      <c r="ER15" s="33"/>
-      <c r="ES15" s="33"/>
-      <c r="ET15" s="33"/>
-      <c r="EU15" s="33"/>
-      <c r="EV15" s="33"/>
-      <c r="EW15" s="33"/>
-      <c r="EX15" s="33"/>
-      <c r="EY15" s="33"/>
+      <c r="EN15" s="37"/>
+      <c r="EO15" s="37"/>
+      <c r="EP15" s="37"/>
+      <c r="EQ15" s="37"/>
+      <c r="ER15" s="37"/>
+      <c r="ES15" s="37"/>
+      <c r="ET15" s="37"/>
+      <c r="EU15" s="37"/>
+      <c r="EV15" s="37"/>
+      <c r="EW15" s="37"/>
+      <c r="EX15" s="37"/>
+      <c r="EY15" s="37"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3143,39 +3200,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="33" t="s">
+      <c r="EM16" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="33"/>
-      <c r="EO16" s="33"/>
-      <c r="EP16" s="33"/>
-      <c r="EQ16" s="33"/>
-      <c r="ER16" s="33"/>
-      <c r="ES16" s="33"/>
-      <c r="ET16" s="33"/>
-      <c r="EU16" s="33"/>
-      <c r="EV16" s="33"/>
-      <c r="EW16" s="33"/>
-      <c r="EX16" s="33"/>
-      <c r="EY16" s="33"/>
+      <c r="EN16" s="37"/>
+      <c r="EO16" s="37"/>
+      <c r="EP16" s="37"/>
+      <c r="EQ16" s="37"/>
+      <c r="ER16" s="37"/>
+      <c r="ES16" s="37"/>
+      <c r="ET16" s="37"/>
+      <c r="EU16" s="37"/>
+      <c r="EV16" s="37"/>
+      <c r="EW16" s="37"/>
+      <c r="EX16" s="37"/>
+      <c r="EY16" s="37"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="33" t="s">
+      <c r="EM17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="33"/>
-      <c r="EO17" s="33"/>
-      <c r="EP17" s="33"/>
-      <c r="EQ17" s="33"/>
-      <c r="ER17" s="33"/>
-      <c r="ES17" s="33"/>
-      <c r="ET17" s="33"/>
-      <c r="EU17" s="33"/>
-      <c r="EV17" s="33"/>
-      <c r="EW17" s="33"/>
-      <c r="EX17" s="33"/>
-      <c r="EY17" s="33"/>
+      <c r="EN17" s="37"/>
+      <c r="EO17" s="37"/>
+      <c r="EP17" s="37"/>
+      <c r="EQ17" s="37"/>
+      <c r="ER17" s="37"/>
+      <c r="ES17" s="37"/>
+      <c r="ET17" s="37"/>
+      <c r="EU17" s="37"/>
+      <c r="EV17" s="37"/>
+      <c r="EW17" s="37"/>
+      <c r="EX17" s="37"/>
+      <c r="EY17" s="37"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3241,39 +3298,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="33" t="s">
+      <c r="EM18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="33"/>
-      <c r="EO18" s="33"/>
-      <c r="EP18" s="33"/>
-      <c r="EQ18" s="33"/>
-      <c r="ER18" s="33"/>
-      <c r="ES18" s="33"/>
-      <c r="ET18" s="33"/>
-      <c r="EU18" s="33"/>
-      <c r="EV18" s="33"/>
-      <c r="EW18" s="33"/>
-      <c r="EX18" s="33"/>
-      <c r="EY18" s="33"/>
+      <c r="EN18" s="37"/>
+      <c r="EO18" s="37"/>
+      <c r="EP18" s="37"/>
+      <c r="EQ18" s="37"/>
+      <c r="ER18" s="37"/>
+      <c r="ES18" s="37"/>
+      <c r="ET18" s="37"/>
+      <c r="EU18" s="37"/>
+      <c r="EV18" s="37"/>
+      <c r="EW18" s="37"/>
+      <c r="EX18" s="37"/>
+      <c r="EY18" s="37"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="33" t="s">
+      <c r="EM19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="33"/>
-      <c r="EO19" s="33"/>
-      <c r="EP19" s="33"/>
-      <c r="EQ19" s="33"/>
-      <c r="ER19" s="33"/>
-      <c r="ES19" s="33"/>
-      <c r="ET19" s="33"/>
-      <c r="EU19" s="33"/>
-      <c r="EV19" s="33"/>
-      <c r="EW19" s="33"/>
-      <c r="EX19" s="33"/>
-      <c r="EY19" s="33"/>
+      <c r="EN19" s="37"/>
+      <c r="EO19" s="37"/>
+      <c r="EP19" s="37"/>
+      <c r="EQ19" s="37"/>
+      <c r="ER19" s="37"/>
+      <c r="ES19" s="37"/>
+      <c r="ET19" s="37"/>
+      <c r="EU19" s="37"/>
+      <c r="EV19" s="37"/>
+      <c r="EW19" s="37"/>
+      <c r="EX19" s="37"/>
+      <c r="EY19" s="37"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3303,15 +3360,21 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
+      <c r="X20" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
+      <c r="AA20" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
       <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+      <c r="AF20" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="13"/>
@@ -3422,21 +3485,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="33" t="s">
+      <c r="EM20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="33"/>
-      <c r="EO20" s="33"/>
-      <c r="EP20" s="33"/>
-      <c r="EQ20" s="33"/>
-      <c r="ER20" s="33"/>
-      <c r="ES20" s="33"/>
-      <c r="ET20" s="33"/>
-      <c r="EU20" s="33"/>
-      <c r="EV20" s="33"/>
-      <c r="EW20" s="33"/>
-      <c r="EX20" s="33"/>
-      <c r="EY20" s="33"/>
+      <c r="EN20" s="37"/>
+      <c r="EO20" s="37"/>
+      <c r="EP20" s="37"/>
+      <c r="EQ20" s="37"/>
+      <c r="ER20" s="37"/>
+      <c r="ES20" s="37"/>
+      <c r="ET20" s="37"/>
+      <c r="EU20" s="37"/>
+      <c r="EV20" s="37"/>
+      <c r="EW20" s="37"/>
+      <c r="EX20" s="37"/>
+      <c r="EY20" s="37"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3447,21 +3510,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="33" t="s">
+      <c r="EM21" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="33"/>
-      <c r="EO21" s="33"/>
-      <c r="EP21" s="33"/>
-      <c r="EQ21" s="33"/>
-      <c r="ER21" s="33"/>
-      <c r="ES21" s="33"/>
-      <c r="ET21" s="33"/>
-      <c r="EU21" s="33"/>
-      <c r="EV21" s="33"/>
-      <c r="EW21" s="33"/>
-      <c r="EX21" s="33"/>
-      <c r="EY21" s="33"/>
+      <c r="EN21" s="37"/>
+      <c r="EO21" s="37"/>
+      <c r="EP21" s="37"/>
+      <c r="EQ21" s="37"/>
+      <c r="ER21" s="37"/>
+      <c r="ES21" s="37"/>
+      <c r="ET21" s="37"/>
+      <c r="EU21" s="37"/>
+      <c r="EV21" s="37"/>
+      <c r="EW21" s="37"/>
+      <c r="EX21" s="37"/>
+      <c r="EY21" s="37"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3472,21 +3535,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="33" t="s">
+      <c r="EM22" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="33"/>
-      <c r="EO22" s="33"/>
-      <c r="EP22" s="33"/>
-      <c r="EQ22" s="33"/>
-      <c r="ER22" s="33"/>
-      <c r="ES22" s="33"/>
-      <c r="ET22" s="33"/>
-      <c r="EU22" s="33"/>
-      <c r="EV22" s="33"/>
-      <c r="EW22" s="33"/>
-      <c r="EX22" s="33"/>
-      <c r="EY22" s="33"/>
+      <c r="EN22" s="37"/>
+      <c r="EO22" s="37"/>
+      <c r="EP22" s="37"/>
+      <c r="EQ22" s="37"/>
+      <c r="ER22" s="37"/>
+      <c r="ES22" s="37"/>
+      <c r="ET22" s="37"/>
+      <c r="EU22" s="37"/>
+      <c r="EV22" s="37"/>
+      <c r="EW22" s="37"/>
+      <c r="EX22" s="37"/>
+      <c r="EY22" s="37"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3497,39 +3560,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="33" t="s">
+      <c r="EM23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="33"/>
-      <c r="EO23" s="33"/>
-      <c r="EP23" s="33"/>
-      <c r="EQ23" s="33"/>
-      <c r="ER23" s="33"/>
-      <c r="ES23" s="33"/>
-      <c r="ET23" s="33"/>
-      <c r="EU23" s="33"/>
-      <c r="EV23" s="33"/>
-      <c r="EW23" s="33"/>
-      <c r="EX23" s="33"/>
-      <c r="EY23" s="33"/>
+      <c r="EN23" s="37"/>
+      <c r="EO23" s="37"/>
+      <c r="EP23" s="37"/>
+      <c r="EQ23" s="37"/>
+      <c r="ER23" s="37"/>
+      <c r="ES23" s="37"/>
+      <c r="ET23" s="37"/>
+      <c r="EU23" s="37"/>
+      <c r="EV23" s="37"/>
+      <c r="EW23" s="37"/>
+      <c r="EX23" s="37"/>
+      <c r="EY23" s="37"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="33" t="s">
+      <c r="EM24" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="33"/>
-      <c r="EO24" s="33"/>
-      <c r="EP24" s="33"/>
-      <c r="EQ24" s="33"/>
-      <c r="ER24" s="33"/>
-      <c r="ES24" s="33"/>
-      <c r="ET24" s="33"/>
-      <c r="EU24" s="33"/>
-      <c r="EV24" s="33"/>
-      <c r="EW24" s="33"/>
-      <c r="EX24" s="33"/>
-      <c r="EY24" s="33"/>
+      <c r="EN24" s="37"/>
+      <c r="EO24" s="37"/>
+      <c r="EP24" s="37"/>
+      <c r="EQ24" s="37"/>
+      <c r="ER24" s="37"/>
+      <c r="ES24" s="37"/>
+      <c r="ET24" s="37"/>
+      <c r="EU24" s="37"/>
+      <c r="EV24" s="37"/>
+      <c r="EW24" s="37"/>
+      <c r="EX24" s="37"/>
+      <c r="EY24" s="37"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3678,21 +3741,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="33" t="s">
+      <c r="EM25" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="33"/>
-      <c r="EO25" s="33"/>
-      <c r="EP25" s="33"/>
-      <c r="EQ25" s="33"/>
-      <c r="ER25" s="33"/>
-      <c r="ES25" s="33"/>
-      <c r="ET25" s="33"/>
-      <c r="EU25" s="33"/>
-      <c r="EV25" s="33"/>
-      <c r="EW25" s="33"/>
-      <c r="EX25" s="33"/>
-      <c r="EY25" s="33"/>
+      <c r="EN25" s="37"/>
+      <c r="EO25" s="37"/>
+      <c r="EP25" s="37"/>
+      <c r="EQ25" s="37"/>
+      <c r="ER25" s="37"/>
+      <c r="ES25" s="37"/>
+      <c r="ET25" s="37"/>
+      <c r="EU25" s="37"/>
+      <c r="EV25" s="37"/>
+      <c r="EW25" s="37"/>
+      <c r="EX25" s="37"/>
+      <c r="EY25" s="37"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3729,40 +3792,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="33" t="s">
+      <c r="EM26" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="33"/>
-      <c r="EO26" s="33"/>
-      <c r="EP26" s="33"/>
-      <c r="EQ26" s="33"/>
-      <c r="ER26" s="33"/>
-      <c r="ES26" s="33"/>
-      <c r="ET26" s="33"/>
-      <c r="EU26" s="33"/>
-      <c r="EV26" s="33"/>
-      <c r="EW26" s="33"/>
-      <c r="EX26" s="33"/>
-      <c r="EY26" s="33"/>
+      <c r="EN26" s="37"/>
+      <c r="EO26" s="37"/>
+      <c r="EP26" s="37"/>
+      <c r="EQ26" s="37"/>
+      <c r="ER26" s="37"/>
+      <c r="ES26" s="37"/>
+      <c r="ET26" s="37"/>
+      <c r="EU26" s="37"/>
+      <c r="EV26" s="37"/>
+      <c r="EW26" s="37"/>
+      <c r="EX26" s="37"/>
+      <c r="EY26" s="37"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="33" t="s">
+      <c r="EM27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="33"/>
-      <c r="EO27" s="33"/>
-      <c r="EP27" s="33"/>
-      <c r="EQ27" s="33"/>
-      <c r="ER27" s="33"/>
-      <c r="ES27" s="33"/>
-      <c r="ET27" s="33"/>
-      <c r="EU27" s="33"/>
-      <c r="EV27" s="33"/>
-      <c r="EW27" s="33"/>
-      <c r="EX27" s="33"/>
-      <c r="EY27" s="33"/>
+      <c r="EN27" s="37"/>
+      <c r="EO27" s="37"/>
+      <c r="EP27" s="37"/>
+      <c r="EQ27" s="37"/>
+      <c r="ER27" s="37"/>
+      <c r="ES27" s="37"/>
+      <c r="ET27" s="37"/>
+      <c r="EU27" s="37"/>
+      <c r="EV27" s="37"/>
+      <c r="EW27" s="37"/>
+      <c r="EX27" s="37"/>
+      <c r="EY27" s="37"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3911,21 +3974,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="33" t="s">
+      <c r="EM28" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="33"/>
-      <c r="EO28" s="33"/>
-      <c r="EP28" s="33"/>
-      <c r="EQ28" s="33"/>
-      <c r="ER28" s="33"/>
-      <c r="ES28" s="33"/>
-      <c r="ET28" s="33"/>
-      <c r="EU28" s="33"/>
-      <c r="EV28" s="33"/>
-      <c r="EW28" s="33"/>
-      <c r="EX28" s="33"/>
-      <c r="EY28" s="33"/>
+      <c r="EN28" s="37"/>
+      <c r="EO28" s="37"/>
+      <c r="EP28" s="37"/>
+      <c r="EQ28" s="37"/>
+      <c r="ER28" s="37"/>
+      <c r="ES28" s="37"/>
+      <c r="ET28" s="37"/>
+      <c r="EU28" s="37"/>
+      <c r="EV28" s="37"/>
+      <c r="EW28" s="37"/>
+      <c r="EX28" s="37"/>
+      <c r="EY28" s="37"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -3999,21 +4062,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="33" t="s">
+      <c r="EM29" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="33"/>
-      <c r="EO29" s="33"/>
-      <c r="EP29" s="33"/>
-      <c r="EQ29" s="33"/>
-      <c r="ER29" s="33"/>
-      <c r="ES29" s="33"/>
-      <c r="ET29" s="33"/>
-      <c r="EU29" s="33"/>
-      <c r="EV29" s="33"/>
-      <c r="EW29" s="33"/>
-      <c r="EX29" s="33"/>
-      <c r="EY29" s="33"/>
+      <c r="EN29" s="37"/>
+      <c r="EO29" s="37"/>
+      <c r="EP29" s="37"/>
+      <c r="EQ29" s="37"/>
+      <c r="ER29" s="37"/>
+      <c r="ES29" s="37"/>
+      <c r="ET29" s="37"/>
+      <c r="EU29" s="37"/>
+      <c r="EV29" s="37"/>
+      <c r="EW29" s="37"/>
+      <c r="EX29" s="37"/>
+      <c r="EY29" s="37"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4162,21 +4225,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="33" t="s">
+      <c r="EM30" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="33"/>
-      <c r="EO30" s="33"/>
-      <c r="EP30" s="33"/>
-      <c r="EQ30" s="33"/>
-      <c r="ER30" s="33"/>
-      <c r="ES30" s="33"/>
-      <c r="ET30" s="33"/>
-      <c r="EU30" s="33"/>
-      <c r="EV30" s="33"/>
-      <c r="EW30" s="33"/>
-      <c r="EX30" s="33"/>
-      <c r="EY30" s="33"/>
+      <c r="EN30" s="37"/>
+      <c r="EO30" s="37"/>
+      <c r="EP30" s="37"/>
+      <c r="EQ30" s="37"/>
+      <c r="ER30" s="37"/>
+      <c r="ES30" s="37"/>
+      <c r="ET30" s="37"/>
+      <c r="EU30" s="37"/>
+      <c r="EV30" s="37"/>
+      <c r="EW30" s="37"/>
+      <c r="EX30" s="37"/>
+      <c r="EY30" s="37"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4264,103 +4327,109 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="33" t="s">
+      <c r="EM31" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="33"/>
-      <c r="EO31" s="33"/>
-      <c r="EP31" s="33"/>
-      <c r="EQ31" s="33"/>
-      <c r="ER31" s="33"/>
-      <c r="ES31" s="33"/>
-      <c r="ET31" s="33"/>
-      <c r="EU31" s="33"/>
-      <c r="EV31" s="33"/>
-      <c r="EW31" s="33"/>
-      <c r="EX31" s="33"/>
-      <c r="EY31" s="33"/>
+      <c r="EN31" s="37"/>
+      <c r="EO31" s="37"/>
+      <c r="EP31" s="37"/>
+      <c r="EQ31" s="37"/>
+      <c r="ER31" s="37"/>
+      <c r="ES31" s="37"/>
+      <c r="ET31" s="37"/>
+      <c r="EU31" s="37"/>
+      <c r="EV31" s="37"/>
+      <c r="EW31" s="37"/>
+      <c r="EX31" s="37"/>
+      <c r="EY31" s="37"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="33" t="s">
+      <c r="EM32" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="33"/>
-      <c r="EO32" s="33"/>
-      <c r="EP32" s="33"/>
-      <c r="EQ32" s="33"/>
-      <c r="ER32" s="33"/>
-      <c r="ES32" s="33"/>
-      <c r="ET32" s="33"/>
-      <c r="EU32" s="33"/>
-      <c r="EV32" s="33"/>
-      <c r="EW32" s="33"/>
-      <c r="EX32" s="33"/>
-      <c r="EY32" s="33"/>
+      <c r="EN32" s="37"/>
+      <c r="EO32" s="37"/>
+      <c r="EP32" s="37"/>
+      <c r="EQ32" s="37"/>
+      <c r="ER32" s="37"/>
+      <c r="ES32" s="37"/>
+      <c r="ET32" s="37"/>
+      <c r="EU32" s="37"/>
+      <c r="EV32" s="37"/>
+      <c r="EW32" s="37"/>
+      <c r="EX32" s="37"/>
+      <c r="EY32" s="37"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="33" t="s">
+      <c r="EM33" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="33"/>
-      <c r="EO33" s="33"/>
-      <c r="EP33" s="33"/>
-      <c r="EQ33" s="33"/>
-      <c r="ER33" s="33"/>
-      <c r="ES33" s="33"/>
-      <c r="ET33" s="33"/>
-      <c r="EU33" s="33"/>
-      <c r="EV33" s="33"/>
-      <c r="EW33" s="33"/>
-      <c r="EX33" s="33"/>
-      <c r="EY33" s="33"/>
+      <c r="EN33" s="37"/>
+      <c r="EO33" s="37"/>
+      <c r="EP33" s="37"/>
+      <c r="EQ33" s="37"/>
+      <c r="ER33" s="37"/>
+      <c r="ES33" s="37"/>
+      <c r="ET33" s="37"/>
+      <c r="EU33" s="37"/>
+      <c r="EV33" s="37"/>
+      <c r="EW33" s="37"/>
+      <c r="EX33" s="37"/>
+      <c r="EY33" s="37"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="33" t="s">
+      <c r="EM34" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="33"/>
-      <c r="EO34" s="33"/>
-      <c r="EP34" s="33"/>
-      <c r="EQ34" s="33"/>
-      <c r="ER34" s="33"/>
-      <c r="ES34" s="33"/>
-      <c r="ET34" s="33"/>
-      <c r="EU34" s="33"/>
-      <c r="EV34" s="33"/>
-      <c r="EW34" s="33"/>
-      <c r="EX34" s="33"/>
-      <c r="EY34" s="33"/>
+      <c r="EN34" s="37"/>
+      <c r="EO34" s="37"/>
+      <c r="EP34" s="37"/>
+      <c r="EQ34" s="37"/>
+      <c r="ER34" s="37"/>
+      <c r="ES34" s="37"/>
+      <c r="ET34" s="37"/>
+      <c r="EU34" s="37"/>
+      <c r="EV34" s="37"/>
+      <c r="EW34" s="37"/>
+      <c r="EX34" s="37"/>
+      <c r="EY34" s="37"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="33" t="s">
+      <c r="EM35" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="33"/>
-      <c r="EO35" s="33"/>
-      <c r="EP35" s="33"/>
-      <c r="EQ35" s="33"/>
-      <c r="ER35" s="33"/>
-      <c r="ES35" s="33"/>
-      <c r="ET35" s="33"/>
-      <c r="EU35" s="33"/>
-      <c r="EV35" s="33"/>
-      <c r="EW35" s="33"/>
-      <c r="EX35" s="33"/>
-      <c r="EY35" s="33"/>
+      <c r="EN35" s="37"/>
+      <c r="EO35" s="37"/>
+      <c r="EP35" s="37"/>
+      <c r="EQ35" s="37"/>
+      <c r="ER35" s="37"/>
+      <c r="ES35" s="37"/>
+      <c r="ET35" s="37"/>
+      <c r="EU35" s="37"/>
+      <c r="EV35" s="37"/>
+      <c r="EW35" s="37"/>
+      <c r="EX35" s="37"/>
+      <c r="EY35" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4374,23 +4443,17 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tidplan/Tidplan.xlsx
+++ b/Tidplan/Tidplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="10515" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportering" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Diverse</t>
+  </si>
+  <si>
+    <t>Glasskador + Analys skador</t>
+  </si>
+  <si>
+    <t>Dataset2, Helårsförsäkringar med tillhörande skador</t>
   </si>
 </sst>
 </file>
@@ -457,22 +463,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,12 +781,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,7 +802,7 @@
       </c>
       <c r="C2" s="17">
         <f>SUM(C3:C125)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1024,8 +1030,54 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="2">
+        <v>41157</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>41158</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
+        <v>41159</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
+        <v>41160</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,33 +1196,33 @@
         <v>16</v>
       </c>
       <c r="C1" s="9"/>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38">
         <f>32*13.5</f>
         <v>432</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="S1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34">
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38">
         <f>IA6</f>
         <v>389</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
@@ -1188,20 +1240,20 @@
         <v>17</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38">
         <f>SUM(C7:IF7)</f>
-        <v>21</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:240" ht="15.75" thickBot="1">
       <c r="B3" t="s">
@@ -1210,260 +1262,260 @@
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:240">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36" t="s">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-      <c r="CF4" s="36"/>
-      <c r="CG4" s="36"/>
-      <c r="CH4" s="36"/>
-      <c r="CI4" s="36"/>
-      <c r="CJ4" s="36"/>
-      <c r="CK4" s="36"/>
-      <c r="CL4" s="36" t="s">
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="34"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="34"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="34"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="34"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="34"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="34"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="34"/>
+      <c r="CH4" s="34"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="34"/>
+      <c r="CK4" s="34"/>
+      <c r="CL4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CM4" s="36"/>
-      <c r="CN4" s="36"/>
-      <c r="CO4" s="36"/>
-      <c r="CP4" s="36"/>
-      <c r="CQ4" s="36"/>
-      <c r="CR4" s="36"/>
-      <c r="CS4" s="36"/>
-      <c r="CT4" s="36"/>
-      <c r="CU4" s="36"/>
-      <c r="CV4" s="36"/>
-      <c r="CW4" s="36"/>
-      <c r="CX4" s="36"/>
-      <c r="CY4" s="36"/>
-      <c r="CZ4" s="36"/>
-      <c r="DA4" s="36"/>
-      <c r="DB4" s="36"/>
-      <c r="DC4" s="36"/>
-      <c r="DD4" s="36"/>
-      <c r="DE4" s="36"/>
-      <c r="DF4" s="36"/>
-      <c r="DG4" s="36"/>
-      <c r="DH4" s="36"/>
-      <c r="DI4" s="36"/>
-      <c r="DJ4" s="36"/>
-      <c r="DK4" s="36"/>
-      <c r="DL4" s="36"/>
-      <c r="DM4" s="36"/>
-      <c r="DN4" s="36"/>
-      <c r="DO4" s="36"/>
-      <c r="DP4" s="36" t="s">
+      <c r="CM4" s="34"/>
+      <c r="CN4" s="34"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="34"/>
+      <c r="CQ4" s="34"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="34"/>
+      <c r="CT4" s="34"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="34"/>
+      <c r="CW4" s="34"/>
+      <c r="CX4" s="34"/>
+      <c r="CY4" s="34"/>
+      <c r="CZ4" s="34"/>
+      <c r="DA4" s="34"/>
+      <c r="DB4" s="34"/>
+      <c r="DC4" s="34"/>
+      <c r="DD4" s="34"/>
+      <c r="DE4" s="34"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="34"/>
+      <c r="DH4" s="34"/>
+      <c r="DI4" s="34"/>
+      <c r="DJ4" s="34"/>
+      <c r="DK4" s="34"/>
+      <c r="DL4" s="34"/>
+      <c r="DM4" s="34"/>
+      <c r="DN4" s="34"/>
+      <c r="DO4" s="34"/>
+      <c r="DP4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="DQ4" s="36"/>
-      <c r="DR4" s="36"/>
-      <c r="DS4" s="36"/>
-      <c r="DT4" s="36"/>
-      <c r="DU4" s="36"/>
-      <c r="DV4" s="36"/>
-      <c r="DW4" s="36"/>
-      <c r="DX4" s="36"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="36"/>
-      <c r="EA4" s="36"/>
-      <c r="EB4" s="36"/>
-      <c r="EC4" s="36"/>
-      <c r="ED4" s="36"/>
-      <c r="EE4" s="36"/>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="36"/>
-      <c r="EH4" s="36"/>
-      <c r="EI4" s="36"/>
-      <c r="EJ4" s="36"/>
-      <c r="EK4" s="36"/>
-      <c r="EL4" s="36"/>
-      <c r="EM4" s="36"/>
-      <c r="EN4" s="36"/>
-      <c r="EO4" s="36"/>
-      <c r="EP4" s="36"/>
-      <c r="EQ4" s="36"/>
-      <c r="ER4" s="36"/>
-      <c r="ES4" s="36"/>
-      <c r="ET4" s="36"/>
-      <c r="EU4" s="36" t="s">
+      <c r="DQ4" s="34"/>
+      <c r="DR4" s="34"/>
+      <c r="DS4" s="34"/>
+      <c r="DT4" s="34"/>
+      <c r="DU4" s="34"/>
+      <c r="DV4" s="34"/>
+      <c r="DW4" s="34"/>
+      <c r="DX4" s="34"/>
+      <c r="DY4" s="34"/>
+      <c r="DZ4" s="34"/>
+      <c r="EA4" s="34"/>
+      <c r="EB4" s="34"/>
+      <c r="EC4" s="34"/>
+      <c r="ED4" s="34"/>
+      <c r="EE4" s="34"/>
+      <c r="EF4" s="34"/>
+      <c r="EG4" s="34"/>
+      <c r="EH4" s="34"/>
+      <c r="EI4" s="34"/>
+      <c r="EJ4" s="34"/>
+      <c r="EK4" s="34"/>
+      <c r="EL4" s="34"/>
+      <c r="EM4" s="34"/>
+      <c r="EN4" s="34"/>
+      <c r="EO4" s="34"/>
+      <c r="EP4" s="34"/>
+      <c r="EQ4" s="34"/>
+      <c r="ER4" s="34"/>
+      <c r="ES4" s="34"/>
+      <c r="ET4" s="34"/>
+      <c r="EU4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="EV4" s="36"/>
-      <c r="EW4" s="36"/>
-      <c r="EX4" s="36"/>
-      <c r="EY4" s="36"/>
-      <c r="EZ4" s="36"/>
-      <c r="FA4" s="36"/>
-      <c r="FB4" s="36"/>
-      <c r="FC4" s="36"/>
-      <c r="FD4" s="36"/>
-      <c r="FE4" s="36"/>
-      <c r="FF4" s="36"/>
-      <c r="FG4" s="36"/>
-      <c r="FH4" s="36"/>
-      <c r="FI4" s="36"/>
-      <c r="FJ4" s="36"/>
-      <c r="FK4" s="36"/>
-      <c r="FL4" s="36"/>
-      <c r="FM4" s="36"/>
-      <c r="FN4" s="36"/>
-      <c r="FO4" s="36"/>
-      <c r="FP4" s="36"/>
-      <c r="FQ4" s="36"/>
-      <c r="FR4" s="36"/>
-      <c r="FS4" s="36"/>
-      <c r="FT4" s="36"/>
-      <c r="FU4" s="36"/>
-      <c r="FV4" s="36"/>
-      <c r="FW4" s="36"/>
-      <c r="FX4" s="36"/>
-      <c r="FY4" s="36"/>
-      <c r="FZ4" s="36" t="s">
+      <c r="EV4" s="34"/>
+      <c r="EW4" s="34"/>
+      <c r="EX4" s="34"/>
+      <c r="EY4" s="34"/>
+      <c r="EZ4" s="34"/>
+      <c r="FA4" s="34"/>
+      <c r="FB4" s="34"/>
+      <c r="FC4" s="34"/>
+      <c r="FD4" s="34"/>
+      <c r="FE4" s="34"/>
+      <c r="FF4" s="34"/>
+      <c r="FG4" s="34"/>
+      <c r="FH4" s="34"/>
+      <c r="FI4" s="34"/>
+      <c r="FJ4" s="34"/>
+      <c r="FK4" s="34"/>
+      <c r="FL4" s="34"/>
+      <c r="FM4" s="34"/>
+      <c r="FN4" s="34"/>
+      <c r="FO4" s="34"/>
+      <c r="FP4" s="34"/>
+      <c r="FQ4" s="34"/>
+      <c r="FR4" s="34"/>
+      <c r="FS4" s="34"/>
+      <c r="FT4" s="34"/>
+      <c r="FU4" s="34"/>
+      <c r="FV4" s="34"/>
+      <c r="FW4" s="34"/>
+      <c r="FX4" s="34"/>
+      <c r="FY4" s="34"/>
+      <c r="FZ4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="GA4" s="36"/>
-      <c r="GB4" s="36"/>
-      <c r="GC4" s="36"/>
-      <c r="GD4" s="36"/>
-      <c r="GE4" s="36"/>
-      <c r="GF4" s="36"/>
-      <c r="GG4" s="36"/>
-      <c r="GH4" s="36"/>
-      <c r="GI4" s="36"/>
-      <c r="GJ4" s="36"/>
-      <c r="GK4" s="36"/>
-      <c r="GL4" s="36"/>
-      <c r="GM4" s="36"/>
-      <c r="GN4" s="36"/>
-      <c r="GO4" s="36"/>
-      <c r="GP4" s="36"/>
-      <c r="GQ4" s="36"/>
-      <c r="GR4" s="36"/>
-      <c r="GS4" s="36"/>
-      <c r="GT4" s="36"/>
-      <c r="GU4" s="36"/>
-      <c r="GV4" s="36"/>
-      <c r="GW4" s="36"/>
-      <c r="GX4" s="36"/>
-      <c r="GY4" s="36"/>
-      <c r="GZ4" s="36"/>
-      <c r="HA4" s="36"/>
-      <c r="HB4" s="36" t="s">
+      <c r="GA4" s="34"/>
+      <c r="GB4" s="34"/>
+      <c r="GC4" s="34"/>
+      <c r="GD4" s="34"/>
+      <c r="GE4" s="34"/>
+      <c r="GF4" s="34"/>
+      <c r="GG4" s="34"/>
+      <c r="GH4" s="34"/>
+      <c r="GI4" s="34"/>
+      <c r="GJ4" s="34"/>
+      <c r="GK4" s="34"/>
+      <c r="GL4" s="34"/>
+      <c r="GM4" s="34"/>
+      <c r="GN4" s="34"/>
+      <c r="GO4" s="34"/>
+      <c r="GP4" s="34"/>
+      <c r="GQ4" s="34"/>
+      <c r="GR4" s="34"/>
+      <c r="GS4" s="34"/>
+      <c r="GT4" s="34"/>
+      <c r="GU4" s="34"/>
+      <c r="GV4" s="34"/>
+      <c r="GW4" s="34"/>
+      <c r="GX4" s="34"/>
+      <c r="GY4" s="34"/>
+      <c r="GZ4" s="34"/>
+      <c r="HA4" s="34"/>
+      <c r="HB4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="HC4" s="36"/>
-      <c r="HD4" s="36"/>
-      <c r="HE4" s="36"/>
-      <c r="HF4" s="36"/>
-      <c r="HG4" s="36"/>
-      <c r="HH4" s="36"/>
-      <c r="HI4" s="36"/>
-      <c r="HJ4" s="36"/>
-      <c r="HK4" s="36"/>
-      <c r="HL4" s="36"/>
-      <c r="HM4" s="36"/>
-      <c r="HN4" s="36"/>
-      <c r="HO4" s="36"/>
-      <c r="HP4" s="36"/>
-      <c r="HQ4" s="36"/>
-      <c r="HR4" s="36"/>
-      <c r="HS4" s="36"/>
-      <c r="HT4" s="36"/>
-      <c r="HU4" s="36"/>
-      <c r="HV4" s="36"/>
-      <c r="HW4" s="36"/>
-      <c r="HX4" s="36"/>
-      <c r="HY4" s="36"/>
-      <c r="HZ4" s="36"/>
-      <c r="IA4" s="36"/>
-      <c r="IB4" s="36"/>
-      <c r="IC4" s="36"/>
-      <c r="ID4" s="36"/>
-      <c r="IE4" s="36"/>
-      <c r="IF4" s="38"/>
+      <c r="HC4" s="34"/>
+      <c r="HD4" s="34"/>
+      <c r="HE4" s="34"/>
+      <c r="HF4" s="34"/>
+      <c r="HG4" s="34"/>
+      <c r="HH4" s="34"/>
+      <c r="HI4" s="34"/>
+      <c r="HJ4" s="34"/>
+      <c r="HK4" s="34"/>
+      <c r="HL4" s="34"/>
+      <c r="HM4" s="34"/>
+      <c r="HN4" s="34"/>
+      <c r="HO4" s="34"/>
+      <c r="HP4" s="34"/>
+      <c r="HQ4" s="34"/>
+      <c r="HR4" s="34"/>
+      <c r="HS4" s="34"/>
+      <c r="HT4" s="34"/>
+      <c r="HU4" s="34"/>
+      <c r="HV4" s="34"/>
+      <c r="HW4" s="34"/>
+      <c r="HX4" s="34"/>
+      <c r="HY4" s="34"/>
+      <c r="HZ4" s="34"/>
+      <c r="IA4" s="34"/>
+      <c r="IB4" s="34"/>
+      <c r="IC4" s="34"/>
+      <c r="ID4" s="34"/>
+      <c r="IE4" s="34"/>
+      <c r="IF4" s="35"/>
     </row>
     <row r="5" spans="1:240">
       <c r="C5" s="18">
@@ -2255,7 +2307,7 @@
       <c r="AJ6" s="24"/>
       <c r="AK6" s="27">
         <f>SUM(AE7:AK7)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="24">
         <v>12</v>
@@ -2755,10 +2807,18 @@
       <c r="AF7" s="21">
         <v>2</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
+      <c r="AG7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>3</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>3</v>
+      </c>
       <c r="AK7" s="21"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
@@ -2984,21 +3044,21 @@
       </c>
       <c r="D9" s="11"/>
       <c r="H9" s="7"/>
-      <c r="EM9" s="37" t="s">
+      <c r="EM9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN9" s="37"/>
-      <c r="EO9" s="37"/>
-      <c r="EP9" s="37"/>
-      <c r="EQ9" s="37"/>
-      <c r="ER9" s="37"/>
-      <c r="ES9" s="37"/>
-      <c r="ET9" s="37"/>
-      <c r="EU9" s="37"/>
-      <c r="EV9" s="37"/>
-      <c r="EW9" s="37"/>
-      <c r="EX9" s="37"/>
-      <c r="EY9" s="37"/>
+      <c r="EN9" s="33"/>
+      <c r="EO9" s="33"/>
+      <c r="EP9" s="33"/>
+      <c r="EQ9" s="33"/>
+      <c r="ER9" s="33"/>
+      <c r="ES9" s="33"/>
+      <c r="ET9" s="33"/>
+      <c r="EU9" s="33"/>
+      <c r="EV9" s="33"/>
+      <c r="EW9" s="33"/>
+      <c r="EX9" s="33"/>
+      <c r="EY9" s="33"/>
     </row>
     <row r="10" spans="1:240">
       <c r="A10" s="6">
@@ -3013,21 +3073,21 @@
       <c r="D10" s="11"/>
       <c r="E10" s="8"/>
       <c r="H10" s="7"/>
-      <c r="EM10" s="37" t="s">
+      <c r="EM10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN10" s="37"/>
-      <c r="EO10" s="37"/>
-      <c r="EP10" s="37"/>
-      <c r="EQ10" s="37"/>
-      <c r="ER10" s="37"/>
-      <c r="ES10" s="37"/>
-      <c r="ET10" s="37"/>
-      <c r="EU10" s="37"/>
-      <c r="EV10" s="37"/>
-      <c r="EW10" s="37"/>
-      <c r="EX10" s="37"/>
-      <c r="EY10" s="37"/>
+      <c r="EN10" s="33"/>
+      <c r="EO10" s="33"/>
+      <c r="EP10" s="33"/>
+      <c r="EQ10" s="33"/>
+      <c r="ER10" s="33"/>
+      <c r="ES10" s="33"/>
+      <c r="ET10" s="33"/>
+      <c r="EU10" s="33"/>
+      <c r="EV10" s="33"/>
+      <c r="EW10" s="33"/>
+      <c r="EX10" s="33"/>
+      <c r="EY10" s="33"/>
     </row>
     <row r="11" spans="1:240">
       <c r="A11" s="6">
@@ -3041,21 +3101,21 @@
       </c>
       <c r="D11" s="11"/>
       <c r="H11" s="7"/>
-      <c r="EM11" s="37" t="s">
+      <c r="EM11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN11" s="37"/>
-      <c r="EO11" s="37"/>
-      <c r="EP11" s="37"/>
-      <c r="EQ11" s="37"/>
-      <c r="ER11" s="37"/>
-      <c r="ES11" s="37"/>
-      <c r="ET11" s="37"/>
-      <c r="EU11" s="37"/>
-      <c r="EV11" s="37"/>
-      <c r="EW11" s="37"/>
-      <c r="EX11" s="37"/>
-      <c r="EY11" s="37"/>
+      <c r="EN11" s="33"/>
+      <c r="EO11" s="33"/>
+      <c r="EP11" s="33"/>
+      <c r="EQ11" s="33"/>
+      <c r="ER11" s="33"/>
+      <c r="ES11" s="33"/>
+      <c r="ET11" s="33"/>
+      <c r="EU11" s="33"/>
+      <c r="EV11" s="33"/>
+      <c r="EW11" s="33"/>
+      <c r="EX11" s="33"/>
+      <c r="EY11" s="33"/>
     </row>
     <row r="12" spans="1:240">
       <c r="A12" s="6">
@@ -3077,21 +3137,21 @@
       <c r="S12" t="s">
         <v>33</v>
       </c>
-      <c r="EM12" s="37" t="s">
+      <c r="EM12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN12" s="37"/>
-      <c r="EO12" s="37"/>
-      <c r="EP12" s="37"/>
-      <c r="EQ12" s="37"/>
-      <c r="ER12" s="37"/>
-      <c r="ES12" s="37"/>
-      <c r="ET12" s="37"/>
-      <c r="EU12" s="37"/>
-      <c r="EV12" s="37"/>
-      <c r="EW12" s="37"/>
-      <c r="EX12" s="37"/>
-      <c r="EY12" s="37"/>
+      <c r="EN12" s="33"/>
+      <c r="EO12" s="33"/>
+      <c r="EP12" s="33"/>
+      <c r="EQ12" s="33"/>
+      <c r="ER12" s="33"/>
+      <c r="ES12" s="33"/>
+      <c r="ET12" s="33"/>
+      <c r="EU12" s="33"/>
+      <c r="EV12" s="33"/>
+      <c r="EW12" s="33"/>
+      <c r="EX12" s="33"/>
+      <c r="EY12" s="33"/>
     </row>
     <row r="13" spans="1:240">
       <c r="A13" s="6">
@@ -3104,39 +3164,39 @@
       <c r="H13" s="8"/>
       <c r="J13" s="9"/>
       <c r="V13" s="10"/>
-      <c r="EM13" s="37" t="s">
+      <c r="EM13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN13" s="37"/>
-      <c r="EO13" s="37"/>
-      <c r="EP13" s="37"/>
-      <c r="EQ13" s="37"/>
-      <c r="ER13" s="37"/>
-      <c r="ES13" s="37"/>
-      <c r="ET13" s="37"/>
-      <c r="EU13" s="37"/>
-      <c r="EV13" s="37"/>
-      <c r="EW13" s="37"/>
-      <c r="EX13" s="37"/>
-      <c r="EY13" s="37"/>
+      <c r="EN13" s="33"/>
+      <c r="EO13" s="33"/>
+      <c r="EP13" s="33"/>
+      <c r="EQ13" s="33"/>
+      <c r="ER13" s="33"/>
+      <c r="ES13" s="33"/>
+      <c r="ET13" s="33"/>
+      <c r="EU13" s="33"/>
+      <c r="EV13" s="33"/>
+      <c r="EW13" s="33"/>
+      <c r="EX13" s="33"/>
+      <c r="EY13" s="33"/>
     </row>
     <row r="14" spans="1:240">
       <c r="A14" s="6"/>
-      <c r="EM14" s="37" t="s">
+      <c r="EM14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN14" s="37"/>
-      <c r="EO14" s="37"/>
-      <c r="EP14" s="37"/>
-      <c r="EQ14" s="37"/>
-      <c r="ER14" s="37"/>
-      <c r="ES14" s="37"/>
-      <c r="ET14" s="37"/>
-      <c r="EU14" s="37"/>
-      <c r="EV14" s="37"/>
-      <c r="EW14" s="37"/>
-      <c r="EX14" s="37"/>
-      <c r="EY14" s="37"/>
+      <c r="EN14" s="33"/>
+      <c r="EO14" s="33"/>
+      <c r="EP14" s="33"/>
+      <c r="EQ14" s="33"/>
+      <c r="ER14" s="33"/>
+      <c r="ES14" s="33"/>
+      <c r="ET14" s="33"/>
+      <c r="EU14" s="33"/>
+      <c r="EV14" s="33"/>
+      <c r="EW14" s="33"/>
+      <c r="EX14" s="33"/>
+      <c r="EY14" s="33"/>
     </row>
     <row r="15" spans="1:240">
       <c r="A15" s="6">
@@ -3175,21 +3235,21 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="13"/>
       <c r="AB15" s="15"/>
-      <c r="EM15" s="37" t="s">
+      <c r="EM15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN15" s="37"/>
-      <c r="EO15" s="37"/>
-      <c r="EP15" s="37"/>
-      <c r="EQ15" s="37"/>
-      <c r="ER15" s="37"/>
-      <c r="ES15" s="37"/>
-      <c r="ET15" s="37"/>
-      <c r="EU15" s="37"/>
-      <c r="EV15" s="37"/>
-      <c r="EW15" s="37"/>
-      <c r="EX15" s="37"/>
-      <c r="EY15" s="37"/>
+      <c r="EN15" s="33"/>
+      <c r="EO15" s="33"/>
+      <c r="EP15" s="33"/>
+      <c r="EQ15" s="33"/>
+      <c r="ER15" s="33"/>
+      <c r="ES15" s="33"/>
+      <c r="ET15" s="33"/>
+      <c r="EU15" s="33"/>
+      <c r="EV15" s="33"/>
+      <c r="EW15" s="33"/>
+      <c r="EX15" s="33"/>
+      <c r="EY15" s="33"/>
     </row>
     <row r="16" spans="1:240">
       <c r="A16" s="6">
@@ -3200,39 +3260,39 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="AB16" s="12"/>
-      <c r="EM16" s="37" t="s">
+      <c r="EM16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN16" s="37"/>
-      <c r="EO16" s="37"/>
-      <c r="EP16" s="37"/>
-      <c r="EQ16" s="37"/>
-      <c r="ER16" s="37"/>
-      <c r="ES16" s="37"/>
-      <c r="ET16" s="37"/>
-      <c r="EU16" s="37"/>
-      <c r="EV16" s="37"/>
-      <c r="EW16" s="37"/>
-      <c r="EX16" s="37"/>
-      <c r="EY16" s="37"/>
+      <c r="EN16" s="33"/>
+      <c r="EO16" s="33"/>
+      <c r="EP16" s="33"/>
+      <c r="EQ16" s="33"/>
+      <c r="ER16" s="33"/>
+      <c r="ES16" s="33"/>
+      <c r="ET16" s="33"/>
+      <c r="EU16" s="33"/>
+      <c r="EV16" s="33"/>
+      <c r="EW16" s="33"/>
+      <c r="EX16" s="33"/>
+      <c r="EY16" s="33"/>
     </row>
     <row r="17" spans="1:240">
       <c r="A17" s="6"/>
-      <c r="EM17" s="37" t="s">
+      <c r="EM17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN17" s="37"/>
-      <c r="EO17" s="37"/>
-      <c r="EP17" s="37"/>
-      <c r="EQ17" s="37"/>
-      <c r="ER17" s="37"/>
-      <c r="ES17" s="37"/>
-      <c r="ET17" s="37"/>
-      <c r="EU17" s="37"/>
-      <c r="EV17" s="37"/>
-      <c r="EW17" s="37"/>
-      <c r="EX17" s="37"/>
-      <c r="EY17" s="37"/>
+      <c r="EN17" s="33"/>
+      <c r="EO17" s="33"/>
+      <c r="EP17" s="33"/>
+      <c r="EQ17" s="33"/>
+      <c r="ER17" s="33"/>
+      <c r="ES17" s="33"/>
+      <c r="ET17" s="33"/>
+      <c r="EU17" s="33"/>
+      <c r="EV17" s="33"/>
+      <c r="EW17" s="33"/>
+      <c r="EX17" s="33"/>
+      <c r="EY17" s="33"/>
     </row>
     <row r="18" spans="1:240">
       <c r="A18" s="6">
@@ -3298,39 +3358,39 @@
       <c r="AW18" s="13"/>
       <c r="AX18" s="13"/>
       <c r="AY18" s="16"/>
-      <c r="EM18" s="37" t="s">
+      <c r="EM18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN18" s="37"/>
-      <c r="EO18" s="37"/>
-      <c r="EP18" s="37"/>
-      <c r="EQ18" s="37"/>
-      <c r="ER18" s="37"/>
-      <c r="ES18" s="37"/>
-      <c r="ET18" s="37"/>
-      <c r="EU18" s="37"/>
-      <c r="EV18" s="37"/>
-      <c r="EW18" s="37"/>
-      <c r="EX18" s="37"/>
-      <c r="EY18" s="37"/>
+      <c r="EN18" s="33"/>
+      <c r="EO18" s="33"/>
+      <c r="EP18" s="33"/>
+      <c r="EQ18" s="33"/>
+      <c r="ER18" s="33"/>
+      <c r="ES18" s="33"/>
+      <c r="ET18" s="33"/>
+      <c r="EU18" s="33"/>
+      <c r="EV18" s="33"/>
+      <c r="EW18" s="33"/>
+      <c r="EX18" s="33"/>
+      <c r="EY18" s="33"/>
     </row>
     <row r="19" spans="1:240">
       <c r="A19" s="6"/>
-      <c r="EM19" s="37" t="s">
+      <c r="EM19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN19" s="37"/>
-      <c r="EO19" s="37"/>
-      <c r="EP19" s="37"/>
-      <c r="EQ19" s="37"/>
-      <c r="ER19" s="37"/>
-      <c r="ES19" s="37"/>
-      <c r="ET19" s="37"/>
-      <c r="EU19" s="37"/>
-      <c r="EV19" s="37"/>
-      <c r="EW19" s="37"/>
-      <c r="EX19" s="37"/>
-      <c r="EY19" s="37"/>
+      <c r="EN19" s="33"/>
+      <c r="EO19" s="33"/>
+      <c r="EP19" s="33"/>
+      <c r="EQ19" s="33"/>
+      <c r="ER19" s="33"/>
+      <c r="ES19" s="33"/>
+      <c r="ET19" s="33"/>
+      <c r="EU19" s="33"/>
+      <c r="EV19" s="33"/>
+      <c r="EW19" s="33"/>
+      <c r="EX19" s="33"/>
+      <c r="EY19" s="33"/>
     </row>
     <row r="20" spans="1:240">
       <c r="A20" s="6">
@@ -3376,9 +3436,13 @@
         <v>33</v>
       </c>
       <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="AH20" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
+      <c r="AJ20" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="AK20" s="13"/>
       <c r="AL20" s="14"/>
       <c r="AM20" s="13"/>
@@ -3485,21 +3549,21 @@
       <c r="EJ20" s="13"/>
       <c r="EK20" s="13"/>
       <c r="EL20" s="13"/>
-      <c r="EM20" s="37" t="s">
+      <c r="EM20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN20" s="37"/>
-      <c r="EO20" s="37"/>
-      <c r="EP20" s="37"/>
-      <c r="EQ20" s="37"/>
-      <c r="ER20" s="37"/>
-      <c r="ES20" s="37"/>
-      <c r="ET20" s="37"/>
-      <c r="EU20" s="37"/>
-      <c r="EV20" s="37"/>
-      <c r="EW20" s="37"/>
-      <c r="EX20" s="37"/>
-      <c r="EY20" s="37"/>
+      <c r="EN20" s="33"/>
+      <c r="EO20" s="33"/>
+      <c r="EP20" s="33"/>
+      <c r="EQ20" s="33"/>
+      <c r="ER20" s="33"/>
+      <c r="ES20" s="33"/>
+      <c r="ET20" s="33"/>
+      <c r="EU20" s="33"/>
+      <c r="EV20" s="33"/>
+      <c r="EW20" s="33"/>
+      <c r="EX20" s="33"/>
+      <c r="EY20" s="33"/>
     </row>
     <row r="21" spans="1:240">
       <c r="A21" s="6">
@@ -3510,21 +3574,21 @@
       </c>
       <c r="AZ21" s="9"/>
       <c r="EL21" s="7"/>
-      <c r="EM21" s="37" t="s">
+      <c r="EM21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN21" s="37"/>
-      <c r="EO21" s="37"/>
-      <c r="EP21" s="37"/>
-      <c r="EQ21" s="37"/>
-      <c r="ER21" s="37"/>
-      <c r="ES21" s="37"/>
-      <c r="ET21" s="37"/>
-      <c r="EU21" s="37"/>
-      <c r="EV21" s="37"/>
-      <c r="EW21" s="37"/>
-      <c r="EX21" s="37"/>
-      <c r="EY21" s="37"/>
+      <c r="EN21" s="33"/>
+      <c r="EO21" s="33"/>
+      <c r="EP21" s="33"/>
+      <c r="EQ21" s="33"/>
+      <c r="ER21" s="33"/>
+      <c r="ES21" s="33"/>
+      <c r="ET21" s="33"/>
+      <c r="EU21" s="33"/>
+      <c r="EV21" s="33"/>
+      <c r="EW21" s="33"/>
+      <c r="EX21" s="33"/>
+      <c r="EY21" s="33"/>
     </row>
     <row r="22" spans="1:240">
       <c r="A22" s="6">
@@ -3535,21 +3599,21 @@
       </c>
       <c r="AZ22" s="9"/>
       <c r="EL22" s="7"/>
-      <c r="EM22" s="37" t="s">
+      <c r="EM22" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN22" s="37"/>
-      <c r="EO22" s="37"/>
-      <c r="EP22" s="37"/>
-      <c r="EQ22" s="37"/>
-      <c r="ER22" s="37"/>
-      <c r="ES22" s="37"/>
-      <c r="ET22" s="37"/>
-      <c r="EU22" s="37"/>
-      <c r="EV22" s="37"/>
-      <c r="EW22" s="37"/>
-      <c r="EX22" s="37"/>
-      <c r="EY22" s="37"/>
+      <c r="EN22" s="33"/>
+      <c r="EO22" s="33"/>
+      <c r="EP22" s="33"/>
+      <c r="EQ22" s="33"/>
+      <c r="ER22" s="33"/>
+      <c r="ES22" s="33"/>
+      <c r="ET22" s="33"/>
+      <c r="EU22" s="33"/>
+      <c r="EV22" s="33"/>
+      <c r="EW22" s="33"/>
+      <c r="EX22" s="33"/>
+      <c r="EY22" s="33"/>
     </row>
     <row r="23" spans="1:240">
       <c r="A23" s="6">
@@ -3560,39 +3624,39 @@
       </c>
       <c r="AZ23" s="9"/>
       <c r="EL23" s="7"/>
-      <c r="EM23" s="37" t="s">
+      <c r="EM23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN23" s="37"/>
-      <c r="EO23" s="37"/>
-      <c r="EP23" s="37"/>
-      <c r="EQ23" s="37"/>
-      <c r="ER23" s="37"/>
-      <c r="ES23" s="37"/>
-      <c r="ET23" s="37"/>
-      <c r="EU23" s="37"/>
-      <c r="EV23" s="37"/>
-      <c r="EW23" s="37"/>
-      <c r="EX23" s="37"/>
-      <c r="EY23" s="37"/>
+      <c r="EN23" s="33"/>
+      <c r="EO23" s="33"/>
+      <c r="EP23" s="33"/>
+      <c r="EQ23" s="33"/>
+      <c r="ER23" s="33"/>
+      <c r="ES23" s="33"/>
+      <c r="ET23" s="33"/>
+      <c r="EU23" s="33"/>
+      <c r="EV23" s="33"/>
+      <c r="EW23" s="33"/>
+      <c r="EX23" s="33"/>
+      <c r="EY23" s="33"/>
     </row>
     <row r="24" spans="1:240">
       <c r="A24" s="6"/>
-      <c r="EM24" s="37" t="s">
+      <c r="EM24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN24" s="37"/>
-      <c r="EO24" s="37"/>
-      <c r="EP24" s="37"/>
-      <c r="EQ24" s="37"/>
-      <c r="ER24" s="37"/>
-      <c r="ES24" s="37"/>
-      <c r="ET24" s="37"/>
-      <c r="EU24" s="37"/>
-      <c r="EV24" s="37"/>
-      <c r="EW24" s="37"/>
-      <c r="EX24" s="37"/>
-      <c r="EY24" s="37"/>
+      <c r="EN24" s="33"/>
+      <c r="EO24" s="33"/>
+      <c r="EP24" s="33"/>
+      <c r="EQ24" s="33"/>
+      <c r="ER24" s="33"/>
+      <c r="ES24" s="33"/>
+      <c r="ET24" s="33"/>
+      <c r="EU24" s="33"/>
+      <c r="EV24" s="33"/>
+      <c r="EW24" s="33"/>
+      <c r="EX24" s="33"/>
+      <c r="EY24" s="33"/>
     </row>
     <row r="25" spans="1:240">
       <c r="A25" s="6">
@@ -3741,21 +3805,21 @@
       <c r="EJ25" s="13"/>
       <c r="EK25" s="13"/>
       <c r="EL25" s="13"/>
-      <c r="EM25" s="37" t="s">
+      <c r="EM25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN25" s="37"/>
-      <c r="EO25" s="37"/>
-      <c r="EP25" s="37"/>
-      <c r="EQ25" s="37"/>
-      <c r="ER25" s="37"/>
-      <c r="ES25" s="37"/>
-      <c r="ET25" s="37"/>
-      <c r="EU25" s="37"/>
-      <c r="EV25" s="37"/>
-      <c r="EW25" s="37"/>
-      <c r="EX25" s="37"/>
-      <c r="EY25" s="37"/>
+      <c r="EN25" s="33"/>
+      <c r="EO25" s="33"/>
+      <c r="EP25" s="33"/>
+      <c r="EQ25" s="33"/>
+      <c r="ER25" s="33"/>
+      <c r="ES25" s="33"/>
+      <c r="ET25" s="33"/>
+      <c r="EU25" s="33"/>
+      <c r="EV25" s="33"/>
+      <c r="EW25" s="33"/>
+      <c r="EX25" s="33"/>
+      <c r="EY25" s="33"/>
       <c r="EZ25" s="14"/>
       <c r="FA25" s="13"/>
       <c r="FB25" s="13"/>
@@ -3792,40 +3856,40 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="EM26" s="37" t="s">
+      <c r="EM26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN26" s="37"/>
-      <c r="EO26" s="37"/>
-      <c r="EP26" s="37"/>
-      <c r="EQ26" s="37"/>
-      <c r="ER26" s="37"/>
-      <c r="ES26" s="37"/>
-      <c r="ET26" s="37"/>
-      <c r="EU26" s="37"/>
-      <c r="EV26" s="37"/>
-      <c r="EW26" s="37"/>
-      <c r="EX26" s="37"/>
-      <c r="EY26" s="37"/>
+      <c r="EN26" s="33"/>
+      <c r="EO26" s="33"/>
+      <c r="EP26" s="33"/>
+      <c r="EQ26" s="33"/>
+      <c r="ER26" s="33"/>
+      <c r="ES26" s="33"/>
+      <c r="ET26" s="33"/>
+      <c r="EU26" s="33"/>
+      <c r="EV26" s="33"/>
+      <c r="EW26" s="33"/>
+      <c r="EX26" s="33"/>
+      <c r="EY26" s="33"/>
       <c r="EZ26" s="9"/>
       <c r="GA26" s="7"/>
     </row>
     <row r="27" spans="1:240">
-      <c r="EM27" s="37" t="s">
+      <c r="EM27" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN27" s="37"/>
-      <c r="EO27" s="37"/>
-      <c r="EP27" s="37"/>
-      <c r="EQ27" s="37"/>
-      <c r="ER27" s="37"/>
-      <c r="ES27" s="37"/>
-      <c r="ET27" s="37"/>
-      <c r="EU27" s="37"/>
-      <c r="EV27" s="37"/>
-      <c r="EW27" s="37"/>
-      <c r="EX27" s="37"/>
-      <c r="EY27" s="37"/>
+      <c r="EN27" s="33"/>
+      <c r="EO27" s="33"/>
+      <c r="EP27" s="33"/>
+      <c r="EQ27" s="33"/>
+      <c r="ER27" s="33"/>
+      <c r="ES27" s="33"/>
+      <c r="ET27" s="33"/>
+      <c r="EU27" s="33"/>
+      <c r="EV27" s="33"/>
+      <c r="EW27" s="33"/>
+      <c r="EX27" s="33"/>
+      <c r="EY27" s="33"/>
     </row>
     <row r="28" spans="1:240">
       <c r="A28" s="6">
@@ -3974,21 +4038,21 @@
       <c r="EJ28" s="13"/>
       <c r="EK28" s="13"/>
       <c r="EL28" s="13"/>
-      <c r="EM28" s="37" t="s">
+      <c r="EM28" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN28" s="37"/>
-      <c r="EO28" s="37"/>
-      <c r="EP28" s="37"/>
-      <c r="EQ28" s="37"/>
-      <c r="ER28" s="37"/>
-      <c r="ES28" s="37"/>
-      <c r="ET28" s="37"/>
-      <c r="EU28" s="37"/>
-      <c r="EV28" s="37"/>
-      <c r="EW28" s="37"/>
-      <c r="EX28" s="37"/>
-      <c r="EY28" s="37"/>
+      <c r="EN28" s="33"/>
+      <c r="EO28" s="33"/>
+      <c r="EP28" s="33"/>
+      <c r="EQ28" s="33"/>
+      <c r="ER28" s="33"/>
+      <c r="ES28" s="33"/>
+      <c r="ET28" s="33"/>
+      <c r="EU28" s="33"/>
+      <c r="EV28" s="33"/>
+      <c r="EW28" s="33"/>
+      <c r="EX28" s="33"/>
+      <c r="EY28" s="33"/>
       <c r="EZ28" s="14"/>
       <c r="FA28" s="13"/>
       <c r="FB28" s="13"/>
@@ -4062,21 +4126,21 @@
       <c r="HR28" s="16"/>
     </row>
     <row r="29" spans="1:240">
-      <c r="EM29" s="37" t="s">
+      <c r="EM29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN29" s="37"/>
-      <c r="EO29" s="37"/>
-      <c r="EP29" s="37"/>
-      <c r="EQ29" s="37"/>
-      <c r="ER29" s="37"/>
-      <c r="ES29" s="37"/>
-      <c r="ET29" s="37"/>
-      <c r="EU29" s="37"/>
-      <c r="EV29" s="37"/>
-      <c r="EW29" s="37"/>
-      <c r="EX29" s="37"/>
-      <c r="EY29" s="37"/>
+      <c r="EN29" s="33"/>
+      <c r="EO29" s="33"/>
+      <c r="EP29" s="33"/>
+      <c r="EQ29" s="33"/>
+      <c r="ER29" s="33"/>
+      <c r="ES29" s="33"/>
+      <c r="ET29" s="33"/>
+      <c r="EU29" s="33"/>
+      <c r="EV29" s="33"/>
+      <c r="EW29" s="33"/>
+      <c r="EX29" s="33"/>
+      <c r="EY29" s="33"/>
     </row>
     <row r="30" spans="1:240">
       <c r="A30" s="6">
@@ -4225,21 +4289,21 @@
       <c r="EJ30" s="13"/>
       <c r="EK30" s="13"/>
       <c r="EL30" s="13"/>
-      <c r="EM30" s="37" t="s">
+      <c r="EM30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN30" s="37"/>
-      <c r="EO30" s="37"/>
-      <c r="EP30" s="37"/>
-      <c r="EQ30" s="37"/>
-      <c r="ER30" s="37"/>
-      <c r="ES30" s="37"/>
-      <c r="ET30" s="37"/>
-      <c r="EU30" s="37"/>
-      <c r="EV30" s="37"/>
-      <c r="EW30" s="37"/>
-      <c r="EX30" s="37"/>
-      <c r="EY30" s="37"/>
+      <c r="EN30" s="33"/>
+      <c r="EO30" s="33"/>
+      <c r="EP30" s="33"/>
+      <c r="EQ30" s="33"/>
+      <c r="ER30" s="33"/>
+      <c r="ES30" s="33"/>
+      <c r="ET30" s="33"/>
+      <c r="EU30" s="33"/>
+      <c r="EV30" s="33"/>
+      <c r="EW30" s="33"/>
+      <c r="EX30" s="33"/>
+      <c r="EY30" s="33"/>
       <c r="EZ30" s="13"/>
       <c r="FA30" s="13"/>
       <c r="FB30" s="13"/>
@@ -4327,109 +4391,103 @@
       <c r="IF30" s="16"/>
     </row>
     <row r="31" spans="1:240">
-      <c r="EM31" s="37" t="s">
+      <c r="EM31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN31" s="37"/>
-      <c r="EO31" s="37"/>
-      <c r="EP31" s="37"/>
-      <c r="EQ31" s="37"/>
-      <c r="ER31" s="37"/>
-      <c r="ES31" s="37"/>
-      <c r="ET31" s="37"/>
-      <c r="EU31" s="37"/>
-      <c r="EV31" s="37"/>
-      <c r="EW31" s="37"/>
-      <c r="EX31" s="37"/>
-      <c r="EY31" s="37"/>
+      <c r="EN31" s="33"/>
+      <c r="EO31" s="33"/>
+      <c r="EP31" s="33"/>
+      <c r="EQ31" s="33"/>
+      <c r="ER31" s="33"/>
+      <c r="ES31" s="33"/>
+      <c r="ET31" s="33"/>
+      <c r="EU31" s="33"/>
+      <c r="EV31" s="33"/>
+      <c r="EW31" s="33"/>
+      <c r="EX31" s="33"/>
+      <c r="EY31" s="33"/>
     </row>
     <row r="32" spans="1:240">
-      <c r="EM32" s="37" t="s">
+      <c r="EM32" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN32" s="37"/>
-      <c r="EO32" s="37"/>
-      <c r="EP32" s="37"/>
-      <c r="EQ32" s="37"/>
-      <c r="ER32" s="37"/>
-      <c r="ES32" s="37"/>
-      <c r="ET32" s="37"/>
-      <c r="EU32" s="37"/>
-      <c r="EV32" s="37"/>
-      <c r="EW32" s="37"/>
-      <c r="EX32" s="37"/>
-      <c r="EY32" s="37"/>
+      <c r="EN32" s="33"/>
+      <c r="EO32" s="33"/>
+      <c r="EP32" s="33"/>
+      <c r="EQ32" s="33"/>
+      <c r="ER32" s="33"/>
+      <c r="ES32" s="33"/>
+      <c r="ET32" s="33"/>
+      <c r="EU32" s="33"/>
+      <c r="EV32" s="33"/>
+      <c r="EW32" s="33"/>
+      <c r="EX32" s="33"/>
+      <c r="EY32" s="33"/>
     </row>
     <row r="33" spans="143:155">
-      <c r="EM33" s="37" t="s">
+      <c r="EM33" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN33" s="37"/>
-      <c r="EO33" s="37"/>
-      <c r="EP33" s="37"/>
-      <c r="EQ33" s="37"/>
-      <c r="ER33" s="37"/>
-      <c r="ES33" s="37"/>
-      <c r="ET33" s="37"/>
-      <c r="EU33" s="37"/>
-      <c r="EV33" s="37"/>
-      <c r="EW33" s="37"/>
-      <c r="EX33" s="37"/>
-      <c r="EY33" s="37"/>
+      <c r="EN33" s="33"/>
+      <c r="EO33" s="33"/>
+      <c r="EP33" s="33"/>
+      <c r="EQ33" s="33"/>
+      <c r="ER33" s="33"/>
+      <c r="ES33" s="33"/>
+      <c r="ET33" s="33"/>
+      <c r="EU33" s="33"/>
+      <c r="EV33" s="33"/>
+      <c r="EW33" s="33"/>
+      <c r="EX33" s="33"/>
+      <c r="EY33" s="33"/>
     </row>
     <row r="34" spans="143:155">
-      <c r="EM34" s="37" t="s">
+      <c r="EM34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN34" s="37"/>
-      <c r="EO34" s="37"/>
-      <c r="EP34" s="37"/>
-      <c r="EQ34" s="37"/>
-      <c r="ER34" s="37"/>
-      <c r="ES34" s="37"/>
-      <c r="ET34" s="37"/>
-      <c r="EU34" s="37"/>
-      <c r="EV34" s="37"/>
-      <c r="EW34" s="37"/>
-      <c r="EX34" s="37"/>
-      <c r="EY34" s="37"/>
+      <c r="EN34" s="33"/>
+      <c r="EO34" s="33"/>
+      <c r="EP34" s="33"/>
+      <c r="EQ34" s="33"/>
+      <c r="ER34" s="33"/>
+      <c r="ES34" s="33"/>
+      <c r="ET34" s="33"/>
+      <c r="EU34" s="33"/>
+      <c r="EV34" s="33"/>
+      <c r="EW34" s="33"/>
+      <c r="EX34" s="33"/>
+      <c r="EY34" s="33"/>
     </row>
     <row r="35" spans="143:155">
-      <c r="EM35" s="37" t="s">
+      <c r="EM35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="EN35" s="37"/>
-      <c r="EO35" s="37"/>
-      <c r="EP35" s="37"/>
-      <c r="EQ35" s="37"/>
-      <c r="ER35" s="37"/>
-      <c r="ES35" s="37"/>
-      <c r="ET35" s="37"/>
-      <c r="EU35" s="37"/>
-      <c r="EV35" s="37"/>
-      <c r="EW35" s="37"/>
-      <c r="EX35" s="37"/>
-      <c r="EY35" s="37"/>
+      <c r="EN35" s="33"/>
+      <c r="EO35" s="33"/>
+      <c r="EP35" s="33"/>
+      <c r="EQ35" s="33"/>
+      <c r="ER35" s="33"/>
+      <c r="ES35" s="33"/>
+      <c r="ET35" s="33"/>
+      <c r="EU35" s="33"/>
+      <c r="EV35" s="33"/>
+      <c r="EW35" s="33"/>
+      <c r="EX35" s="33"/>
+      <c r="EY35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="EM31:EY31"/>
-    <mergeCell ref="EM32:EY32"/>
-    <mergeCell ref="EM33:EY33"/>
-    <mergeCell ref="EM34:EY34"/>
-    <mergeCell ref="EM35:EY35"/>
-    <mergeCell ref="EM30:EY30"/>
-    <mergeCell ref="EM19:EY19"/>
-    <mergeCell ref="EM20:EY20"/>
-    <mergeCell ref="EM21:EY21"/>
-    <mergeCell ref="EM22:EY22"/>
-    <mergeCell ref="EM23:EY23"/>
-    <mergeCell ref="EM24:EY24"/>
-    <mergeCell ref="EM25:EY25"/>
-    <mergeCell ref="EM26:EY26"/>
-    <mergeCell ref="EM27:EY27"/>
-    <mergeCell ref="EM28:EY28"/>
-    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C4:AB4"/>
+    <mergeCell ref="AC4:BF4"/>
+    <mergeCell ref="BG4:CK4"/>
+    <mergeCell ref="CL4:DO4"/>
+    <mergeCell ref="DP4:ET4"/>
     <mergeCell ref="EM18:EY18"/>
     <mergeCell ref="FZ4:HA4"/>
     <mergeCell ref="HB4:IF4"/>
@@ -4443,17 +4501,23 @@
     <mergeCell ref="EM15:EY15"/>
     <mergeCell ref="EM16:EY16"/>
     <mergeCell ref="EM17:EY17"/>
-    <mergeCell ref="C4:AB4"/>
-    <mergeCell ref="AC4:BF4"/>
-    <mergeCell ref="BG4:CK4"/>
-    <mergeCell ref="CL4:DO4"/>
-    <mergeCell ref="DP4:ET4"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="EM30:EY30"/>
+    <mergeCell ref="EM19:EY19"/>
+    <mergeCell ref="EM20:EY20"/>
+    <mergeCell ref="EM21:EY21"/>
+    <mergeCell ref="EM22:EY22"/>
+    <mergeCell ref="EM23:EY23"/>
+    <mergeCell ref="EM24:EY24"/>
+    <mergeCell ref="EM25:EY25"/>
+    <mergeCell ref="EM26:EY26"/>
+    <mergeCell ref="EM27:EY27"/>
+    <mergeCell ref="EM28:EY28"/>
+    <mergeCell ref="EM29:EY29"/>
+    <mergeCell ref="EM31:EY31"/>
+    <mergeCell ref="EM32:EY32"/>
+    <mergeCell ref="EM33:EY33"/>
+    <mergeCell ref="EM34:EY34"/>
+    <mergeCell ref="EM35:EY35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
